--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C38D3-9E3B-4491-8FD2-DA52C71C9CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189B8CA-B075-4B34-A34D-0B5928F064EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -876,7 +876,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -982,7 +982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1134,16 +1134,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.88671875" customWidth="1"/>
+    <col min="1" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45560.642766203702</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45560.642766203702</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45560.642766203702</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45560.642361111109</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45553.906388888892</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45529.90896990741</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45529.906527777777</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45529.906145833331</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45528.998402777775</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45500.560335648152</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45500.559224537035</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45500.559224537035</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45488.037268518521</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45479.777083333334</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45479.76871527778</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45479.768495370372</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45479.673125000001</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45479.672395833331</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45459.611851851849</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45457.954826388886</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45457.954826388886</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45457.954560185186</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45457.954560185186</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45457.95416666667</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45455.630983796298</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45455.630624999998</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45455.036585648151</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45451.519594907404</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45451.504004629627</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45450.922071759262</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45450.922071759262</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45450.921388888892</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45450.920393518521</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45447.972905092596</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45447.949826388889</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45446.501504629632</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45446.496493055558</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45446.420810185184</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45442.009212962963</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45441.908472222225</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45440.886192129627</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45439.966828703706</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45439.965474537035</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45438.413587962961</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45438.066701388889</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45438.064282407409</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45438.062881944446</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45438.016701388886</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45438.011793981481</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45437.934502314813</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45437.927314814813</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45436.947754629633</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45436.935613425929</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45436.934664351851</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>45436.433229166665</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45426.641608796293</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>45425.858472222222</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45422.839930555558</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45422.83865740741</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45422.837546296294</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>45422.835844907408</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45422.833622685182</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>45422.831307870372</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45422.829675925925</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>45422.08221064815</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45422.07099537037</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>45422.069872685184</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45422.056192129632</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>45422.018043981479</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45421.93954861111</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45421.817245370374</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45418.977210648147</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>45418.969189814816</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>45414.950277777774</v>
       </c>
@@ -3239,12 +3239,12 @@
       <selection activeCell="A2" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45414.950277777774</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45418.969189814816</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45418.977210648147</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45421.817245370374</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45421.93954861111</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45422.018043981479</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45422.056192129632</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45422.069872685184</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45422.07099537037</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45422.08221064815</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45422.829675925925</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45422.831307870372</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45422.833622685182</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45422.835844907408</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45422.837546296294</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45422.83865740741</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45422.839930555558</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45425.858472222222</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45426.641608796293</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45436.433229166665</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45436.934664351851</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45436.935613425929</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45436.947754629633</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45437.927314814813</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45437.934502314813</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45438.011793981481</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45438.016701388886</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45438.062881944446</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45438.064282407409</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45438.066701388889</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45438.413587962961</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45440.886192129627</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45488.037268518521</v>
       </c>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189B8CA-B075-4B34-A34D-0B5928F064EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0DEC6-BDB7-42DE-A209-2F488DAA82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="242">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -743,6 +743,21 @@
   </si>
   <si>
     <t>OMEUR</t>
+  </si>
+  <si>
+    <t>BBBNB</t>
+  </si>
+  <si>
+    <t>116.4</t>
+  </si>
+  <si>
+    <t>0.0001631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01898484 </t>
+  </si>
+  <si>
+    <t>0.00001423</t>
   </si>
 </sst>
 </file>
@@ -836,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -876,7 +891,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -982,7 +997,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,18 +1147,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="20.85546875" customWidth="1"/>
+    <col min="1" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,33 +1184,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45560.642766203702</v>
+        <v>45878.026342592595</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45560.642766203702</v>
       </c>
@@ -1209,19 +1224,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45560.642766203702</v>
       </c>
@@ -1232,230 +1247,230 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <v>45560.642766203702</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>45560.642361111109</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>45553.906388888892</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>45529.90896990741</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>45529.906527777777</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45529.906145833331</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
+        <v>45529.906145833331</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>45528.998402777775</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>45500.560335648152</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45500.559224537035</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45500.559224537035</v>
       </c>
@@ -1469,227 +1484,227 @@
         <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
+        <v>45500.559224537035</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>45488.037268518521</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
         <v>1.00660569</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>194.71378021999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>200</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="H15" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>45479.777083333334</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45479.76871527778</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45479.768495370372</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45479.673125000001</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45479.672395833331</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45459.611851851849</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45457.954826388886</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45457.954826388886</v>
       </c>
@@ -1703,45 +1718,45 @@
         <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45457.954826388886</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>45457.954560185186</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45457.954560185186</v>
       </c>
@@ -1752,152 +1767,152 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45457.95416666667</v>
+        <v>45457.954560185186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
+        <v>45457.95416666667</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>45455.630983796298</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>45455.630624999998</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>45455.036585648151</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45451.519849537035</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1911,19 +1926,19 @@
         <v>131</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1937,19 +1952,19 @@
         <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1963,19 +1978,19 @@
         <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45451.519849537035</v>
       </c>
@@ -1989,97 +2004,97 @@
         <v>131</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45451.519594907404</v>
+        <v>45451.519849537035</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45451.504004629627</v>
+        <v>45451.519594907404</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45450.922071759262</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45450.922071759262</v>
       </c>
@@ -2090,102 +2105,102 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
+        <v>45450.922071759262</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>45450.921388888892</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>45450.920393518521</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45447.972905092596</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45447.949826388889</v>
+        <v>45447.972905092596</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>174</v>
@@ -2197,319 +2212,319 @@
         <v>175</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45446.496493055558</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45446.420810185184</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45442.009212962963</v>
+        <v>45446.420810185184</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45441.908472222225</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
+        <v>45441.908472222225</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>45440.886192129627</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
         <v>64131.089181479998</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>7.6406E-4</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="2">
         <v>50</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G48" s="2">
         <v>1</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="H48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>45439.966828703706</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>45439.965474537035</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
+        <v>45439.965474537035</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>45438.413587962961</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
         <v>64764.057269930003</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="2">
         <v>3.02637E-3</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="2">
         <v>200</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <v>4</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="H51" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>45438.066701388889</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
         <v>21.880480030000001</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <v>3.3587014499999999</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="2">
         <v>75</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="H52" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>45438.064282407409</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2">
         <v>21.400680940000001</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>4.5792935400000001</v>
-      </c>
-      <c r="F52" s="2">
-        <v>100</v>
-      </c>
-      <c r="G52" s="2">
-        <v>2</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>45438.062881944446</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2.0397180000000001E-2</v>
-      </c>
-      <c r="E53" s="2">
-        <v>4804.5860693499999</v>
       </c>
       <c r="F53" s="2">
         <v>100</v>
@@ -2521,73 +2536,73 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
+        <v>45438.062881944446</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2.0397180000000001E-2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4804.5860693499999</v>
+      </c>
+      <c r="F54" s="2">
+        <v>100</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>45438.016701388886</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
         <v>0.50915756999999995</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="2">
         <v>288.7121952</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F55" s="2">
         <v>150</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>3</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="H55" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>45438.011793981481</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
         <v>0.50817648999999998</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="2">
         <v>192.84638819</v>
-      </c>
-      <c r="F55" s="2">
-        <v>100</v>
-      </c>
-      <c r="G55" s="2">
-        <v>2</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>45437.934502314813</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.414E-5</v>
-      </c>
-      <c r="E56" s="2">
-        <v>6928298.2400000002</v>
       </c>
       <c r="F56" s="2">
         <v>100</v>
@@ -2599,21 +2614,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45437.927314814813</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>7.6274206099999997</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E57" s="2">
-        <v>12.848380199999999</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F57" s="2">
         <v>100</v>
@@ -2625,21 +2640,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45436.947754629633</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>2571.01241222</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E58" s="2">
-        <v>3.8117280000000003E-2</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F58" s="2">
         <v>100</v>
@@ -2651,73 +2666,73 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
+        <v>45436.947754629633</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2571.01241222</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3.8117280000000003E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>45436.935613425929</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
         <v>3502.0461955599999</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <v>4.1975459999999999E-2</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F60" s="2">
         <v>150</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="2">
         <v>3</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="H60" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>45436.934664351851</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2">
         <v>157.11043262000001</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="2">
         <v>0.62376507000000003</v>
-      </c>
-      <c r="F60" s="2">
-        <v>100</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>45436.433229166665</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2">
-        <v>63003.060148639997</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F61" s="2">
         <v>100</v>
@@ -2729,9 +2744,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>45426.641608796293</v>
+        <v>45436.433229166665</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>218</v>
@@ -2740,192 +2755,192 @@
         <v>9</v>
       </c>
       <c r="D62" s="2">
+        <v>63003.060148639997</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.5554799999999999E-3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>100</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>45426.641608796293</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
         <v>57930.577887070001</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="2">
         <v>8.4584000000000005E-4</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F63" s="2">
         <v>50</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G63" s="2">
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="H63" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>45425.858472222222</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2">
         <v>140.23996862000001</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
         <v>0.69880220999999998</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="2">
         <v>100</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>2</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="H64" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>45422.839930555558</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
         <v>10.580849669999999</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="2">
         <v>1.85240322</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F65" s="2">
         <v>20</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>0.4</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="H65" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>45422.83865740741</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2">
         <v>2752.3331128700001</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="2">
         <v>5.3372899999999997E-3</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F66" s="2">
         <v>15</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="2">
         <v>0.31</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="H66" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>45422.837546296294</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
         <v>57425.239760140001</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <v>5.1197000000000005E-4</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
         <v>30</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G67" s="2">
         <v>0.6</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="H67" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>45422.835844907408</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
         <v>2.10457801</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="2">
         <v>6.9800216099999997</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F68" s="2">
         <v>15</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G68" s="2">
         <v>0.31</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="H68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>45422.833622685182</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2">
         <v>0.1200639</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="2">
         <v>163.24640485</v>
-      </c>
-      <c r="F68" s="2">
-        <v>20</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>45422.831307870372</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2">
-        <v>140.17980062000001</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0.13982043</v>
       </c>
       <c r="F69" s="2">
         <v>20</v>
@@ -2937,151 +2952,151 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
+        <v>45422.831307870372</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2">
+        <v>140.17980062000001</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.13982043</v>
+      </c>
+      <c r="F70" s="2">
+        <v>20</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>45422.829675925925</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
         <v>0.79988477999999996</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <v>18.365145070000001</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="2">
         <v>15</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>0.31</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="H71" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>45422.08221064815</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
         <v>143.75063899</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>0.13634721999999999</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F72" s="2">
         <v>20</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>0.4</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="H72" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>45422.07099537037</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.93873598000000003</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="2">
         <v>26.088272459999999</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F73" s="2">
         <v>25</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>0.51</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="H73" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>45422.069872685184</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2">
         <v>2583.1506530400002</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="2">
         <v>6.8288699999999999E-3</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F74" s="2">
         <v>18</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>0.36</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="H74" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>45422.056192129632</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2">
         <v>2.1432031</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E75" s="2">
         <v>11.426821869999999</v>
-      </c>
-      <c r="F74" s="2">
-        <v>25</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>45422.018043981479</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2">
-        <v>10.234263159999999</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2.3929421799999999</v>
       </c>
       <c r="F75" s="2">
         <v>25</v>
@@ -3093,21 +3108,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>45421.93954861111</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>0.11898276000000001</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E76" s="2">
-        <v>205.82814242000001</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F76" s="2">
         <v>25</v>
@@ -3119,21 +3134,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>45421.817245370374</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>3.8034991200000001</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E77" s="2">
-        <v>6.4388078499999999</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F77" s="2">
         <v>25</v>
@@ -3145,21 +3160,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45418.977210648147</v>
+        <v>45421.817245370374</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>2912.2689564799998</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E78" s="2">
-        <v>8.4072299999999999E-3</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F78" s="2">
         <v>25</v>
@@ -3171,21 +3186,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>45418.969189814816</v>
+        <v>45418.977210648147</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>59899.712723249999</v>
+        <v>2912.2689564799998</v>
       </c>
       <c r="E79" s="2">
-        <v>4.0884999999999999E-4</v>
+        <v>8.4072299999999999E-3</v>
       </c>
       <c r="F79" s="2">
         <v>25</v>
@@ -3197,21 +3212,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>45414.950277777774</v>
+        <v>45418.969189814816</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2">
-        <v>131.18665751</v>
+        <v>59899.712723249999</v>
       </c>
       <c r="E80" s="2">
-        <v>0.18668056999999999</v>
+        <v>4.0884999999999999E-4</v>
       </c>
       <c r="F80" s="2">
         <v>25</v>
@@ -3223,9 +3238,35 @@
         <v>219</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>45414.950277777774</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2">
+        <v>131.18665751</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F81" s="2">
+        <v>25</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
-    <sortCondition descending="1" ref="A3:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H81">
+    <sortCondition descending="1" ref="A4:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3239,12 +3280,12 @@
       <selection activeCell="A2" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45414.950277777774</v>
       </c>
@@ -3296,7 +3337,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45418.969189814816</v>
       </c>
@@ -3322,7 +3363,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45418.977210648147</v>
       </c>
@@ -3348,7 +3389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45421.817245370374</v>
       </c>
@@ -3374,7 +3415,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45421.93954861111</v>
       </c>
@@ -3400,7 +3441,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45422.018043981479</v>
       </c>
@@ -3426,7 +3467,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45422.056192129632</v>
       </c>
@@ -3452,7 +3493,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45422.069872685184</v>
       </c>
@@ -3478,7 +3519,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45422.07099537037</v>
       </c>
@@ -3504,7 +3545,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45422.08221064815</v>
       </c>
@@ -3530,7 +3571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45422.829675925925</v>
       </c>
@@ -3556,7 +3597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45422.831307870372</v>
       </c>
@@ -3582,7 +3623,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45422.833622685182</v>
       </c>
@@ -3608,7 +3649,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45422.835844907408</v>
       </c>
@@ -3634,7 +3675,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45422.837546296294</v>
       </c>
@@ -3660,7 +3701,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45422.83865740741</v>
       </c>
@@ -3686,7 +3727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45422.839930555558</v>
       </c>
@@ -3712,7 +3753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45425.858472222222</v>
       </c>
@@ -3738,7 +3779,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45426.641608796293</v>
       </c>
@@ -3764,7 +3805,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45436.433229166665</v>
       </c>
@@ -3790,7 +3831,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45436.934664351851</v>
       </c>
@@ -3816,7 +3857,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45436.935613425929</v>
       </c>
@@ -3842,7 +3883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45436.947754629633</v>
       </c>
@@ -3868,7 +3909,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45437.927314814813</v>
       </c>
@@ -3894,7 +3935,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45437.934502314813</v>
       </c>
@@ -3920,7 +3961,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45438.011793981481</v>
       </c>
@@ -3946,7 +3987,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45438.016701388886</v>
       </c>
@@ -3972,7 +4013,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45438.062881944446</v>
       </c>
@@ -3998,7 +4039,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45438.064282407409</v>
       </c>
@@ -4024,7 +4065,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45438.066701388889</v>
       </c>
@@ -4050,7 +4091,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45438.413587962961</v>
       </c>
@@ -4076,7 +4117,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45440.886192129627</v>
       </c>
@@ -4102,7 +4143,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45488.037268518521</v>
       </c>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0DEC6-BDB7-42DE-A209-2F488DAA82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FB7CB-4AB6-411A-9E92-567A7C9E2AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="244">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -298,9 +298,6 @@
     <t>0.00000921</t>
   </si>
   <si>
-    <t>5181574</t>
-  </si>
-  <si>
     <t>47.72229654</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>0.020114</t>
   </si>
   <si>
-    <t>2036</t>
-  </si>
-  <si>
     <t>40.952104</t>
   </si>
   <si>
@@ -325,18 +319,12 @@
     <t>0.019619</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>1.726472</t>
   </si>
   <si>
     <t>0.0000022</t>
   </si>
   <si>
-    <t>1950</t>
-  </si>
-  <si>
     <t>38.25705</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>0.00001145</t>
   </si>
   <si>
-    <t>1746724</t>
-  </si>
-  <si>
     <t>19.9999898</t>
   </si>
   <si>
@@ -415,9 +400,6 @@
     <t>0.00000173</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>0.0001384</t>
   </si>
   <si>
@@ -758,6 +740,30 @@
   </si>
   <si>
     <t>0.00001423</t>
+  </si>
+  <si>
+    <t>JASMYTRY</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>TRXTRY</t>
+  </si>
+  <si>
+    <t>14.852</t>
+  </si>
+  <si>
+    <t>0.00026837</t>
+  </si>
+  <si>
+    <t>8718.124</t>
+  </si>
+  <si>
+    <t>JASMYBNB</t>
+  </si>
+  <si>
+    <t>TRYBNB</t>
   </si>
 </sst>
 </file>
@@ -851,9 +857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -891,7 +897,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -997,7 +1003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1147,1514 +1153,1518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.88671875" customWidth="1"/>
+    <col min="1" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45878.026342592595</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>241</v>
+      <c r="D2" s="2">
+        <f>+F2/E2</f>
+        <v>5.4485049833887042E-7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.2799999999999999E-6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6118E-4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45560.642766203702</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <f>+F3/E3</f>
+        <v>3.2799790081343479E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.21952E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.2299999999999998E-6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45560.642766203702</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <f>F4/E4</f>
+        <v>1.8274294296487409E-5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.90181321000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.6480000000000001E-5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45560.642766203702</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>239</v>
+      </c>
+      <c r="E5" s="2">
+        <v>587</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45560.642361111109</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12792</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8724.1440000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.6860999999999996E-4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45878.026342592595</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45560.642766203702</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45560.642766203702</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45560.642766203702</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45560.642361111109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>45553.906388888892</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>45529.90896990741</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>45529.906527777777</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>45529.906145833331</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>45528.998402777775</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>45500.560335648152</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>45500.559224537035</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>45500.559224537035</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45488.037268518521</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.00660569</v>
-      </c>
-      <c r="E15" s="2">
-        <v>194.71378021999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45479.777083333334</v>
+        <v>45528.998402777775</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45479.76871527778</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45479.768495370372</v>
+        <v>45500.559224537035</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45479.673125000001</v>
+        <v>45500.559224537035</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45479.672395833331</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.00660569</v>
+      </c>
+      <c r="E20" s="2">
+        <v>194.71378021999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>200</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45479.777083333334</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>45459.611851851849</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45457.954826388886</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45457.954826388886</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45457.954560185186</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45457.954560185186</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5181574</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45457.95416666667</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2036</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45457.954826388886</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>45455.630983796298</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45455.630624999998</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1950</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45455.036585648151</v>
+        <v>45457.954560185186</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45451.519849537035</v>
+        <v>45457.954560185186</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45451.519849537035</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1746724</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45451.519849537035</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45451.519849537035</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45451.519849537035</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
+      </c>
+      <c r="E34" s="2">
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45451.519594907404</v>
+        <v>45451.519849537035</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45451.504004629627</v>
+        <v>45451.519849537035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45451.519849537035</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45451.519849537035</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>45450.922071759262</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>45450.922071759262</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45450.921388888892</v>
+        <v>45451.519849537035</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45450.920393518521</v>
+        <v>45451.519594907404</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45447.972905092596</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45447.949826388889</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45446.501504629632</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45446.496493055558</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45446.420810185184</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45442.009212962963</v>
+        <v>45447.972905092596</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45441.908472222225</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45440.886192129627</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2">
-        <v>64131.089181479998</v>
-      </c>
-      <c r="E48" s="2">
-        <v>7.6406E-4</v>
-      </c>
-      <c r="F48" s="2">
-        <v>50</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45439.966828703706</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45439.965474537035</v>
+        <v>45446.420810185184</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
+        <v>45442.009212962963</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45441.908472222225</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45440.886192129627</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2">
+        <v>64131.089181479998</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7.6406E-4</v>
+      </c>
+      <c r="F53" s="2">
+        <v>50</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45439.966828703706</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45439.965474537035</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>45438.413587962961</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
         <v>64764.057269930003</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E56" s="2">
         <v>3.02637E-3</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F56" s="2">
         <v>200</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G56" s="2">
         <v>4</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="H56" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>45438.066701388889</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2">
         <v>21.880480030000001</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E57" s="2">
         <v>3.3587014499999999</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F57" s="2">
         <v>75</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="H57" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>45438.064282407409</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B58" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
         <v>21.400680940000001</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E58" s="2">
         <v>4.5792935400000001</v>
-      </c>
-      <c r="F53" s="2">
-        <v>100</v>
-      </c>
-      <c r="G53" s="2">
-        <v>2</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>45438.062881944446</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2.0397180000000001E-2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>4804.5860693499999</v>
-      </c>
-      <c r="F54" s="2">
-        <v>100</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>45438.016701388886</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.50915756999999995</v>
-      </c>
-      <c r="E55" s="2">
-        <v>288.7121952</v>
-      </c>
-      <c r="F55" s="2">
-        <v>150</v>
-      </c>
-      <c r="G55" s="2">
-        <v>3</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>45438.011793981481</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.50817648999999998</v>
-      </c>
-      <c r="E56" s="2">
-        <v>192.84638819</v>
-      </c>
-      <c r="F56" s="2">
-        <v>100</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>45437.934502314813</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1.414E-5</v>
-      </c>
-      <c r="E57" s="2">
-        <v>6928298.2400000002</v>
-      </c>
-      <c r="F57" s="2">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>45437.927314814813</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2">
-        <v>7.6274206099999997</v>
-      </c>
-      <c r="E58" s="2">
-        <v>12.848380199999999</v>
       </c>
       <c r="F58" s="2">
         <v>100</v>
@@ -2663,24 +2673,24 @@
         <v>2</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45436.947754629633</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2">
-        <v>2571.01241222</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E59" s="2">
-        <v>3.8117280000000003E-2</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F59" s="2">
         <v>100</v>
@@ -2689,24 +2699,24 @@
         <v>2</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45436.935613425929</v>
+        <v>45438.016701388886</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>3502.0461955599999</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E60" s="2">
-        <v>4.1975459999999999E-2</v>
+        <v>288.7121952</v>
       </c>
       <c r="F60" s="2">
         <v>150</v>
@@ -2715,24 +2725,24 @@
         <v>3</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45436.934664351851</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>157.11043262000001</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E61" s="2">
-        <v>0.62376507000000003</v>
+        <v>192.84638819</v>
       </c>
       <c r="F61" s="2">
         <v>100</v>
@@ -2741,24 +2751,24 @@
         <v>2</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45436.433229166665</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>63003.060148639997</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E62" s="2">
-        <v>1.5554799999999999E-3</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F62" s="2">
         <v>100</v>
@@ -2767,50 +2777,50 @@
         <v>2</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>45437.927314814813</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.6274206099999997</v>
+      </c>
+      <c r="E63" s="2">
+        <v>12.848380199999999</v>
+      </c>
+      <c r="F63" s="2">
+        <v>100</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45436.947754629633</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>45426.641608796293</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2">
-        <v>57930.577887070001</v>
-      </c>
-      <c r="E63" s="2">
-        <v>8.4584000000000005E-4</v>
-      </c>
-      <c r="F63" s="2">
-        <v>50</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>45425.858472222222</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>140.23996862000001</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E64" s="2">
-        <v>0.69880220999999998</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F64" s="2">
         <v>100</v>
@@ -2819,142 +2829,142 @@
         <v>2</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
+        <v>45436.935613425929</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3502.0461955599999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4.1975459999999999E-2</v>
+      </c>
+      <c r="F65" s="2">
+        <v>150</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45436.934664351851</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2">
+        <v>157.11043262000001</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.62376507000000003</v>
+      </c>
+      <c r="F66" s="2">
+        <v>100</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>45436.433229166665</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
+        <v>63003.060148639997</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.5554799999999999E-3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>100</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>45426.641608796293</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
+        <v>57930.577887070001</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8.4584000000000005E-4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>45425.858472222222</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2">
+        <v>140.23996862000001</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.69880220999999998</v>
+      </c>
+      <c r="F69" s="2">
+        <v>100</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>45422.839930555558</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2">
-        <v>10.580849669999999</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1.85240322</v>
-      </c>
-      <c r="F65" s="2">
-        <v>20</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>45422.83865740741</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2752.3331128700001</v>
-      </c>
-      <c r="E66" s="2">
-        <v>5.3372899999999997E-3</v>
-      </c>
-      <c r="F66" s="2">
-        <v>15</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>45422.837546296294</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2">
-        <v>57425.239760140001</v>
-      </c>
-      <c r="E67" s="2">
-        <v>5.1197000000000005E-4</v>
-      </c>
-      <c r="F67" s="2">
-        <v>30</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>45422.835844907408</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2.10457801</v>
-      </c>
-      <c r="E68" s="2">
-        <v>6.9800216099999997</v>
-      </c>
-      <c r="F68" s="2">
-        <v>15</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>45422.833622685182</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.1200639</v>
-      </c>
-      <c r="E69" s="2">
-        <v>163.24640485</v>
-      </c>
-      <c r="F69" s="2">
-        <v>20</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>45422.831307870372</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>217</v>
@@ -2963,10 +2973,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>140.17980062000001</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E70" s="2">
-        <v>0.13982043</v>
+        <v>1.85240322</v>
       </c>
       <c r="F70" s="2">
         <v>20</v>
@@ -2975,24 +2985,24 @@
         <v>0.4</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45422.829675925925</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>0.79988477999999996</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E71" s="2">
-        <v>18.365145070000001</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F71" s="2">
         <v>15</v>
@@ -3001,180 +3011,180 @@
         <v>0.31</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
+        <v>45422.837546296294</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
+        <v>57425.239760140001</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5.1197000000000005E-4</v>
+      </c>
+      <c r="F72" s="2">
+        <v>30</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>45422.835844907408</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.10457801</v>
+      </c>
+      <c r="E73" s="2">
+        <v>6.9800216099999997</v>
+      </c>
+      <c r="F73" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>45422.833622685182</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.1200639</v>
+      </c>
+      <c r="E74" s="2">
+        <v>163.24640485</v>
+      </c>
+      <c r="F74" s="2">
+        <v>20</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>45422.831307870372</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2">
+        <v>140.17980062000001</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.13982043</v>
+      </c>
+      <c r="F75" s="2">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45422.829675925925</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.79988477999999996</v>
+      </c>
+      <c r="E76" s="2">
+        <v>18.365145070000001</v>
+      </c>
+      <c r="F76" s="2">
+        <v>15</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>45422.08221064815</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="B77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2">
         <v>143.75063899</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E77" s="2">
         <v>0.13634721999999999</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F77" s="2">
         <v>20</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G77" s="2">
         <v>0.4</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="H77" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>45422.07099537037</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="B78" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.93873598000000003</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E78" s="2">
         <v>26.088272459999999</v>
-      </c>
-      <c r="F73" s="2">
-        <v>25</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>45422.069872685184</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2583.1506530400002</v>
-      </c>
-      <c r="E74" s="2">
-        <v>6.8288699999999999E-3</v>
-      </c>
-      <c r="F74" s="2">
-        <v>18</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>45422.056192129632</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2.1432031</v>
-      </c>
-      <c r="E75" s="2">
-        <v>11.426821869999999</v>
-      </c>
-      <c r="F75" s="2">
-        <v>25</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>45422.018043981479</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2">
-        <v>10.234263159999999</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2.3929421799999999</v>
-      </c>
-      <c r="F76" s="2">
-        <v>25</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>45421.93954861111</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.11898276000000001</v>
-      </c>
-      <c r="E77" s="2">
-        <v>205.82814242000001</v>
-      </c>
-      <c r="F77" s="2">
-        <v>25</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>45421.817245370374</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2">
-        <v>3.8034991200000001</v>
-      </c>
-      <c r="E78" s="2">
-        <v>6.4388078499999999</v>
       </c>
       <c r="F78" s="2">
         <v>25</v>
@@ -3183,38 +3193,38 @@
         <v>0.51</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>45422.069872685184</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>45418.977210648147</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>2912.2689564799998</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E79" s="2">
-        <v>8.4072299999999999E-3</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F79" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45418.969189814816</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>218</v>
@@ -3223,10 +3233,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2">
-        <v>59899.712723249999</v>
+        <v>2.1432031</v>
       </c>
       <c r="E80" s="2">
-        <v>4.0884999999999999E-4</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F80" s="2">
         <v>25</v>
@@ -3235,12 +3245,12 @@
         <v>0.51</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45414.950277777774</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>217</v>
@@ -3249,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>131.18665751</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E81" s="2">
-        <v>0.18668056999999999</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F81" s="2">
         <v>25</v>
@@ -3261,12 +3271,142 @@
         <v>0.51</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>45421.93954861111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.11898276000000001</v>
+      </c>
+      <c r="E82" s="2">
+        <v>205.82814242000001</v>
+      </c>
+      <c r="F82" s="2">
+        <v>25</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>45421.817245370374</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3.8034991200000001</v>
+      </c>
+      <c r="E83" s="2">
+        <v>6.4388078499999999</v>
+      </c>
+      <c r="F83" s="2">
+        <v>25</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E84" s="2">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>25</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>45418.969189814816</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>25</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>45414.950277777774</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>131.18665751</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F86" s="2">
+        <v>25</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H81">
-    <sortCondition descending="1" ref="A4:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H86">
+    <sortCondition descending="1" ref="A9:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3280,12 +3420,12 @@
       <selection activeCell="A2" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,12 +3451,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45414.950277777774</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3334,15 +3474,15 @@
         <v>0.51</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45418.969189814816</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3360,15 +3500,15 @@
         <v>0.51</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45418.977210648147</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3386,15 +3526,15 @@
         <v>0.51</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45421.817245370374</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3412,15 +3552,15 @@
         <v>0.51</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45421.93954861111</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3438,15 +3578,15 @@
         <v>0.51</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45422.018043981479</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3464,15 +3604,15 @@
         <v>0.51</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45422.056192129632</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3490,15 +3630,15 @@
         <v>0.51</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45422.069872685184</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3516,15 +3656,15 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45422.07099537037</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3542,15 +3682,15 @@
         <v>0.51</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45422.08221064815</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3568,15 +3708,15 @@
         <v>0.4</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45422.829675925925</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3594,15 +3734,15 @@
         <v>0.31</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45422.831307870372</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3620,15 +3760,15 @@
         <v>0.4</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45422.833622685182</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3646,15 +3786,15 @@
         <v>0.4</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45422.835844907408</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3672,15 +3812,15 @@
         <v>0.31</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45422.837546296294</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3698,21 +3838,21 @@
         <v>0.6</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45422.83865740741</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E17">
         <v>5.3372899999999997E-3</v>
@@ -3724,15 +3864,15 @@
         <v>0.31</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45422.839930555558</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3750,15 +3890,15 @@
         <v>0.4</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45425.858472222222</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3776,15 +3916,15 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45426.641608796293</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3802,15 +3942,15 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45436.433229166665</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3828,15 +3968,15 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45436.934664351851</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3854,15 +3994,15 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45436.935613425929</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3880,15 +4020,15 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45436.947754629633</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3906,15 +4046,15 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45437.927314814813</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3932,15 +4072,15 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45437.934502314813</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3958,15 +4098,15 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45438.011793981481</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3984,15 +4124,15 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45438.016701388886</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4010,15 +4150,15 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45438.062881944446</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4036,15 +4176,15 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45438.064282407409</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -4062,15 +4202,15 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45438.066701388889</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4088,15 +4228,15 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45438.413587962961</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4114,15 +4254,15 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45440.886192129627</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4140,15 +4280,15 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45488.037268518521</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4166,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FB7CB-4AB6-411A-9E92-567A7C9E2AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A4123-A949-4562-9CA5-244DB3FA8A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="242">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -757,13 +757,7 @@
     <t>0.00026837</t>
   </si>
   <si>
-    <t>8718.124</t>
-  </si>
-  <si>
-    <t>JASMYBNB</t>
-  </si>
-  <si>
-    <t>TRYBNB</t>
+    <t>BNBTRY</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,23 +1190,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <f>+F2/E2</f>
-        <v>5.4485049833887042E-7</v>
+        <v>34255.768777912621</v>
       </c>
       <c r="E2" s="2">
-        <v>6.02</v>
+        <v>1.6480000000000001E-5</v>
       </c>
       <c r="F2" s="2">
-        <v>3.2799999999999999E-6</v>
+        <v>0.56453506945999998</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6118E-4</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>44</v>
@@ -1223,23 +1216,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <f>+F3/E3</f>
-        <v>3.2799790081343479E-6</v>
+        <v>0.626</v>
       </c>
       <c r="E3" s="2">
-        <v>1.21952E-2</v>
+        <v>0.90181321000000003</v>
       </c>
       <c r="F3" s="2">
-        <v>4.0000000000000001E-8</v>
+        <v>0.56453506945999998</v>
       </c>
       <c r="G3" s="2">
-        <v>2.2299999999999998E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>44</v>
@@ -1250,23 +1242,23 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <f>F4/E4</f>
-        <v>1.8274294296487409E-5</v>
+        <f>+F4/E4</f>
+        <v>1.8285882970348988E-4</v>
       </c>
       <c r="E4" s="2">
-        <v>0.90181321000000003</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>1.6480000000000001E-5</v>
+        <v>2.2299999999999998E-6</v>
       </c>
       <c r="G4" s="2">
-        <v>3.3000000000000002E-7</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>44</v>
@@ -1274,25 +1266,26 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>239</v>
+      <c r="D5" s="2">
+        <v>37349.5470902097</v>
       </c>
       <c r="E5" s="2">
-        <v>587</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>240</v>
+        <v>6.02</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/D5</f>
+        <v>1.6118E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>44</v>
@@ -1300,25 +1293,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45891.843576388892</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E6" s="2">
-        <v>12792</v>
+        <v>587</v>
       </c>
       <c r="F6" s="2">
-        <v>8724.1440000000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.6860999999999996E-4</v>
+        <v>8718.1239999999998</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>44</v>
@@ -1326,25 +1319,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45878.026342592595</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12792</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8724.1440000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.6860999999999996E-4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>44</v>
@@ -1352,28 +1345,28 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45560.642766203702</v>
+        <v>45878.026342592595</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,13 +1383,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -1413,16 +1406,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>14</v>
@@ -1430,129 +1423,129 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45560.642361111109</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45553.906388888892</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45529.90896990741</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45529.906527777777</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45529.906145833331</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
@@ -1560,77 +1553,77 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45528.998402777775</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45500.560335648152</v>
+        <v>45528.998402777775</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45500.559224537035</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
@@ -1650,13 +1643,13 @@
         <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>44</v>
@@ -1664,77 +1657,77 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45488.037268518521</v>
+        <v>45500.559224537035</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.00660569</v>
-      </c>
-      <c r="E20" s="2">
-        <v>194.71378021999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>200</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45479.777083333334</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>71</v>
+      <c r="D21" s="2">
+        <v>1.00660569</v>
+      </c>
+      <c r="E21" s="2">
+        <v>194.71378021999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>200</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45479.76871527778</v>
+        <v>45479.777083333334</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>44</v>
@@ -1742,25 +1735,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45479.768495370372</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>44</v>
@@ -1768,25 +1761,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45479.673125000001</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>44</v>
@@ -1794,25 +1787,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45479.672395833331</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5181574</v>
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>44</v>
@@ -1820,54 +1813,54 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45459.611851851849</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2">
-        <v>2036</v>
+        <v>5181574</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45457.954826388886</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2">
-        <v>88</v>
+        <v>2036</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1884,42 +1877,42 @@
         <v>94</v>
       </c>
       <c r="E28" s="2">
-        <v>1950</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45457.954560185186</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1950</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1933,16 +1926,16 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
@@ -1950,25 +1943,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45457.95416666667</v>
+        <v>45457.954560185186</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1746724</v>
+        <v>104</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>44</v>
@@ -1976,106 +1969,106 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45455.630983796298</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1746724</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45455.630624999998</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45455.036585648151</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="2">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45451.519849537035</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2092,13 +2085,13 @@
         <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>129</v>
@@ -2118,13 +2111,13 @@
         <v>125</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>129</v>
@@ -2144,16 +2137,16 @@
         <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2170,13 +2163,13 @@
         <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>44</v>
@@ -2184,25 +2177,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45451.519594907404</v>
+        <v>45451.519849537035</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>44</v>
@@ -2210,25 +2203,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45451.504004629627</v>
+        <v>45451.519594907404</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>44</v>
@@ -2236,28 +2229,28 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45450.922071759262</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2271,16 +2264,16 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>115</v>
@@ -2288,51 +2281,51 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45450.921388888892</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45450.920393518521</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>28</v>
@@ -2340,33 +2333,33 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45447.972905092596</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45447.949826388889</v>
+        <v>45447.972905092596</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>168</v>
@@ -2378,13 +2371,13 @@
         <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>129</v>
@@ -2392,77 +2385,77 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45446.496493055558</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45446.420810185184</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>129</v>
@@ -2470,25 +2463,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45442.009212962963</v>
+        <v>45446.420810185184</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>129</v>
@@ -2496,25 +2489,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45441.908472222225</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>129</v>
@@ -2522,77 +2515,77 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45440.886192129627</v>
+        <v>45441.908472222225</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2">
-        <v>64131.089181479998</v>
-      </c>
-      <c r="E53" s="2">
-        <v>7.6406E-4</v>
-      </c>
-      <c r="F53" s="2">
-        <v>50</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45439.966828703706</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>205</v>
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>64131.089181479998</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7.6406E-4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45439.965474537035</v>
+        <v>45439.966828703706</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>129</v>
@@ -2600,51 +2593,51 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45438.413587962961</v>
+        <v>45439.965474537035</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2">
-        <v>64764.057269930003</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3.02637E-3</v>
-      </c>
-      <c r="F56" s="2">
-        <v>200</v>
-      </c>
-      <c r="G56" s="2">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45438.066701388889</v>
+        <v>45438.413587962961</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>21.880480030000001</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E57" s="2">
-        <v>3.3587014499999999</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F57" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>213</v>
@@ -2652,25 +2645,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45438.064282407409</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>21.400680940000001</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E58" s="2">
-        <v>4.5792935400000001</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F58" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>213</v>
@@ -2678,19 +2671,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45438.062881944446</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2">
-        <v>2.0397180000000001E-2</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E59" s="2">
-        <v>4804.5860693499999</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F59" s="2">
         <v>100</v>
@@ -2704,25 +2697,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45438.016701388886</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>0.50915756999999995</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E60" s="2">
-        <v>288.7121952</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F60" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>213</v>
@@ -2730,25 +2723,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45438.011793981481</v>
+        <v>45438.016701388886</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>0.50817648999999998</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E61" s="2">
-        <v>192.84638819</v>
+        <v>288.7121952</v>
       </c>
       <c r="F61" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>213</v>
@@ -2756,19 +2749,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45437.934502314813</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>1.414E-5</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E62" s="2">
-        <v>6928298.2400000002</v>
+        <v>192.84638819</v>
       </c>
       <c r="F62" s="2">
         <v>100</v>
@@ -2782,19 +2775,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45437.927314814813</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>7.6274206099999997</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E63" s="2">
-        <v>12.848380199999999</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F63" s="2">
         <v>100</v>
@@ -2808,19 +2801,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45436.947754629633</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>2571.01241222</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E64" s="2">
-        <v>3.8117280000000003E-2</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F64" s="2">
         <v>100</v>
@@ -2834,25 +2827,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45436.935613425929</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>3502.0461955599999</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E65" s="2">
-        <v>4.1975459999999999E-2</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F65" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>213</v>
@@ -2860,25 +2853,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45436.934664351851</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>157.11043262000001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E66" s="2">
-        <v>0.62376507000000003</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F66" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>213</v>
@@ -2886,19 +2879,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45436.433229166665</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>63003.060148639997</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E67" s="2">
-        <v>1.5554799999999999E-3</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F67" s="2">
         <v>100</v>
@@ -2912,7 +2905,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45426.641608796293</v>
+        <v>45436.433229166665</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>212</v>
@@ -2921,16 +2914,16 @@
         <v>9</v>
       </c>
       <c r="D68" s="2">
-        <v>57930.577887070001</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E68" s="2">
-        <v>8.4584000000000005E-4</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F68" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>213</v>
@@ -2938,25 +2931,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45425.858472222222</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>140.23996862000001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E69" s="2">
-        <v>0.69880220999999998</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F69" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>213</v>
@@ -2964,25 +2957,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45422.839930555558</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>10.580849669999999</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E70" s="2">
-        <v>1.85240322</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F70" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G70" s="2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>213</v>
@@ -2990,25 +2983,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45422.83865740741</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>2752.3331128700001</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E71" s="2">
-        <v>5.3372899999999997E-3</v>
+        <v>1.85240322</v>
       </c>
       <c r="F71" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>213</v>
@@ -3016,25 +3009,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45422.837546296294</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>57425.239760140001</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E72" s="2">
-        <v>5.1197000000000005E-4</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F72" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>213</v>
@@ -3042,25 +3035,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45422.835844907408</v>
+        <v>45422.837546296294</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>2.10457801</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E73" s="2">
-        <v>6.9800216099999997</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F73" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G73" s="2">
-        <v>0.31</v>
+        <v>0.6</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>213</v>
@@ -3068,25 +3061,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45422.833622685182</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>0.1200639</v>
+        <v>2.10457801</v>
       </c>
       <c r="E74" s="2">
-        <v>163.24640485</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F74" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>213</v>
@@ -3094,19 +3087,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45422.831307870372</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>140.17980062000001</v>
+        <v>0.1200639</v>
       </c>
       <c r="E75" s="2">
-        <v>0.13982043</v>
+        <v>163.24640485</v>
       </c>
       <c r="F75" s="2">
         <v>20</v>
@@ -3120,25 +3113,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45422.829675925925</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>0.79988477999999996</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E76" s="2">
-        <v>18.365145070000001</v>
+        <v>0.13982043</v>
       </c>
       <c r="F76" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>213</v>
@@ -3146,25 +3139,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45422.08221064815</v>
+        <v>45422.829675925925</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>143.75063899</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E77" s="2">
-        <v>0.13634721999999999</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F77" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>213</v>
@@ -3172,25 +3165,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45422.07099537037</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>0.93873598000000003</v>
+        <v>143.75063899</v>
       </c>
       <c r="E78" s="2">
-        <v>26.088272459999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F78" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>213</v>
@@ -3198,25 +3191,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45422.069872685184</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>2583.1506530400002</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E79" s="2">
-        <v>6.8288699999999999E-3</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F79" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G79" s="2">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>213</v>
@@ -3224,25 +3217,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45422.056192129632</v>
+        <v>45422.069872685184</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2">
-        <v>2.1432031</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E80" s="2">
-        <v>11.426821869999999</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F80" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>213</v>
@@ -3250,19 +3243,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45422.018043981479</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>10.234263159999999</v>
+        <v>2.1432031</v>
       </c>
       <c r="E81" s="2">
-        <v>2.3929421799999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F81" s="2">
         <v>25</v>
@@ -3276,19 +3269,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45421.93954861111</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2">
-        <v>0.11898276000000001</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E82" s="2">
-        <v>205.82814242000001</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F82" s="2">
         <v>25</v>
@@ -3302,19 +3295,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45421.817245370374</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>3.8034991200000001</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E83" s="2">
-        <v>6.4388078499999999</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F83" s="2">
         <v>25</v>
@@ -3328,19 +3321,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45418.977210648147</v>
+        <v>45421.817245370374</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>2912.2689564799998</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E84" s="2">
-        <v>8.4072299999999999E-3</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F84" s="2">
         <v>25</v>
@@ -3354,19 +3347,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45418.969189814816</v>
+        <v>45418.977210648147</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>59899.712723249999</v>
+        <v>2912.2689564799998</v>
       </c>
       <c r="E85" s="2">
-        <v>4.0884999999999999E-4</v>
+        <v>8.4072299999999999E-3</v>
       </c>
       <c r="F85" s="2">
         <v>25</v>
@@ -3380,19 +3373,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45414.950277777774</v>
+        <v>45418.969189814816</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>131.18665751</v>
+        <v>59899.712723249999</v>
       </c>
       <c r="E86" s="2">
-        <v>0.18668056999999999</v>
+        <v>4.0884999999999999E-4</v>
       </c>
       <c r="F86" s="2">
         <v>25</v>
@@ -3404,9 +3397,35 @@
         <v>213</v>
       </c>
     </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>45414.950277777774</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2">
+        <v>131.18665751</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F87" s="2">
+        <v>25</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H86">
-    <sortCondition descending="1" ref="A9:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:H87">
+    <sortCondition descending="1" ref="A10:A87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294FA55-31A7-4F62-8F7F-069CC814D749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C87D16A-AB51-41C9-B969-A799BDC294B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -585,18 +583,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -648,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -674,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -700,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -726,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -752,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -778,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45891.845937500002</v>
       </c>
@@ -789,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>2.4576969023094031E-2</v>
+        <v>894.92249900000002</v>
       </c>
       <c r="E8">
-        <v>917.93866186267576</v>
+        <v>2.5209054507969595E-2</v>
       </c>
       <c r="F8">
         <v>22.560150057699367</v>
@@ -804,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45891.844282407408</v>
       </c>
@@ -830,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45891.844282407408</v>
       </c>
@@ -856,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45891.843576388892</v>
       </c>
@@ -882,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45891.843576388892</v>
       </c>
@@ -908,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45878.026342592602</v>
       </c>
@@ -934,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45878.026342592602</v>
       </c>
@@ -960,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45560.642766203702</v>
       </c>
@@ -986,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45560.642766203702</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45560.642766203702</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45560.642361111109</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45553.906388888892</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45553.906388888892</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45529.90896990741</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45529.90896990741</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45529.906527777777</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45529.906145833331</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45528.998402777783</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45528.998402777783</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45500.560335648152</v>
       </c>
@@ -1298,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45500.560335648152</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45500.559224537043</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45500.559224537043</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45500.559224537043</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45500.559224537043</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45488.037268518521</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45479.777083333327</v>
       </c>
@@ -1480,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45479.76871527778</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45479.768495370372</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45479.673125000001</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45479.672395833331</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45459.611851851849</v>
       </c>
@@ -1610,7 +1608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45457.954826388886</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45457.954826388886</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45457.954560185193</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45457.954560185193</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45457.95416666667</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45455.630983796298</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45455.630624999998</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45455.036585648151</v>
       </c>
@@ -1818,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45455.036585648151</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45451.519849537042</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45451.519594907397</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45451.519594907397</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45451.504004629627</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45450.922071759262</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45450.922071759262</v>
       </c>
@@ -2234,7 +2232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45450.921388888892</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45450.920393518521</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45447.972905092603</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45447.972905092603</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45447.949826388889</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45447.949826388889</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45446.501504629632</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45446.501504629632</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45446.496493055558</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45446.496493055558</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45446.420810185176</v>
       </c>
@@ -2520,7 +2518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45446.420810185176</v>
       </c>
@@ -2546,7 +2544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45442.009212962963</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45442.009212962963</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45441.908472222232</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45441.908472222232</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45440.886192129627</v>
       </c>
@@ -2676,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45439.966828703713</v>
       </c>
@@ -2702,7 +2700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45439.966828703713</v>
       </c>
@@ -2728,7 +2726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45439.965474537043</v>
       </c>
@@ -2754,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45439.965474537043</v>
       </c>
@@ -2780,7 +2778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45438.413587962961</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45438.066701388889</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45438.064282407409</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45438.062881944446</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45438.016701388893</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45438.011793981481</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45437.934502314813</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45437.927314814813</v>
       </c>
@@ -2988,7 +2986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45436.947754629633</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45436.935613425929</v>
       </c>
@@ -3040,7 +3038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45436.934664351851</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45436.433229166672</v>
       </c>
@@ -3092,7 +3090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45426.641608796293</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45425.858472222222</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45422.839930555558</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45422.83865740741</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45422.837546296287</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45422.835844907408</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45422.833622685182</v>
       </c>
@@ -3274,7 +3272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45422.831307870372</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45422.829675925917</v>
       </c>
@@ -3326,7 +3324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45422.08221064815</v>
       </c>
@@ -3352,7 +3350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45422.07099537037</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45422.069872685177</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45422.056192129632</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45422.018043981479</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45421.93954861111</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45421.817245370366</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45418.977210648147</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45418.969189814823</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45414.950277777767</v>
       </c>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C87D16A-AB51-41C9-B969-A799BDC294B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2A593-6BE8-4076-90FE-707CD4581398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="59">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>USDTRY</t>
+  </si>
+  <si>
+    <t>SOLUSDT</t>
   </si>
 </sst>
 </file>
@@ -214,25 +217,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -251,32 +242,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,186 +570,189 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>45891.845937500002</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45900.939155092594</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>841.90296799999999</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E2">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.3875E-2</v>
+        <v>200.6</v>
+      </c>
+      <c r="F2">
+        <v>68.705500000000001</v>
       </c>
       <c r="G2">
-        <v>3.3000000000000002E-7</v>
+        <f>0.00001718+0.00003924</f>
+        <v>5.6419999999999999E-5</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45891.845937500002</v>
+      <c r="A3" s="1">
+        <v>45900.938969907409</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2.4577000000000002E-2</v>
+        <v>109079.99</v>
       </c>
       <c r="E3">
-        <v>0.56455222362371316</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="F3">
-        <v>1.3875E-2</v>
+        <v>68.720393700000002</v>
       </c>
       <c r="G3">
-        <v>3.3000000000000002E-7</v>
+        <v>5.6450000000000003E-5</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45891.845937500002</v>
+      <c r="A4" s="1">
+        <v>45900.936724537038</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1.5384999999999999E-2</v>
+        <v>0.34241791999999999</v>
       </c>
       <c r="E4">
-        <v>0.90185245368865785</v>
+        <v>2022.6</v>
       </c>
       <c r="F4">
-        <v>1.3875E-2</v>
+        <v>692.57447000000002</v>
       </c>
       <c r="G4">
-        <v>3.3000000000000002E-7</v>
+        <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
+        <v>5.6948999999999997E-4</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45891.845937500002</v>
+      <c r="A5" s="1">
+        <v>45900.936018518521</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>894.92249916666651</v>
+        <v>867.28</v>
       </c>
       <c r="E5">
-        <v>2.2299999999999994E-6</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F5">
-        <v>1.9956771731416659E-3</v>
+        <v>16.47832</v>
       </c>
       <c r="G5">
-        <v>4.0000000000000001E-8</v>
+        <v>1.3529999999999999E-5</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45891.845937500002</v>
+      <c r="A6" s="1">
+        <v>45900.935787037037</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.16364448087293901</v>
+        <v>4462.54</v>
       </c>
       <c r="E6">
-        <v>1.21952E-2</v>
+        <v>6.93E-2</v>
       </c>
       <c r="F6">
-        <v>1.9956771731416659E-3</v>
+        <v>309.25402200000002</v>
       </c>
       <c r="G6">
-        <v>4.0000000000000001E-8</v>
+        <v>2.5403999999999997E-4</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45891.845937500002</v>
+      <c r="A7" s="1">
+        <v>45900.935324074075</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>3.7475332321759747</v>
+        <v>204.95</v>
       </c>
       <c r="E7">
-        <v>6.02</v>
+        <v>1.79</v>
       </c>
       <c r="F7">
-        <v>22.560150057699367</v>
+        <v>366.8605</v>
       </c>
       <c r="G7">
-        <v>3.2799999999999999E-6</v>
+        <f>0.00000622+0.00000454+0.00029064</f>
+        <v>3.0140000000000001E-4</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B8" t="s">
@@ -787,934 +762,934 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>841.90296799999999</v>
+      </c>
+      <c r="E8">
+        <v>1.6480521541527574E-5</v>
+      </c>
+      <c r="F8">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2.4577000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.56455222362371316</v>
+      </c>
+      <c r="F9">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1.5384999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.90185245368865785</v>
+      </c>
+      <c r="F10">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>894.92249916666651</v>
+      </c>
+      <c r="E11">
+        <v>2.2299999999999994E-6</v>
+      </c>
+      <c r="F11">
+        <v>1.9956771731416659E-3</v>
+      </c>
+      <c r="G11">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.16364448087293901</v>
+      </c>
+      <c r="E12">
+        <v>1.21952E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.9956771731416659E-3</v>
+      </c>
+      <c r="G12">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>3.7475332321759747</v>
+      </c>
+      <c r="E13">
+        <v>6.02</v>
+      </c>
+      <c r="F13">
+        <v>22.560150057699367</v>
+      </c>
+      <c r="G13">
+        <v>3.2799999999999999E-6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>894.92249900000002</v>
       </c>
-      <c r="E8">
+      <c r="E14">
         <v>2.5209054507969595E-2</v>
       </c>
-      <c r="F8">
+      <c r="F14">
         <v>22.560150057699367</v>
       </c>
-      <c r="G8">
+      <c r="G14">
         <v>3.2799999999999999E-6</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>45891.844282407408</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>2.4576062914721059E-2</v>
       </c>
-      <c r="E9">
+      <c r="E15">
         <v>8718.1239999999998</v>
       </c>
-      <c r="F9">
+      <c r="F15">
         <v>214.2571639223396</v>
       </c>
-      <c r="G9">
+      <c r="G15">
         <v>2.6836999999999998E-4</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>45891.844282407408</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
         <v>0.3650036864094372</v>
       </c>
-      <c r="E10">
+      <c r="E16">
         <v>586.99999999999989</v>
       </c>
-      <c r="F10">
+      <c r="F16">
         <v>214.2571639223396</v>
       </c>
-      <c r="G10">
+      <c r="G16">
         <v>2.6836999999999998E-4</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>45891.843576388892</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
         <v>2.4583614919863089E-2</v>
       </c>
-      <c r="E11">
+      <c r="E17">
         <v>8724.1440000000021</v>
       </c>
-      <c r="F11">
+      <c r="F17">
         <v>214.47099660143411</v>
       </c>
-      <c r="G11">
+      <c r="G17">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>45891.843576388892</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>1.6766025375346629E-2</v>
       </c>
-      <c r="E12">
+      <c r="E18">
         <v>12792</v>
       </c>
-      <c r="F12">
+      <c r="F18">
         <v>214.47099660143411</v>
       </c>
-      <c r="G12">
+      <c r="G18">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
         <v>794.61066900000014</v>
       </c>
-      <c r="E13">
+      <c r="E19">
         <v>1.8984839999999996E-2</v>
       </c>
-      <c r="F13">
+      <c r="F19">
         <v>15.08555641325796</v>
       </c>
-      <c r="G13">
+      <c r="G19">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <v>0.12960100011389999</v>
       </c>
-      <c r="E14">
+      <c r="E20">
         <v>116.4</v>
       </c>
-      <c r="F14">
+      <c r="F20">
         <v>15.08555641325796</v>
       </c>
-      <c r="G14">
+      <c r="G20">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
         <v>1.1802999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>57</v>
       </c>
-      <c r="F15">
+      <c r="F21">
         <v>67.277100000000004</v>
       </c>
-      <c r="G15">
+      <c r="G21">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
         <v>1.1802999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>34</v>
       </c>
-      <c r="F16">
+      <c r="F22">
         <v>40.130200000000002</v>
       </c>
-      <c r="G16">
+      <c r="G22">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
         <v>1.1801999999999999</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <v>94</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <v>110.9388</v>
       </c>
-      <c r="G17">
+      <c r="G23">
         <v>9.4E-2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>45560.642361111109</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>0.15079999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E24">
         <v>1456.1</v>
       </c>
-      <c r="F18">
+      <c r="F24">
         <v>219.57988</v>
       </c>
-      <c r="G18">
+      <c r="G24">
         <v>0.21957988000000001</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>45553.906388888892</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>60330.294086166672</v>
       </c>
-      <c r="E19">
+      <c r="E25">
         <v>1.3220300000000003E-3</v>
       </c>
-      <c r="F19">
+      <c r="F25">
         <v>79.75845869073494</v>
       </c>
-      <c r="G19">
+      <c r="G25">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>45553.906388888892</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>1.092581625900479</v>
       </c>
-      <c r="E20">
+      <c r="E26">
         <v>73</v>
       </c>
-      <c r="F20">
+      <c r="F26">
         <v>79.75845869073494</v>
       </c>
-      <c r="G20">
+      <c r="G26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45529.90896990741</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>64353.810126000011</v>
-      </c>
-      <c r="E21">
-        <v>2.5412999999999998E-3</v>
-      </c>
-      <c r="F21">
-        <v>163.5423376732038</v>
-      </c>
-      <c r="G21">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>45529.90896990741</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>0.16603283012507999</v>
-      </c>
-      <c r="E22">
-        <v>985</v>
-      </c>
-      <c r="F22">
-        <v>163.5423376732038</v>
-      </c>
-      <c r="G22">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>45529.906527777777</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="E23">
-        <v>453</v>
-      </c>
-      <c r="F23">
-        <v>74.971500000000006</v>
-      </c>
-      <c r="G23">
-        <v>9.7360000000000003E-5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>45529.906145833331</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E24">
-        <v>218.6</v>
-      </c>
-      <c r="F24">
-        <v>74.979799999999997</v>
-      </c>
-      <c r="G24">
-        <v>9.7349999999999995E-5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>45528.998402777783</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>580.5</v>
-      </c>
-      <c r="E25">
-        <v>0.10150559999999997</v>
-      </c>
-      <c r="F25">
-        <v>58.924000799999988</v>
-      </c>
-      <c r="G25">
-        <v>0.371</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>45528.998402777783</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>0.15882479999999999</v>
-      </c>
-      <c r="E26">
-        <v>370.99999999999994</v>
-      </c>
-      <c r="F26">
-        <v>58.924000799999988</v>
-      </c>
-      <c r="G26">
-        <v>0.371</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>45500.560335648152</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>68797.238685499993</v>
+        <v>64353.810126000011</v>
       </c>
       <c r="E27">
-        <v>3.1044000000000004E-4</v>
+        <v>2.5412999999999998E-3</v>
       </c>
       <c r="F27">
-        <v>21.357414777526621</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G27">
-        <v>2.709E-5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>45500.560335648152</v>
+      <c r="A28" s="1">
+        <v>45529.90896990741</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28">
+        <v>0.16603283012507999</v>
+      </c>
+      <c r="E28">
+        <v>985</v>
+      </c>
+      <c r="F28">
+        <v>163.5423376732038</v>
+      </c>
+      <c r="G28">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45529.906527777777</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E29">
+        <v>453</v>
+      </c>
+      <c r="F29">
+        <v>74.971500000000006</v>
+      </c>
+      <c r="G29">
+        <v>9.7360000000000003E-5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45529.906145833331</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E30">
+        <v>218.6</v>
+      </c>
+      <c r="F30">
+        <v>74.979799999999997</v>
+      </c>
+      <c r="G30">
+        <v>9.7349999999999995E-5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>580.5</v>
+      </c>
+      <c r="E31">
+        <v>0.10150559999999997</v>
+      </c>
+      <c r="F31">
+        <v>58.924000799999988</v>
+      </c>
+      <c r="G31">
+        <v>0.371</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>0.15882479999999999</v>
+      </c>
+      <c r="E32">
+        <v>370.99999999999994</v>
+      </c>
+      <c r="F32">
+        <v>58.924000799999988</v>
+      </c>
+      <c r="G32">
+        <v>0.371</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45500.560335648152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>68797.238685499993</v>
+      </c>
+      <c r="E33">
+        <v>3.1044000000000004E-4</v>
+      </c>
+      <c r="F33">
+        <v>21.357414777526621</v>
+      </c>
+      <c r="G33">
+        <v>2.709E-5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45500.560335648152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
         <v>0.136906504984145</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>156</v>
       </c>
-      <c r="F28">
+      <c r="F34">
         <v>21.357414777526621</v>
       </c>
-      <c r="G28">
+      <c r="G34">
         <v>2.709E-5</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>45500.559224537043</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
         <v>68786.233699999997</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>2.7748800000000005E-4</v>
       </c>
-      <c r="F29">
+      <c r="F35">
         <v>19.087354416945601</v>
       </c>
-      <c r="G29">
+      <c r="G35">
         <v>2.4470000000000001E-5</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>45500.559224537043</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>2651.0214467979999</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>19.087354416945601</v>
       </c>
-      <c r="G30">
+      <c r="G36">
         <v>2.4470000000000001E-5</v>
       </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>45500.559224537043</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
         <v>68786.233699999997</v>
       </c>
-      <c r="E31">
+      <c r="E37">
         <v>1.4529580000000001E-3</v>
       </c>
-      <c r="F31">
+      <c r="F37">
         <v>99.943508544284597</v>
       </c>
-      <c r="G31">
+      <c r="G37">
         <v>1.2672000000000001E-4</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>45500.559224537043</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
         <v>2651.0214467979999</v>
       </c>
-      <c r="E32">
+      <c r="E38">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="F32">
+      <c r="F38">
         <v>99.943508544284597</v>
       </c>
-      <c r="G32">
+      <c r="G38">
         <v>1.2672000000000001E-4</v>
       </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>45488.037268518521</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
         <v>1.00660569</v>
       </c>
-      <c r="E33">
+      <c r="E39">
         <v>194.71378021999999</v>
       </c>
-      <c r="F33">
+      <c r="F39">
         <v>200</v>
       </c>
-      <c r="G33">
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>45479.777083333327</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
         <v>485.5</v>
       </c>
-      <c r="E34">
+      <c r="E40">
         <v>0.1</v>
       </c>
-      <c r="F34">
+      <c r="F40">
         <v>48.55</v>
       </c>
-      <c r="G34">
+      <c r="G40">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>45479.76871527778</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
         <v>0.39800000000000002</v>
       </c>
-      <c r="E35">
+      <c r="E41">
         <v>85.6</v>
       </c>
-      <c r="F35">
+      <c r="F41">
         <v>34.068800000000003</v>
       </c>
-      <c r="G35">
+      <c r="G41">
         <v>4.8569999999999997E-5</v>
       </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>45479.768495370372</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
         <v>524.6</v>
       </c>
-      <c r="E36">
+      <c r="E42">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F36">
+      <c r="F42">
         <v>34.098999999999997</v>
       </c>
-      <c r="G36">
+      <c r="G42">
         <v>4.8730000000000003E-5</v>
       </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>45479.673125000001</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="E37">
+      <c r="E43">
         <v>1976.8</v>
       </c>
-      <c r="F37">
+      <c r="F43">
         <v>47.719951999999999</v>
       </c>
-      <c r="G37">
+      <c r="G43">
         <v>6.8789999999999997E-5</v>
       </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>45479.672395833331</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>9.2099999999999999E-6</v>
-      </c>
-      <c r="E38">
-        <v>5181574</v>
-      </c>
-      <c r="F38">
-        <v>47.722296540000002</v>
-      </c>
-      <c r="G38">
-        <v>6.8889999999999999E-5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>45459.611851851849</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>2.0114E-2</v>
-      </c>
-      <c r="E39">
-        <v>2036</v>
-      </c>
-      <c r="F39">
-        <v>40.952103999999999</v>
-      </c>
-      <c r="G39">
-        <v>4.0952099999999998E-2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>45457.954826388886</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>1.9619000000000001E-2</v>
-      </c>
-      <c r="E40">
-        <v>88</v>
-      </c>
-      <c r="F40">
-        <v>1.726472</v>
-      </c>
-      <c r="G40">
-        <v>2.2000000000000001E-6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>45457.954826388886</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>1.9619000000000001E-2</v>
-      </c>
-      <c r="E41">
-        <v>1950</v>
-      </c>
-      <c r="F41">
-        <v>38.25705</v>
-      </c>
-      <c r="G41">
-        <v>1.95</v>
-      </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>45457.954560185193</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="E42">
-        <v>9.5</v>
-      </c>
-      <c r="F42">
-        <v>4.8307500000000001</v>
-      </c>
-      <c r="G42">
-        <v>6.02E-6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>45457.954560185193</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>0.50860000000000005</v>
-      </c>
-      <c r="E43">
-        <v>29.8</v>
-      </c>
-      <c r="F43">
-        <v>15.156280000000001</v>
-      </c>
-      <c r="G43">
-        <v>1.891E-5</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>45457.95416666667</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -1723,232 +1698,232 @@
         <v>10</v>
       </c>
       <c r="D44">
+        <v>9.2099999999999999E-6</v>
+      </c>
+      <c r="E44">
+        <v>5181574</v>
+      </c>
+      <c r="F44">
+        <v>47.722296540000002</v>
+      </c>
+      <c r="G44">
+        <v>6.8889999999999999E-5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45459.611851851849</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2.0114E-2</v>
+      </c>
+      <c r="E45">
+        <v>2036</v>
+      </c>
+      <c r="F45">
+        <v>40.952103999999999</v>
+      </c>
+      <c r="G45">
+        <v>4.0952099999999998E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45457.954826388886</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>1.9619000000000001E-2</v>
+      </c>
+      <c r="E46">
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <v>1.726472</v>
+      </c>
+      <c r="G46">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45457.954826388886</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1.9619000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>1950</v>
+      </c>
+      <c r="F47">
+        <v>38.25705</v>
+      </c>
+      <c r="G47">
+        <v>1.95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45457.954560185193</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="E48">
+        <v>9.5</v>
+      </c>
+      <c r="F48">
+        <v>4.8307500000000001</v>
+      </c>
+      <c r="G48">
+        <v>6.02E-6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45457.954560185193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="E49">
+        <v>29.8</v>
+      </c>
+      <c r="F49">
+        <v>15.156280000000001</v>
+      </c>
+      <c r="G49">
+        <v>1.891E-5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45457.95416666667</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
         <v>1.145E-5</v>
       </c>
-      <c r="E44">
+      <c r="E50">
         <v>1746724</v>
       </c>
-      <c r="F44">
+      <c r="F50">
         <v>19.999989800000002</v>
       </c>
-      <c r="G44">
+      <c r="G50">
         <v>2.4329999999999999E-5</v>
       </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>45455.630983796298</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
         <v>3.7824000000000003E-2</v>
       </c>
-      <c r="E45">
+      <c r="E51">
         <v>3465.2</v>
       </c>
-      <c r="F45">
+      <c r="F51">
         <v>131.06772480000001</v>
       </c>
-      <c r="G45">
+      <c r="G51">
         <v>3.4651999999999998</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>45455.630624999998</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>69787.490000000005</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="F46">
+      <c r="F52">
         <v>131.20048120000001</v>
       </c>
-      <c r="G46">
+      <c r="G52">
         <v>0.13120048000000001</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>45455.036585648151</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>67225.228872500011</v>
-      </c>
-      <c r="E47">
-        <v>1.384E-4</v>
-      </c>
-      <c r="F47">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G47">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>45455.036585648151</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>0.116299645949425</v>
-      </c>
-      <c r="E48">
-        <v>80</v>
-      </c>
-      <c r="F48">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G48">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>69351.951598999993</v>
-      </c>
-      <c r="E49">
-        <v>1.2520929999999999E-3</v>
-      </c>
-      <c r="F49">
-        <v>86.835093133446691</v>
-      </c>
-      <c r="G49">
-        <v>1.2500000000000001E-6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>683.74089081454088</v>
-      </c>
-      <c r="E50">
-        <v>0.127</v>
-      </c>
-      <c r="F50">
-        <v>86.835093133446691</v>
-      </c>
-      <c r="G50">
-        <v>1.2500000000000001E-6</v>
-      </c>
-      <c r="H50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>69351.951598999993</v>
-      </c>
-      <c r="E51">
-        <v>2.9577000000000002E-3</v>
-      </c>
-      <c r="F51">
-        <v>205.12226724436229</v>
-      </c>
-      <c r="G51">
-        <v>2.96E-6</v>
-      </c>
-      <c r="H51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>683.74089081454088</v>
-      </c>
-      <c r="E52">
-        <v>0.3</v>
-      </c>
-      <c r="F52">
-        <v>205.12226724436229</v>
-      </c>
-      <c r="G52">
-        <v>2.96E-6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>45451.519849537042</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -1957,49 +1932,49 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <v>69351.951598999993</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E53">
-        <v>2.4647499999999995E-3</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F53">
-        <v>170.93522270363519</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G53">
-        <v>2.4600000000000002E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>45451.519849537042</v>
+      <c r="A54" s="1">
+        <v>45455.036585648151</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>683.74089081454088</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E54">
-        <v>0.25</v>
+        <v>80</v>
       </c>
       <c r="F54">
-        <v>170.93522270363519</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G54">
-        <v>2.4600000000000002E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B55" t="s">
@@ -2012,20 +1987,20 @@
         <v>69351.951598999993</v>
       </c>
       <c r="E55">
-        <v>4.929499999999999E-3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F55">
-        <v>341.87044540727038</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G55">
-        <v>3.7500000000000001E-4</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B56" t="s">
@@ -2038,20 +2013,20 @@
         <v>683.74089081454088</v>
       </c>
       <c r="E56">
-        <v>0.5</v>
+        <v>0.127</v>
       </c>
       <c r="F56">
-        <v>341.87044540727038</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G56">
-        <v>3.7500000000000001E-4</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B57" t="s">
@@ -2064,20 +2039,20 @@
         <v>69351.951598999993</v>
       </c>
       <c r="E57">
-        <v>8.0843799999999997E-4</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F57">
-        <v>56.066753046792357</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G57">
-        <v>6.1610000000000001E-5</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B58" t="s">
@@ -2090,359 +2065,359 @@
         <v>683.74089081454088</v>
       </c>
       <c r="E58">
+        <v>0.3</v>
+      </c>
+      <c r="F58">
+        <v>205.12226724436229</v>
+      </c>
+      <c r="G58">
+        <v>2.96E-6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>69351.951598999993</v>
+      </c>
+      <c r="E59">
+        <v>2.4647499999999995E-3</v>
+      </c>
+      <c r="F59">
+        <v>170.93522270363519</v>
+      </c>
+      <c r="G59">
+        <v>2.4600000000000002E-6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E60">
+        <v>0.25</v>
+      </c>
+      <c r="F60">
+        <v>170.93522270363519</v>
+      </c>
+      <c r="G60">
+        <v>2.4600000000000002E-6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>69351.951598999993</v>
+      </c>
+      <c r="E61">
+        <v>4.929499999999999E-3</v>
+      </c>
+      <c r="F61">
+        <v>341.87044540727038</v>
+      </c>
+      <c r="G61">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>341.87044540727038</v>
+      </c>
+      <c r="G62">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>69351.951598999993</v>
+      </c>
+      <c r="E63">
+        <v>8.0843799999999997E-4</v>
+      </c>
+      <c r="F63">
+        <v>56.066753046792357</v>
+      </c>
+      <c r="G63">
+        <v>6.1610000000000001E-5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E64">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F58">
+      <c r="F64">
         <v>56.066753046792357</v>
       </c>
-      <c r="G58">
+      <c r="G64">
         <v>6.1610000000000001E-5</v>
       </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>45451.519594907397</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59">
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
         <v>683.89481871559008</v>
       </c>
-      <c r="E59">
+      <c r="E65">
         <v>1.121</v>
       </c>
-      <c r="F59">
+      <c r="F65">
         <v>766.64609178017645</v>
       </c>
-      <c r="G59">
+      <c r="G65">
         <v>8.4075000000000003E-4</v>
       </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>45451.519594907397</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>69360.529281499999</v>
-      </c>
-      <c r="E60">
-        <v>1.1053060000000002E-2</v>
-      </c>
-      <c r="F60">
-        <v>766.64609178017645</v>
-      </c>
-      <c r="G60">
-        <v>8.4075000000000003E-4</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>45451.504004629627</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>681.2</v>
-      </c>
-      <c r="E61">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F61">
-        <v>10.218</v>
-      </c>
-      <c r="G61">
-        <v>1.1240000000000001E-5</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>45450.922071759262</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>4.1304E-2</v>
-      </c>
-      <c r="E62">
-        <v>1210.5</v>
-      </c>
-      <c r="F62">
-        <v>49.998491999999999</v>
-      </c>
-      <c r="G62">
-        <v>1.2104999999999999</v>
-      </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>45450.922071759262</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <v>4.1305000000000001E-2</v>
-      </c>
-      <c r="E63">
-        <v>1082.2</v>
-      </c>
-      <c r="F63">
-        <v>44.700271000000001</v>
-      </c>
-      <c r="G63">
-        <v>1.0822000000000001</v>
-      </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>45450.921388888892</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>21.97</v>
-      </c>
-      <c r="E64">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F64">
-        <v>44.159700000000001</v>
-      </c>
-      <c r="G64">
-        <v>4.4159700000000003E-2</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>45450.920393518521</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>39.244999999999997</v>
-      </c>
-      <c r="E65">
-        <v>1.3</v>
-      </c>
-      <c r="F65">
-        <v>51.018500000000003</v>
-      </c>
-      <c r="G65">
-        <v>5.1018500000000001E-2</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>45447.972905092603</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>70502.707116500009</v>
+        <v>69360.529281499999</v>
       </c>
       <c r="E66">
-        <v>5.1688999999999999E-5</v>
+        <v>1.1053060000000002E-2</v>
       </c>
       <c r="F66">
-        <v>3.6442144281447688</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G66">
-        <v>4.9999999999999998E-8</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
+        <v>45451.504004629627</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>681.2</v>
+      </c>
+      <c r="E67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F67">
+        <v>10.218</v>
+      </c>
+      <c r="G67">
+        <v>1.1240000000000001E-5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45450.922071759262</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>4.1304E-2</v>
+      </c>
+      <c r="E68">
+        <v>1210.5</v>
+      </c>
+      <c r="F68">
+        <v>49.998491999999999</v>
+      </c>
+      <c r="G68">
+        <v>1.2104999999999999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45450.922071759262</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>4.1305000000000001E-2</v>
+      </c>
+      <c r="E69">
+        <v>1082.2</v>
+      </c>
+      <c r="F69">
+        <v>44.700271000000001</v>
+      </c>
+      <c r="G69">
+        <v>1.0822000000000001</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45450.921388888892</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>21.97</v>
+      </c>
+      <c r="E70">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F70">
+        <v>44.159700000000001</v>
+      </c>
+      <c r="G70">
+        <v>4.4159700000000003E-2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45450.920393518521</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>39.244999999999997</v>
+      </c>
+      <c r="E71">
+        <v>1.3</v>
+      </c>
+      <c r="F71">
+        <v>51.018500000000003</v>
+      </c>
+      <c r="G71">
+        <v>5.1018500000000001E-2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>45447.972905092603</v>
-      </c>
-      <c r="B67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>3.312922207404335</v>
-      </c>
-      <c r="E67">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F67">
-        <v>3.6442144281447688</v>
-      </c>
-      <c r="G67">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="H67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>45447.949826388889</v>
-      </c>
-      <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>70534.997166833316</v>
-      </c>
-      <c r="E68">
-        <v>2.4904700000000007E-4</v>
-      </c>
-      <c r="F68">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G68">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>45447.949826388889</v>
-      </c>
-      <c r="B69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>3.314439516869498</v>
-      </c>
-      <c r="E69">
-        <v>5.3</v>
-      </c>
-      <c r="F69">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G69">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>45446.501504629632</v>
-      </c>
-      <c r="B70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>3810.4583321666669</v>
-      </c>
-      <c r="E70">
-        <v>1.363E-2</v>
-      </c>
-      <c r="F70">
-        <v>51.936547067431668</v>
-      </c>
-      <c r="G70">
-        <v>1.363E-5</v>
-      </c>
-      <c r="H70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>45446.501504629632</v>
-      </c>
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>0.51936547067431671</v>
-      </c>
-      <c r="E71">
-        <v>100</v>
-      </c>
-      <c r="F71">
-        <v>51.936547067431668</v>
-      </c>
-      <c r="G71">
-        <v>1.363E-5</v>
-      </c>
-      <c r="H71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>45446.496493055558</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -2451,50 +2426,50 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>69129.989500166674</v>
+        <v>70502.707116500009</v>
       </c>
       <c r="E72">
-        <v>6.9092000000000003E-4</v>
+        <v>5.1688999999999999E-5</v>
       </c>
       <c r="F72">
-        <v>47.763292345455163</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G72">
-        <v>6.8999999999999996E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>45446.496493055558</v>
+      <c r="A73" s="1">
+        <v>45447.972905092603</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73">
-        <v>0.51916622114625177</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E73">
-        <v>92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F73">
-        <v>47.763292345455163</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G73">
-        <v>6.8999999999999996E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>45446.420810185176</v>
+      <c r="A74" s="1">
+        <v>45447.949826388889</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -2503,102 +2478,102 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>69115.089471833344</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E74">
-        <v>6.6420899999999991E-4</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F74">
-        <v>45.90686446299695</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G74">
-        <v>6.6000000000000003E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>45446.420810185176</v>
+      <c r="A75" s="1">
+        <v>45447.949826388889</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75">
-        <v>7.2868038830153896</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E75">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="F75">
-        <v>45.90686446299695</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G75">
-        <v>6.6000000000000003E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>45442.009212962963</v>
+      <c r="A76" s="1">
+        <v>45446.501504629632</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76">
-        <v>67749.869200166664</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E76">
-        <v>9.3258000000000002E-4</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F76">
-        <v>63.182173018691429</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G76">
-        <v>9.2999999999999999E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>45442.009212962963</v>
+      <c r="A77" s="1">
+        <v>45446.501504629632</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77">
-        <v>21.273458928852332</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E77">
-        <v>2.97</v>
+        <v>100</v>
       </c>
       <c r="F77">
-        <v>63.182173018691429</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G77">
-        <v>9.2999999999999999E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>45441.908472222232</v>
+      <c r="A78" s="1">
+        <v>45446.496493055558</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -2607,221 +2582,221 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>67695.037825500011</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E78">
-        <v>7.3358999999999989E-4</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F78">
-        <v>49.660402798408548</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G78">
-        <v>7.3E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>45441.908472222232</v>
+      <c r="A79" s="1">
+        <v>45446.496493055558</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>7.6400619689859308</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E79">
-        <v>6.5</v>
+        <v>92</v>
       </c>
       <c r="F79">
-        <v>49.660402798408548</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G79">
-        <v>7.3E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>45440.886192129627</v>
+      <c r="A80" s="1">
+        <v>45446.420810185176</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80">
-        <v>64131.089181479998</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E80">
-        <v>7.6406E-4</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F80">
+        <v>45.90686446299695</v>
+      </c>
+      <c r="G80">
+        <v>6.6000000000000003E-7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45446.420810185176</v>
+      </c>
+      <c r="B81" t="s">
         <v>50</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>45439.966828703713</v>
-      </c>
-      <c r="B81" t="s">
-        <v>26</v>
-      </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>69531.813510500011</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E81">
-        <v>4.0046400000000006E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F81">
-        <v>27.84498816566888</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G81">
-        <v>3.9999999999999998E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>45439.966828703713</v>
+      <c r="A82" s="1">
+        <v>45442.009212962963</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <v>25.782396449693401</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E82">
-        <v>1.08</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F82">
-        <v>27.84498816566888</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G82">
-        <v>3.9999999999999998E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>45439.965474537043</v>
+      <c r="A83" s="1">
+        <v>45442.009212962963</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>69520.879412499999</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E83">
-        <v>2.31E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F83">
-        <v>16.0593231442875</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G83">
-        <v>2.2999999999999999E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H83" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>45439.965474537043</v>
+      <c r="A84" s="1">
+        <v>45441.908472222232</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>2.2941890206125</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F84">
-        <v>16.0593231442875</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G84">
-        <v>2.2999999999999999E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>45438.413587962961</v>
+      <c r="A85" s="1">
+        <v>45441.908472222232</v>
       </c>
       <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>7.6400619689859308</v>
+      </c>
+      <c r="E85">
+        <v>6.5</v>
+      </c>
+      <c r="F85">
+        <v>49.660402798408548</v>
+      </c>
+      <c r="G85">
+        <v>7.3E-7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45440.886192129627</v>
+      </c>
+      <c r="B86" t="s">
         <v>31</v>
       </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85">
-        <v>64764.057269930003</v>
-      </c>
-      <c r="E85">
-        <v>3.02637E-3</v>
-      </c>
-      <c r="F85">
-        <v>200</v>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>45438.066701388889</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86">
-        <v>21.880480030000001</v>
+        <v>64131.089181479998</v>
       </c>
       <c r="E86">
-        <v>3.3587014499999999</v>
+        <v>7.6406E-4</v>
       </c>
       <c r="F86">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2831,176 +2806,176 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>45438.064282407409</v>
+      <c r="A87" s="1">
+        <v>45439.966828703713</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87">
-        <v>21.400680940000001</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E87">
-        <v>4.5792935400000001</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>45438.062881944446</v>
+      <c r="A88" s="1">
+        <v>45439.966828703713</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>2.0397180000000001E-2</v>
+        <v>25.782396449693401</v>
       </c>
       <c r="E88">
-        <v>4804.5860693499999</v>
+        <v>1.08</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>45438.016701388893</v>
+      <c r="A89" s="1">
+        <v>45439.965474537043</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89">
-        <v>0.50915756999999995</v>
+        <v>69520.879412499999</v>
       </c>
       <c r="E89">
-        <v>288.7121952</v>
+        <v>2.31E-4</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>45438.011793981481</v>
+      <c r="A90" s="1">
+        <v>45439.965474537043</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>0.50817648999999998</v>
+        <v>2.2941890206125</v>
       </c>
       <c r="E90">
-        <v>192.84638819</v>
+        <v>7</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>45437.934502314813</v>
+      <c r="A91" s="1">
+        <v>45438.413587962961</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91">
-        <v>1.414E-5</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E91">
-        <v>6928298.2400000002</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>45437.927314814813</v>
+      <c r="A92" s="1">
+        <v>45438.066701388889</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92">
-        <v>7.6274206099999997</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E92">
-        <v>12.848380199999999</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F92">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>45436.947754629633</v>
+      <c r="A93" s="1">
+        <v>45438.064282407409</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93">
-        <v>2571.01241222</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E93">
-        <v>3.8117280000000003E-2</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F93">
         <v>100</v>
@@ -3013,72 +2988,72 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>45436.935613425929</v>
+      <c r="A94" s="1">
+        <v>45438.062881944446</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94">
-        <v>3502.0461955599999</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E94">
-        <v>4.1975459999999999E-2</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F94">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>45436.934664351851</v>
+      <c r="A95" s="1">
+        <v>45438.016701388893</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95">
-        <v>157.11043262000001</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E95">
-        <v>0.62376507000000003</v>
+        <v>288.7121952</v>
       </c>
       <c r="F95">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>45436.433229166672</v>
+      <c r="A96" s="1">
+        <v>45438.011793981481</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96">
-        <v>63003.060148639997</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E96">
-        <v>1.5554799999999999E-3</v>
+        <v>192.84638819</v>
       </c>
       <c r="F96">
         <v>100</v>
@@ -3091,46 +3066,46 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>45426.641608796293</v>
+      <c r="A97" s="1">
+        <v>45437.934502314813</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
       <c r="D97">
-        <v>57930.577887070001</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E97">
-        <v>8.4584000000000005E-4</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>45425.858472222222</v>
+      <c r="A98" s="1">
+        <v>45437.927314814813</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98">
-        <v>140.23996862000001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E98">
-        <v>0.69880220999999998</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F98">
         <v>100</v>
@@ -3143,34 +3118,34 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>45422.839930555558</v>
+      <c r="A99" s="1">
+        <v>45436.947754629633</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99">
-        <v>10.580849669999999</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E99">
-        <v>1.85240322</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>45422.83865740741</v>
+      <c r="A100" s="1">
+        <v>45436.935613425929</v>
       </c>
       <c r="B100" t="s">
         <v>40</v>
@@ -3179,102 +3154,102 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>2752.3331128700001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E100">
-        <v>5.3372899999999997E-3</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F100">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G100">
-        <v>0.31</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>45422.837546296287</v>
+      <c r="A101" s="1">
+        <v>45436.934664351851</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101">
-        <v>57425.239760140001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E101">
-        <v>5.1197000000000005E-4</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F101">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G101">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>45422.835844907408</v>
+      <c r="A102" s="1">
+        <v>45436.433229166672</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102">
-        <v>2.10457801</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E102">
-        <v>6.9800216099999997</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F102">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G102">
-        <v>0.31</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>45422.833622685182</v>
+      <c r="A103" s="1">
+        <v>45426.641608796293</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103">
-        <v>0.1200639</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E103">
-        <v>163.24640485</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F103">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>45422.831307870372</v>
+      <c r="A104" s="1">
+        <v>45425.858472222222</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -3283,244 +3258,244 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>140.17980062000001</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E104">
-        <v>0.13982043</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F104">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G104">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>45422.829675925917</v>
+      <c r="A105" s="1">
+        <v>45422.839930555558</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105">
-        <v>0.79988477999999996</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E105">
-        <v>18.365145070000001</v>
+        <v>1.85240322</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>45422.08221064815</v>
+      <c r="A106" s="1">
+        <v>45422.83865740741</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106">
-        <v>143.75063899</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E106">
-        <v>0.13634721999999999</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G106">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>45422.07099537037</v>
+      <c r="A107" s="1">
+        <v>45422.837546296287</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>0.93873598000000003</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E107">
-        <v>26.088272459999999</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F107">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G107">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>45422.069872685177</v>
+      <c r="A108" s="1">
+        <v>45422.835844907408</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>2583.1506530400002</v>
+        <v>2.10457801</v>
       </c>
       <c r="E108">
-        <v>6.8288699999999999E-3</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F108">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G108">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>45422.056192129632</v>
+      <c r="A109" s="1">
+        <v>45422.833622685182</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>2.1432031</v>
+        <v>0.1200639</v>
       </c>
       <c r="E109">
-        <v>11.426821869999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G109">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>45422.018043981479</v>
+      <c r="A110" s="1">
+        <v>45422.831307870372</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>10.234263159999999</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E110">
-        <v>2.3929421799999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G110">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>45421.93954861111</v>
+      <c r="A111" s="1">
+        <v>45422.829675925917</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111">
-        <v>0.11898276000000001</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E111">
-        <v>205.82814242000001</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G111">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>45421.817245370366</v>
+      <c r="A112" s="1">
+        <v>45422.08221064815</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>3.8034991200000001</v>
+        <v>143.75063899</v>
       </c>
       <c r="E112">
-        <v>6.4388078499999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G112">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>45418.977210648147</v>
+      <c r="A113" s="1">
+        <v>45422.07099537037</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>2912.2689564799998</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E113">
-        <v>8.4072299999999999E-3</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F113">
         <v>25</v>
@@ -3533,46 +3508,46 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>45418.969189814823</v>
+      <c r="A114" s="1">
+        <v>45422.069872685177</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>59899.712723249999</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E114">
-        <v>4.0884999999999999E-4</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F114">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G114">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>45414.950277777767</v>
+      <c r="A115" s="1">
+        <v>45422.056192129632</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>131.18665751</v>
+        <v>2.1432031</v>
       </c>
       <c r="E115">
-        <v>0.18668056999999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F115">
         <v>25</v>
@@ -3581,6 +3556,162 @@
         <v>0.51</v>
       </c>
       <c r="H115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45422.018043981479</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>10.234263159999999</v>
+      </c>
+      <c r="E116">
+        <v>2.3929421799999999</v>
+      </c>
+      <c r="F116">
+        <v>25</v>
+      </c>
+      <c r="G116">
+        <v>0.51</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45421.93954861111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>0.11898276000000001</v>
+      </c>
+      <c r="E117">
+        <v>205.82814242000001</v>
+      </c>
+      <c r="F117">
+        <v>25</v>
+      </c>
+      <c r="G117">
+        <v>0.51</v>
+      </c>
+      <c r="H117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45421.817245370366</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>3.8034991200000001</v>
+      </c>
+      <c r="E118">
+        <v>6.4388078499999999</v>
+      </c>
+      <c r="F118">
+        <v>25</v>
+      </c>
+      <c r="G118">
+        <v>0.51</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E119">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119">
+        <v>0.51</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E120">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120">
+        <v>0.51</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>131.18665751</v>
+      </c>
+      <c r="E121">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121">
+        <v>0.51</v>
+      </c>
+      <c r="H121" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2A593-6BE8-4076-90FE-707CD4581398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB5B655-F169-4A8E-A285-FF9B83E55D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="58">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>USDTTRY</t>
-  </si>
-  <si>
-    <t>USDTRY</t>
   </si>
   <si>
     <t>SOLUSDT</t>
@@ -553,20 +550,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45900.939155092594</v>
       </c>
@@ -619,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45900.938969907409</v>
       </c>
@@ -645,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45900.936724537038</v>
       </c>
@@ -672,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45900.936018518521</v>
       </c>
@@ -698,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45900.935787037037</v>
       </c>
@@ -724,12 +721,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45900.935324074075</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -751,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -777,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -803,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -829,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -855,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -881,12 +878,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -907,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -933,12 +930,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45891.844282407408</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -959,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45891.844282407408</v>
       </c>
@@ -985,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45891.843576388892</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45891.843576388892</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45878.026342592602</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45878.026342592602</v>
       </c>
@@ -1089,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45560.642766203702</v>
       </c>
@@ -1115,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45560.642766203702</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45560.642766203702</v>
       </c>
@@ -1167,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45560.642361111109</v>
       </c>
@@ -1193,7 +1190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45553.906388888892</v>
       </c>
@@ -1219,7 +1216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45553.906388888892</v>
       </c>
@@ -1245,7 +1242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45529.90896990741</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45529.90896990741</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45529.906527777777</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45529.906145833331</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45528.998402777783</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45528.998402777783</v>
       </c>
@@ -1401,7 +1398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45500.560335648152</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45500.560335648152</v>
       </c>
@@ -1453,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45500.559224537043</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45500.559224537043</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45500.559224537043</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45500.559224537043</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45488.037268518521</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45479.777083333327</v>
       </c>
@@ -1609,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45479.76871527778</v>
       </c>
@@ -1635,7 +1632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45479.768495370372</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45479.673125000001</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45479.672395833331</v>
       </c>
@@ -1713,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45459.611851851849</v>
       </c>
@@ -1739,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45457.954826388886</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45457.954826388886</v>
       </c>
@@ -1791,7 +1788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45457.954560185193</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45457.954560185193</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45457.95416666667</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45455.630983796298</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45455.630624999998</v>
       </c>
@@ -1921,7 +1918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45455.036585648151</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45455.036585648151</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2077,7 +2074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2207,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45451.519594907397</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45451.519594907397</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45451.504004629627</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45450.922071759262</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45450.922071759262</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45450.921388888892</v>
       </c>
@@ -2389,7 +2386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45450.920393518521</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45447.972905092603</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45447.972905092603</v>
       </c>
@@ -2467,7 +2464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45447.949826388889</v>
       </c>
@@ -2493,7 +2490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45447.949826388889</v>
       </c>
@@ -2519,7 +2516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45446.501504629632</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45446.501504629632</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45446.496493055558</v>
       </c>
@@ -2597,7 +2594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45446.496493055558</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45446.420810185176</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45446.420810185176</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45442.009212962963</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45442.009212962963</v>
       </c>
@@ -2727,7 +2724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45441.908472222232</v>
       </c>
@@ -2753,7 +2750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45441.908472222232</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45440.886192129627</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45439.966828703713</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45439.966828703713</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45439.965474537043</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45439.965474537043</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45438.413587962961</v>
       </c>
@@ -2935,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45438.066701388889</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45438.064282407409</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45438.062881944446</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45438.016701388893</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45438.011793981481</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45437.934502314813</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45437.927314814813</v>
       </c>
@@ -3117,7 +3114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45436.947754629633</v>
       </c>
@@ -3143,7 +3140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45436.935613425929</v>
       </c>
@@ -3169,7 +3166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45436.934664351851</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45436.433229166672</v>
       </c>
@@ -3221,7 +3218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45426.641608796293</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45425.858472222222</v>
       </c>
@@ -3273,7 +3270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45422.839930555558</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45422.83865740741</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45422.837546296287</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45422.835844907408</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45422.833622685182</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45422.831307870372</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45422.829675925917</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45422.08221064815</v>
       </c>
@@ -3481,7 +3478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45422.07099537037</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45422.069872685177</v>
       </c>
@@ -3533,7 +3530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45422.056192129632</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45422.018043981479</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45421.93954861111</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45421.817245370366</v>
       </c>
@@ -3637,7 +3634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45418.977210648147</v>
       </c>
@@ -3663,7 +3660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45418.969189814823</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45414.950277777767</v>
       </c>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB5B655-F169-4A8E-A285-FF9B83E55D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC468E-C702-4C17-A79D-AE5F5237F091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="59">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>SOLUSDT</t>
+  </si>
+  <si>
+    <t>USDC</t>
   </si>
 </sst>
 </file>
@@ -548,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,236 +594,236 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>113954.4</v>
+      </c>
+      <c r="E2">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F2">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G2">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E3">
+        <v>905.7</v>
+      </c>
+      <c r="F3">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.28643215</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E4">
+        <v>452</v>
+      </c>
+      <c r="F4">
+        <v>150.4708</v>
+      </c>
+      <c r="G4">
+        <v>0.14294725999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45900.939155092594</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>200.6</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>68.705500000000001</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>109079.99</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>68.720393700000002</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>2022.6</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>692.57447000000002</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>867.28</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>1.9E-2</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>16.47832</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>4462.54</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>6.93E-2</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>309.25402200000002</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>204.95</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>1.79</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>366.8605</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E8">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F8">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G8">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F9">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G9">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F10">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G10">
-        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -837,16 +840,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>894.92249916666651</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E11">
-        <v>2.2299999999999994E-6</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F11">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G11">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -857,22 +860,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>0.16364448087293901</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>1.21952E-2</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F12">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G12">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -883,22 +886,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>3.7475332321759747</v>
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>6.02</v>
+        <v>0.90185245368865785</v>
       </c>
       <c r="F13">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G13">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -915,16 +918,16 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>894.92249900000002</v>
+        <v>894.92249916666651</v>
       </c>
       <c r="E14">
-        <v>2.5209054507969595E-2</v>
+        <v>2.2299999999999994E-6</v>
       </c>
       <c r="F14">
-        <v>22.560150057699367</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G14">
-        <v>3.2799999999999999E-6</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -932,25 +935,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>2.4576062914721059E-2</v>
+        <v>0.16364448087293901</v>
       </c>
       <c r="E15">
-        <v>8718.1239999999998</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F15">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G15">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -958,25 +961,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>0.3650036864094372</v>
+        <v>3.7475332321759747</v>
       </c>
       <c r="E16">
-        <v>586.99999999999989</v>
+        <v>6.02</v>
       </c>
       <c r="F16">
-        <v>214.2571639223396</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G16">
-        <v>2.6836999999999998E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -984,25 +987,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>2.4583614919863089E-2</v>
+        <v>894.92249900000002</v>
       </c>
       <c r="E17">
-        <v>8724.1440000000021</v>
+        <v>2.5209054507969595E-2</v>
       </c>
       <c r="F17">
-        <v>214.47099660143411</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G17">
-        <v>2.6861000000000002E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1010,25 +1013,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>1.6766025375346629E-2</v>
+        <v>2.4576062914721059E-2</v>
       </c>
       <c r="E18">
-        <v>12792</v>
+        <v>8718.1239999999998</v>
       </c>
       <c r="F18">
-        <v>214.47099660143411</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G18">
-        <v>2.6861000000000002E-4</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1036,25 +1039,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>794.61066900000014</v>
+        <v>0.3650036864094372</v>
       </c>
       <c r="E19">
-        <v>1.8984839999999996E-2</v>
+        <v>586.99999999999989</v>
       </c>
       <c r="F19">
-        <v>15.08555641325796</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G19">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1062,25 +1065,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0.12960100011389999</v>
+        <v>2.4583614919863089E-2</v>
       </c>
       <c r="E20">
-        <v>116.4</v>
+        <v>8724.1440000000021</v>
       </c>
       <c r="F20">
-        <v>15.08555641325796</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G20">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1088,129 +1091,129 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>1.1802999999999999</v>
+        <v>1.6766025375346629E-2</v>
       </c>
       <c r="E21">
-        <v>57</v>
+        <v>12792</v>
       </c>
       <c r="F21">
-        <v>67.277100000000004</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G21">
-        <v>5.7000000000000002E-2</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>1.1802999999999999</v>
+        <v>794.61066900000014</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>1.8984839999999996E-2</v>
       </c>
       <c r="F22">
-        <v>40.130200000000002</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G22">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>1.1801999999999999</v>
+        <v>0.12960100011389999</v>
       </c>
       <c r="E23">
-        <v>94</v>
+        <v>116.4</v>
       </c>
       <c r="F23">
-        <v>110.9388</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G23">
-        <v>9.4E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45560.642361111109</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0.15079999999999999</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E24">
-        <v>1456.1</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>219.57988</v>
+        <v>67.277100000000004</v>
       </c>
       <c r="G24">
-        <v>0.21957988000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>60330.294086166672</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E25">
-        <v>1.3220300000000003E-3</v>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>79.75845869073494</v>
+        <v>40.130200000000002</v>
       </c>
       <c r="G25">
-        <v>7.2999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1227,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1.092581625900479</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E26">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F26">
-        <v>79.75845869073494</v>
+        <v>110.9388</v>
       </c>
       <c r="G26">
-        <v>7.2999999999999995E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1244,129 +1247,129 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>64353.810126000011</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="E27">
-        <v>2.5412999999999998E-3</v>
+        <v>1456.1</v>
       </c>
       <c r="F27">
-        <v>163.5423376732038</v>
+        <v>219.57988</v>
       </c>
       <c r="G27">
-        <v>0.98499999999999999</v>
+        <v>0.21957988000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45529.90896990741</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>0.16603283012507999</v>
+        <v>60330.294086166672</v>
       </c>
       <c r="E28">
-        <v>985</v>
+        <v>1.3220300000000003E-3</v>
       </c>
       <c r="F28">
-        <v>163.5423376732038</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G28">
-        <v>0.98499999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45529.906527777777</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>0.16550000000000001</v>
+        <v>1.092581625900479</v>
       </c>
       <c r="E29">
-        <v>453</v>
+        <v>73</v>
       </c>
       <c r="F29">
-        <v>74.971500000000006</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G29">
-        <v>9.7360000000000003E-5</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45529.906145833331</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>0.34300000000000003</v>
+        <v>64353.810126000011</v>
       </c>
       <c r="E30">
-        <v>218.6</v>
+        <v>2.5412999999999998E-3</v>
       </c>
       <c r="F30">
-        <v>74.979799999999997</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G30">
-        <v>9.7349999999999995E-5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>580.5</v>
+        <v>0.16603283012507999</v>
       </c>
       <c r="E31">
-        <v>0.10150559999999997</v>
+        <v>985</v>
       </c>
       <c r="F31">
-        <v>58.924000799999988</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G31">
-        <v>0.371</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -1383,42 +1386,42 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>0.15882479999999999</v>
+        <v>0.16550000000000001</v>
       </c>
       <c r="E32">
-        <v>370.99999999999994</v>
+        <v>453</v>
       </c>
       <c r="F32">
-        <v>58.924000799999988</v>
+        <v>74.971500000000006</v>
       </c>
       <c r="G32">
-        <v>0.371</v>
+        <v>9.7360000000000003E-5</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45500.560335648152</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>68797.238685499993</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E33">
-        <v>3.1044000000000004E-4</v>
+        <v>218.6</v>
       </c>
       <c r="F33">
-        <v>21.357414777526621</v>
+        <v>74.979799999999997</v>
       </c>
       <c r="G33">
-        <v>2.709E-5</v>
+        <v>9.7349999999999995E-5</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1426,77 +1429,77 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45500.560335648152</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>0.136906504984145</v>
+        <v>580.5</v>
       </c>
       <c r="E34">
-        <v>156</v>
+        <v>0.10150559999999997</v>
       </c>
       <c r="F34">
-        <v>21.357414777526621</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G34">
-        <v>2.709E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45500.559224537043</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>68786.233699999997</v>
+        <v>0.15882479999999999</v>
       </c>
       <c r="E35">
-        <v>2.7748800000000005E-4</v>
+        <v>370.99999999999994</v>
       </c>
       <c r="F35">
-        <v>19.087354416945601</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G35">
-        <v>2.4470000000000001E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>2651.0214467979999</v>
+        <v>68797.238685499993</v>
       </c>
       <c r="E36">
-        <v>7.1999999999999998E-3</v>
+        <v>3.1044000000000004E-4</v>
       </c>
       <c r="F36">
-        <v>19.087354416945601</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G36">
-        <v>2.4470000000000001E-5</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1504,25 +1507,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>68786.233699999997</v>
+        <v>0.136906504984145</v>
       </c>
       <c r="E37">
-        <v>1.4529580000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="F37">
-        <v>99.943508544284597</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G37">
-        <v>1.2672000000000001E-4</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1533,22 +1536,22 @@
         <v>45500.559224537043</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>2651.0214467979999</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E38">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7748800000000005E-4</v>
       </c>
       <c r="F38">
-        <v>99.943508544284597</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G38">
-        <v>1.2672000000000001E-4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -1556,51 +1559,51 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45488.037268518521</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>1.00660569</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E39">
-        <v>194.71378021999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45479.777083333327</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>485.5</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>1.4529580000000001E-3</v>
       </c>
       <c r="F40">
-        <v>48.55</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G40">
-        <v>7.4999999999999993E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -1608,25 +1611,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45479.76871527778</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>0.39800000000000002</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E41">
-        <v>85.6</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="F41">
-        <v>34.068800000000003</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G41">
-        <v>4.8569999999999997E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -1634,51 +1637,51 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45479.768495370372</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>524.6</v>
+        <v>1.00660569</v>
       </c>
       <c r="E42">
-        <v>6.5000000000000002E-2</v>
+        <v>194.71378021999999</v>
       </c>
       <c r="F42">
-        <v>34.098999999999997</v>
+        <v>200</v>
       </c>
       <c r="G42">
-        <v>4.8730000000000003E-5</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45479.673125000001</v>
+        <v>45479.777083333327</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43">
-        <v>2.4140000000000002E-2</v>
+        <v>485.5</v>
       </c>
       <c r="E43">
-        <v>1976.8</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>47.719951999999999</v>
+        <v>48.55</v>
       </c>
       <c r="G43">
-        <v>6.8789999999999997E-5</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -1686,25 +1689,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45479.672395833331</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>9.2099999999999999E-6</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E44">
-        <v>5181574</v>
+        <v>85.6</v>
       </c>
       <c r="F44">
-        <v>47.722296540000002</v>
+        <v>34.068800000000003</v>
       </c>
       <c r="G44">
-        <v>6.8889999999999999E-5</v>
+        <v>4.8569999999999997E-5</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -1712,51 +1715,51 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45459.611851851849</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>2.0114E-2</v>
+        <v>524.6</v>
       </c>
       <c r="E45">
-        <v>2036</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F45">
-        <v>40.952103999999999</v>
+        <v>34.098999999999997</v>
       </c>
       <c r="G45">
-        <v>4.0952099999999998E-2</v>
+        <v>4.8730000000000003E-5</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>1.9619000000000001E-2</v>
+        <v>2.4140000000000002E-2</v>
       </c>
       <c r="E46">
-        <v>88</v>
+        <v>1976.8</v>
       </c>
       <c r="F46">
-        <v>1.726472</v>
+        <v>47.719951999999999</v>
       </c>
       <c r="G46">
-        <v>2.2000000000000001E-6</v>
+        <v>6.8789999999999997E-5</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -1764,77 +1767,77 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>1.9619000000000001E-2</v>
+        <v>9.2099999999999999E-6</v>
       </c>
       <c r="E47">
-        <v>1950</v>
+        <v>5181574</v>
       </c>
       <c r="F47">
-        <v>38.25705</v>
+        <v>47.722296540000002</v>
       </c>
       <c r="G47">
-        <v>1.95</v>
+        <v>6.8889999999999999E-5</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45457.954560185193</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>0.50849999999999995</v>
+        <v>2.0114E-2</v>
       </c>
       <c r="E48">
-        <v>9.5</v>
+        <v>2036</v>
       </c>
       <c r="F48">
-        <v>4.8307500000000001</v>
+        <v>40.952103999999999</v>
       </c>
       <c r="G48">
-        <v>6.02E-6</v>
+        <v>4.0952099999999998E-2</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45457.954560185193</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>0.50860000000000005</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E49">
-        <v>29.8</v>
+        <v>88</v>
       </c>
       <c r="F49">
-        <v>15.156280000000001</v>
+        <v>1.726472</v>
       </c>
       <c r="G49">
-        <v>1.891E-5</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -1842,103 +1845,103 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45457.95416666667</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>1.145E-5</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E50">
-        <v>1746724</v>
+        <v>1950</v>
       </c>
       <c r="F50">
-        <v>19.999989800000002</v>
+        <v>38.25705</v>
       </c>
       <c r="G50">
-        <v>2.4329999999999999E-5</v>
+        <v>1.95</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45455.630983796298</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>3.7824000000000003E-2</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="E51">
-        <v>3465.2</v>
+        <v>9.5</v>
       </c>
       <c r="F51">
-        <v>131.06772480000001</v>
+        <v>4.8307500000000001</v>
       </c>
       <c r="G51">
-        <v>3.4651999999999998</v>
+        <v>6.02E-6</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45455.630624999998</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52">
-        <v>69787.490000000005</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="E52">
-        <v>1.8799999999999999E-3</v>
+        <v>29.8</v>
       </c>
       <c r="F52">
-        <v>131.20048120000001</v>
+        <v>15.156280000000001</v>
       </c>
       <c r="G52">
-        <v>0.13120048000000001</v>
+        <v>1.891E-5</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45455.036585648151</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>67225.228872500011</v>
+        <v>1.145E-5</v>
       </c>
       <c r="E53">
-        <v>1.384E-4</v>
+        <v>1746724</v>
       </c>
       <c r="F53">
-        <v>9.303971675954001</v>
+        <v>19.999989800000002</v>
       </c>
       <c r="G53">
-        <v>1.1759999999999999E-5</v>
+        <v>2.4329999999999999E-5</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1946,106 +1949,106 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45455.036585648151</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>0.116299645949425</v>
+        <v>3.7824000000000003E-2</v>
       </c>
       <c r="E54">
-        <v>80</v>
+        <v>3465.2</v>
       </c>
       <c r="F54">
-        <v>9.303971675954001</v>
+        <v>131.06772480000001</v>
       </c>
       <c r="G54">
-        <v>1.1759999999999999E-5</v>
+        <v>3.4651999999999998</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>69351.951598999993</v>
+        <v>69787.490000000005</v>
       </c>
       <c r="E55">
-        <v>1.2520929999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F55">
-        <v>86.835093133446691</v>
+        <v>131.20048120000001</v>
       </c>
       <c r="G55">
-        <v>1.2500000000000001E-6</v>
+        <v>0.13120048000000001</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>683.74089081454088</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E56">
-        <v>0.127</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F56">
-        <v>86.835093133446691</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G56">
-        <v>1.2500000000000001E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>69351.951598999993</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E57">
-        <v>2.9577000000000002E-3</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G57">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,22 +2056,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E58">
-        <v>0.3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F58">
-        <v>205.12226724436229</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G58">
-        <v>2.96E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H58" t="s">
         <v>27</v>
@@ -2079,22 +2082,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E59">
-        <v>2.4647499999999995E-3</v>
+        <v>0.127</v>
       </c>
       <c r="F59">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G59">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H59" t="s">
         <v>27</v>
@@ -2105,22 +2108,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E60">
-        <v>0.25</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F60">
-        <v>170.93522270363519</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G60">
-        <v>2.4600000000000002E-6</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H60" t="s">
         <v>27</v>
@@ -2131,25 +2134,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E61">
-        <v>4.929499999999999E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F61">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G61">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,25 +2160,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F62">
-        <v>341.87044540727038</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G62">
-        <v>3.7500000000000001E-4</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2183,25 +2186,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E63">
-        <v>8.0843799999999997E-4</v>
+        <v>0.25</v>
       </c>
       <c r="F63">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G63">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2209,22 +2212,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E64">
-        <v>8.2000000000000003E-2</v>
+        <v>4.929499999999999E-3</v>
       </c>
       <c r="F64">
-        <v>56.066753046792357</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G64">
-        <v>6.1610000000000001E-5</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -2232,25 +2235,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>683.89481871559008</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E65">
-        <v>1.121</v>
+        <v>0.5</v>
       </c>
       <c r="F65">
-        <v>766.64609178017645</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G65">
-        <v>8.4075000000000003E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
@@ -2258,25 +2261,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>69360.529281499999</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E66">
-        <v>1.1053060000000002E-2</v>
+        <v>8.0843799999999997E-4</v>
       </c>
       <c r="F66">
-        <v>766.64609178017645</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G66">
-        <v>8.4075000000000003E-4</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45451.504004629627</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2293,16 +2296,16 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>681.2</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E67">
-        <v>1.4999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F67">
-        <v>10.218</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G67">
-        <v>1.1240000000000001E-5</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -2310,207 +2313,207 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68">
-        <v>4.1304E-2</v>
+        <v>683.89481871559008</v>
       </c>
       <c r="E68">
-        <v>1210.5</v>
+        <v>1.121</v>
       </c>
       <c r="F68">
-        <v>49.998491999999999</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G68">
-        <v>1.2104999999999999</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>4.1305000000000001E-2</v>
+        <v>69360.529281499999</v>
       </c>
       <c r="E69">
-        <v>1082.2</v>
+        <v>1.1053060000000002E-2</v>
       </c>
       <c r="F69">
-        <v>44.700271000000001</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G69">
-        <v>1.0822000000000001</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45450.921388888892</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>21.97</v>
+        <v>681.2</v>
       </c>
       <c r="E70">
-        <v>2.0099999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F70">
-        <v>44.159700000000001</v>
+        <v>10.218</v>
       </c>
       <c r="G70">
-        <v>4.4159700000000003E-2</v>
+        <v>1.1240000000000001E-5</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45450.920393518521</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>39.244999999999997</v>
+        <v>4.1304E-2</v>
       </c>
       <c r="E71">
-        <v>1.3</v>
+        <v>1210.5</v>
       </c>
       <c r="F71">
-        <v>51.018500000000003</v>
+        <v>49.998491999999999</v>
       </c>
       <c r="G71">
-        <v>5.1018500000000001E-2</v>
+        <v>1.2104999999999999</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72">
-        <v>70502.707116500009</v>
+        <v>4.1305000000000001E-2</v>
       </c>
       <c r="E72">
-        <v>5.1688999999999999E-5</v>
+        <v>1082.2</v>
       </c>
       <c r="F72">
-        <v>3.6442144281447688</v>
+        <v>44.700271000000001</v>
       </c>
       <c r="G72">
-        <v>4.9999999999999998E-8</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73">
-        <v>3.312922207404335</v>
+        <v>21.97</v>
       </c>
       <c r="E73">
-        <v>1.1000000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F73">
-        <v>3.6442144281447688</v>
+        <v>44.159700000000001</v>
       </c>
       <c r="G73">
-        <v>4.9999999999999998E-8</v>
+        <v>4.4159700000000003E-2</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45447.949826388889</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>70534.997166833316</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="E74">
-        <v>2.4904700000000007E-4</v>
+        <v>1.3</v>
       </c>
       <c r="F74">
-        <v>17.566529439408342</v>
+        <v>51.018500000000003</v>
       </c>
       <c r="G74">
-        <v>2.4999999999999999E-7</v>
+        <v>5.1018500000000001E-2</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45447.949826388889</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>3.314439516869498</v>
+        <v>70502.707116500009</v>
       </c>
       <c r="E75">
-        <v>5.3</v>
+        <v>5.1688999999999999E-5</v>
       </c>
       <c r="F75">
-        <v>17.566529439408342</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G75">
-        <v>2.4999999999999999E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
@@ -2518,77 +2521,77 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>3810.4583321666669</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E76">
-        <v>1.363E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F76">
-        <v>51.936547067431668</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G76">
-        <v>1.363E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>0.51936547067431671</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E77">
-        <v>100</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F77">
-        <v>51.936547067431668</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G77">
-        <v>1.363E-5</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>69129.989500166674</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E78">
-        <v>6.9092000000000003E-4</v>
+        <v>5.3</v>
       </c>
       <c r="F78">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G78">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
@@ -2596,77 +2599,77 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45446.496493055558</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D79">
-        <v>0.51916622114625177</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E79">
-        <v>92</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F79">
-        <v>47.763292345455163</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G79">
-        <v>6.8999999999999996E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>69115.089471833344</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E80">
-        <v>6.6420899999999991E-4</v>
+        <v>100</v>
       </c>
       <c r="F80">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G80">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>7.2868038830153896</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E81">
-        <v>6.3</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F81">
-        <v>45.90686446299695</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G81">
-        <v>6.6000000000000003E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
@@ -2674,25 +2677,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>67749.869200166664</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E82">
-        <v>9.3258000000000002E-4</v>
+        <v>92</v>
       </c>
       <c r="F82">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G82">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
@@ -2700,25 +2703,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>21.273458928852332</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E83">
-        <v>2.97</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F83">
-        <v>63.182173018691429</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G83">
-        <v>9.2999999999999999E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H83" t="s">
         <v>27</v>
@@ -2726,25 +2729,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>67695.037825500011</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E84">
-        <v>7.3358999999999989E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F84">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G84">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -2752,25 +2755,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45441.908472222232</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>7.6400619689859308</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E85">
-        <v>6.5</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F85">
-        <v>49.660402798408548</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G85">
-        <v>7.3E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
@@ -2778,33 +2781,33 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45440.886192129627</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>64131.089181479998</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E86">
-        <v>7.6406E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -2813,16 +2816,16 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>69531.813510500011</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E87">
-        <v>4.0046400000000006E-4</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F87">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G87">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
@@ -2830,25 +2833,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>25.782396449693401</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E88">
-        <v>1.08</v>
+        <v>6.5</v>
       </c>
       <c r="F88">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G88">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
@@ -2856,51 +2859,51 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45439.965474537043</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89">
-        <v>69520.879412499999</v>
+        <v>64131.089181479998</v>
       </c>
       <c r="E89">
-        <v>2.31E-4</v>
+        <v>7.6406E-4</v>
       </c>
       <c r="F89">
-        <v>16.0593231442875</v>
+        <v>50</v>
       </c>
       <c r="G89">
-        <v>2.2999999999999999E-7</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45439.965474537043</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>2.2941890206125</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F90">
-        <v>16.0593231442875</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G90">
-        <v>2.2999999999999999E-7</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -2908,103 +2911,103 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45438.413587962961</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>64764.057269930003</v>
+        <v>25.782396449693401</v>
       </c>
       <c r="E91">
-        <v>3.02637E-3</v>
+        <v>1.08</v>
       </c>
       <c r="F91">
-        <v>200</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45438.066701388889</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92">
-        <v>21.880480030000001</v>
+        <v>69520.879412499999</v>
       </c>
       <c r="E92">
-        <v>3.3587014499999999</v>
+        <v>2.31E-4</v>
       </c>
       <c r="F92">
-        <v>75</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45438.064282407409</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>21.400680940000001</v>
+        <v>2.2941890206125</v>
       </c>
       <c r="E93">
-        <v>4.5792935400000001</v>
+        <v>7</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45438.062881944446</v>
+        <v>45438.413587962961</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94">
-        <v>2.0397180000000001E-2</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E94">
-        <v>4804.5860693499999</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
@@ -3012,25 +3015,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45438.016701388893</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95">
-        <v>0.50915756999999995</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E95">
-        <v>288.7121952</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F95">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
@@ -3038,19 +3041,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96">
-        <v>0.50817648999999998</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E96">
-        <v>192.84638819</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F96">
         <v>100</v>
@@ -3064,19 +3067,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
       <c r="D97">
-        <v>1.414E-5</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E97">
-        <v>6928298.2400000002</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F97">
         <v>100</v>
@@ -3090,25 +3093,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98">
-        <v>7.6274206099999997</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E98">
-        <v>12.848380199999999</v>
+        <v>288.7121952</v>
       </c>
       <c r="F98">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
@@ -3116,19 +3119,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99">
-        <v>2571.01241222</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E99">
-        <v>3.8117280000000003E-2</v>
+        <v>192.84638819</v>
       </c>
       <c r="F99">
         <v>100</v>
@@ -3142,25 +3145,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45436.935613425929</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>3502.0461955599999</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E100">
-        <v>4.1975459999999999E-2</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
@@ -3168,19 +3171,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45436.934664351851</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101">
-        <v>157.11043262000001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E101">
-        <v>0.62376507000000003</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F101">
         <v>100</v>
@@ -3194,19 +3197,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45436.433229166672</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102">
-        <v>63003.060148639997</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E102">
-        <v>1.5554799999999999E-3</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F102">
         <v>100</v>
@@ -3220,25 +3223,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45426.641608796293</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103">
-        <v>57930.577887070001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E103">
-        <v>8.4584000000000005E-4</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -3246,7 +3249,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -3255,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>140.23996862000001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E104">
-        <v>0.69880220999999998</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F104">
         <v>100</v>
@@ -3272,25 +3275,25 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105">
-        <v>10.580849669999999</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E105">
-        <v>1.85240322</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F105">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G105">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
@@ -3298,25 +3301,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45422.83865740741</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106">
-        <v>2752.3331128700001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E106">
-        <v>5.3372899999999997E-3</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G106">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
@@ -3324,25 +3327,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45422.837546296287</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>57425.239760140001</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E107">
-        <v>5.1197000000000005E-4</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F107">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
@@ -3350,25 +3353,25 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45422.835844907408</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>2.10457801</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E108">
-        <v>6.9800216099999997</v>
+        <v>1.85240322</v>
       </c>
       <c r="F108">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G108">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
@@ -3376,25 +3379,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45422.833622685182</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>0.1200639</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E109">
-        <v>163.24640485</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F109">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G109">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -3402,25 +3405,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>140.17980062000001</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E110">
-        <v>0.13982043</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F110">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G110">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
@@ -3428,19 +3431,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111">
-        <v>0.79988477999999996</v>
+        <v>2.10457801</v>
       </c>
       <c r="E111">
-        <v>18.365145070000001</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F111">
         <v>15</v>
@@ -3454,19 +3457,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>143.75063899</v>
+        <v>0.1200639</v>
       </c>
       <c r="E112">
-        <v>0.13634721999999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F112">
         <v>20</v>
@@ -3480,25 +3483,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>0.93873598000000003</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E113">
-        <v>26.088272459999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F113">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G113">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -3506,25 +3509,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>2583.1506530400002</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E114">
-        <v>6.8288699999999999E-3</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F114">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G114">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
@@ -3532,25 +3535,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>2.1432031</v>
+        <v>143.75063899</v>
       </c>
       <c r="E115">
-        <v>11.426821869999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G115">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
@@ -3558,19 +3561,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>10.234263159999999</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E116">
-        <v>2.3929421799999999</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F116">
         <v>25</v>
@@ -3584,25 +3587,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117">
-        <v>0.11898276000000001</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E117">
-        <v>205.82814242000001</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G117">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -3610,19 +3613,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>3.8034991200000001</v>
+        <v>2.1432031</v>
       </c>
       <c r="E118">
-        <v>6.4388078499999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F118">
         <v>25</v>
@@ -3636,19 +3639,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>2912.2689564799998</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E119">
-        <v>8.4072299999999999E-3</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F119">
         <v>25</v>
@@ -3662,19 +3665,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45418.969189814823</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>59899.712723249999</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E120">
-        <v>4.0884999999999999E-4</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F120">
         <v>25</v>
@@ -3688,19 +3691,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45414.950277777767</v>
+        <v>45421.817245370366</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>131.18665751</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E121">
-        <v>0.18668056999999999</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F121">
         <v>25</v>
@@ -3709,6 +3712,84 @@
         <v>0.51</v>
       </c>
       <c r="H121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E122">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>0.51</v>
+      </c>
+      <c r="H122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E123">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123">
+        <v>0.51</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>131.18665751</v>
+      </c>
+      <c r="E124">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124">
+        <v>0.51</v>
+      </c>
+      <c r="H124" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC468E-C702-4C17-A79D-AE5F5237F091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0302D05-E2FD-461A-B46B-80D3A3D8092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="60">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>USDC</t>
+  </si>
+  <si>
+    <t>1099.4726562</t>
   </si>
 </sst>
 </file>
@@ -551,22 +554,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,374 +595,374 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45931.030428240738</v>
+        <v>45962.060810185183</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>113954.4</v>
+        <v>1088.98</v>
       </c>
       <c r="E2">
-        <v>3.96E-3</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F2">
-        <v>451.25942400000002</v>
+        <v>148.10128</v>
       </c>
       <c r="G2">
-        <v>3.8340000000000002E-5</v>
+        <v>9.6899999999999997E-5</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45931.029803240737</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0.33289999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E3">
-        <v>905.7</v>
+        <v>2624.2</v>
       </c>
       <c r="F3">
-        <v>301.50752999999997</v>
+        <v>776.76319999999998</v>
       </c>
       <c r="G3">
-        <v>0.28643215</v>
+        <v>2.4929899999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45931.028958333336</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E4">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="F4">
+        <v>173.2192</v>
+      </c>
+      <c r="G4">
+        <v>0.55593999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45962.059027777781</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>109727.81</v>
+      </c>
+      <c r="E5">
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>1.0444990199999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>113954.4</v>
+      </c>
+      <c r="E6">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F6">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G6">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>0.33289999999999997</v>
       </c>
-      <c r="E4">
+      <c r="E7">
+        <v>905.7</v>
+      </c>
+      <c r="F7">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.28643215</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E8">
         <v>452</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>150.4708</v>
       </c>
-      <c r="G4">
+      <c r="G8">
         <v>0.14294725999999999</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45900.939155092594</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>200.6</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>68.705500000000001</v>
       </c>
-      <c r="G5">
+      <c r="G9">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>109079.99</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>68.720393700000002</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>2022.6</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>692.57447000000002</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>867.28</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>1.9E-2</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>16.47832</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>4462.54</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>6.93E-2</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>309.25402200000002</v>
       </c>
-      <c r="G9">
+      <c r="G13">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>204.95</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>1.79</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>366.8605</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E11">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F11">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G11">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F12">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G12">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F13">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G13">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>894.92249916666651</v>
-      </c>
-      <c r="E14">
-        <v>2.2299999999999994E-6</v>
-      </c>
-      <c r="F14">
-        <v>1.9956771731416659E-3</v>
-      </c>
-      <c r="G14">
-        <v>4.0000000000000001E-8</v>
-      </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>0.16364448087293901</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E15">
-        <v>1.21952E-2</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F15">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G15">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -967,339 +970,339 @@
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>3.7475332321759747</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>6.02</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F16">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G16">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1.5384999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.90185245368865785</v>
+      </c>
+      <c r="F17">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>894.92249900000002</v>
-      </c>
-      <c r="E17">
-        <v>2.5209054507969595E-2</v>
-      </c>
-      <c r="F17">
-        <v>22.560150057699367</v>
-      </c>
-      <c r="G17">
-        <v>3.2799999999999999E-6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45891.844282407408</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>2.4576062914721059E-2</v>
+        <v>894.92249916666651</v>
       </c>
       <c r="E18">
-        <v>8718.1239999999998</v>
+        <v>2.2299999999999994E-6</v>
       </c>
       <c r="F18">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G18">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>0.3650036864094372</v>
+        <v>0.16364448087293901</v>
       </c>
       <c r="E19">
-        <v>586.99999999999989</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F19">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G19">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
+        <v>3.7475332321759747</v>
+      </c>
+      <c r="E20">
+        <v>6.02</v>
+      </c>
+      <c r="F20">
+        <v>22.560150057699367</v>
+      </c>
+      <c r="G20">
+        <v>3.2799999999999999E-6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>894.92249900000002</v>
+      </c>
+      <c r="E21">
+        <v>2.5209054507969595E-2</v>
+      </c>
+      <c r="F21">
+        <v>22.560150057699367</v>
+      </c>
+      <c r="G21">
+        <v>3.2799999999999999E-6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45891.844282407408</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2.4576062914721059E-2</v>
+      </c>
+      <c r="E22">
+        <v>8718.1239999999998</v>
+      </c>
+      <c r="F22">
+        <v>214.2571639223396</v>
+      </c>
+      <c r="G22">
+        <v>2.6836999999999998E-4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45891.844282407408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0.3650036864094372</v>
+      </c>
+      <c r="E23">
+        <v>586.99999999999989</v>
+      </c>
+      <c r="F23">
+        <v>214.2571639223396</v>
+      </c>
+      <c r="G23">
+        <v>2.6836999999999998E-4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45891.843576388892</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
         <v>2.4583614919863089E-2</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>8724.1440000000021</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>214.47099660143411</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>45891.843576388892</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>1.6766025375346629E-2</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>12792</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>214.47099660143411</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>794.61066900000014</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>1.8984839999999996E-2</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>15.08555641325796</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>0.12960100011389999</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>116.4</v>
       </c>
-      <c r="F23">
+      <c r="F27">
         <v>15.08555641325796</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
         <v>1.1802999999999999</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>57</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>67.277100000000004</v>
       </c>
-      <c r="G24">
+      <c r="G28">
         <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45560.642766203702</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>1.1802999999999999</v>
-      </c>
-      <c r="E25">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>40.130200000000002</v>
-      </c>
-      <c r="G25">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45560.642766203702</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>1.1801999999999999</v>
-      </c>
-      <c r="E26">
-        <v>94</v>
-      </c>
-      <c r="F26">
-        <v>110.9388</v>
-      </c>
-      <c r="G26">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45560.642361111109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>0.15079999999999999</v>
-      </c>
-      <c r="E27">
-        <v>1456.1</v>
-      </c>
-      <c r="F27">
-        <v>219.57988</v>
-      </c>
-      <c r="G27">
-        <v>0.21957988000000001</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45553.906388888892</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>60330.294086166672</v>
-      </c>
-      <c r="E28">
-        <v>1.3220300000000003E-3</v>
-      </c>
-      <c r="F28">
-        <v>79.75845869073494</v>
-      </c>
-      <c r="G28">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1308,154 +1311,154 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>1.092581625900479</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E29">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>79.75845869073494</v>
+        <v>40.130200000000002</v>
       </c>
       <c r="G29">
-        <v>7.2999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>64353.810126000011</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E30">
-        <v>2.5412999999999998E-3</v>
+        <v>94</v>
       </c>
       <c r="F30">
-        <v>163.5423376732038</v>
+        <v>110.9388</v>
       </c>
       <c r="G30">
-        <v>0.98499999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>0.16603283012507999</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="E31">
-        <v>985</v>
+        <v>1456.1</v>
       </c>
       <c r="F31">
+        <v>219.57988</v>
+      </c>
+      <c r="G31">
+        <v>0.21957988000000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45553.906388888892</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>60330.294086166672</v>
+      </c>
+      <c r="E32">
+        <v>1.3220300000000003E-3</v>
+      </c>
+      <c r="F32">
+        <v>79.75845869073494</v>
+      </c>
+      <c r="G32">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45553.906388888892</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1.092581625900479</v>
+      </c>
+      <c r="E33">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>79.75845869073494</v>
+      </c>
+      <c r="G33">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45529.90896990741</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>64353.810126000011</v>
+      </c>
+      <c r="E34">
+        <v>2.5412999999999998E-3</v>
+      </c>
+      <c r="F34">
         <v>163.5423376732038</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>0.98499999999999999</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>45529.906527777777</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="E32">
-        <v>453</v>
-      </c>
-      <c r="F32">
-        <v>74.971500000000006</v>
-      </c>
-      <c r="G32">
-        <v>9.7360000000000003E-5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>45529.906145833331</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E33">
-        <v>218.6</v>
-      </c>
-      <c r="F33">
-        <v>74.979799999999997</v>
-      </c>
-      <c r="G33">
-        <v>9.7349999999999995E-5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>45528.998402777783</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>580.5</v>
-      </c>
-      <c r="E34">
-        <v>0.10150559999999997</v>
-      </c>
-      <c r="F34">
-        <v>58.924000799999988</v>
-      </c>
-      <c r="G34">
-        <v>0.371</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1464,128 +1467,128 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>0.15882479999999999</v>
+        <v>0.16603283012507999</v>
       </c>
       <c r="E35">
-        <v>370.99999999999994</v>
+        <v>985</v>
       </c>
       <c r="F35">
-        <v>58.924000799999988</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G35">
-        <v>0.371</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <v>45529.906527777777</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E36">
+        <v>453</v>
+      </c>
+      <c r="F36">
+        <v>74.971500000000006</v>
+      </c>
+      <c r="G36">
+        <v>9.7360000000000003E-5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45529.906145833331</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E37">
+        <v>218.6</v>
+      </c>
+      <c r="F37">
+        <v>74.979799999999997</v>
+      </c>
+      <c r="G37">
+        <v>9.7349999999999995E-5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>580.5</v>
+      </c>
+      <c r="E38">
+        <v>0.10150559999999997</v>
+      </c>
+      <c r="F38">
+        <v>58.924000799999988</v>
+      </c>
+      <c r="G38">
+        <v>0.371</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0.15882479999999999</v>
+      </c>
+      <c r="E39">
+        <v>370.99999999999994</v>
+      </c>
+      <c r="F39">
+        <v>58.924000799999988</v>
+      </c>
+      <c r="G39">
+        <v>0.371</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>45500.560335648152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>68797.238685499993</v>
-      </c>
-      <c r="E36">
-        <v>3.1044000000000004E-4</v>
-      </c>
-      <c r="F36">
-        <v>21.357414777526621</v>
-      </c>
-      <c r="G36">
-        <v>2.709E-5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>45500.560335648152</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0.136906504984145</v>
-      </c>
-      <c r="E37">
-        <v>156</v>
-      </c>
-      <c r="F37">
-        <v>21.357414777526621</v>
-      </c>
-      <c r="G37">
-        <v>2.709E-5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>45500.559224537043</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>68786.233699999997</v>
-      </c>
-      <c r="E38">
-        <v>2.7748800000000005E-4</v>
-      </c>
-      <c r="F38">
-        <v>19.087354416945601</v>
-      </c>
-      <c r="G38">
-        <v>2.4470000000000001E-5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>45500.559224537043</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>2651.0214467979999</v>
-      </c>
-      <c r="E39">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="F39">
-        <v>19.087354416945601</v>
-      </c>
-      <c r="G39">
-        <v>2.4470000000000001E-5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>45500.559224537043</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -1594,518 +1597,518 @@
         <v>8</v>
       </c>
       <c r="D40">
+        <v>68797.238685499993</v>
+      </c>
+      <c r="E40">
+        <v>3.1044000000000004E-4</v>
+      </c>
+      <c r="F40">
+        <v>21.357414777526621</v>
+      </c>
+      <c r="G40">
+        <v>2.709E-5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45500.560335648152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.136906504984145</v>
+      </c>
+      <c r="E41">
+        <v>156</v>
+      </c>
+      <c r="F41">
+        <v>21.357414777526621</v>
+      </c>
+      <c r="G41">
+        <v>2.709E-5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
         <v>68786.233699999997</v>
       </c>
-      <c r="E40">
+      <c r="E42">
+        <v>2.7748800000000005E-4</v>
+      </c>
+      <c r="F42">
+        <v>19.087354416945601</v>
+      </c>
+      <c r="G42">
+        <v>2.4470000000000001E-5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2651.0214467979999</v>
+      </c>
+      <c r="E43">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F43">
+        <v>19.087354416945601</v>
+      </c>
+      <c r="G43">
+        <v>2.4470000000000001E-5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>68786.233699999997</v>
+      </c>
+      <c r="E44">
         <v>1.4529580000000001E-3</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <v>99.943508544284597</v>
       </c>
-      <c r="G40">
+      <c r="G44">
         <v>1.2672000000000001E-4</v>
       </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>45500.559224537043</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
         <v>2651.0214467979999</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>99.943508544284597</v>
       </c>
-      <c r="G41">
+      <c r="G45">
         <v>1.2672000000000001E-4</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45488.037268518521</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
         <v>1.00660569</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>194.71378021999999</v>
       </c>
-      <c r="F42">
+      <c r="F46">
         <v>200</v>
       </c>
-      <c r="G42">
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>45479.777083333327</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
         <v>485.5</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>0.1</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>48.55</v>
       </c>
-      <c r="G43">
+      <c r="G47">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>45479.76871527778</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
         <v>0.39800000000000002</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <v>85.6</v>
       </c>
-      <c r="F44">
+      <c r="F48">
         <v>34.068800000000003</v>
       </c>
-      <c r="G44">
+      <c r="G48">
         <v>4.8569999999999997E-5</v>
       </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>45479.768495370372</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
         <v>524.6</v>
       </c>
-      <c r="E45">
+      <c r="E49">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F45">
+      <c r="F49">
         <v>34.098999999999997</v>
       </c>
-      <c r="G45">
+      <c r="G49">
         <v>4.8730000000000003E-5</v>
       </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>45479.673125000001</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="E46">
+      <c r="E50">
         <v>1976.8</v>
       </c>
-      <c r="F46">
+      <c r="F50">
         <v>47.719951999999999</v>
       </c>
-      <c r="G46">
+      <c r="G50">
         <v>6.8789999999999997E-5</v>
       </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>45479.672395833331</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>9.2099999999999999E-6</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <v>5181574</v>
       </c>
-      <c r="F47">
+      <c r="F51">
         <v>47.722296540000002</v>
       </c>
-      <c r="G47">
+      <c r="G51">
         <v>6.8889999999999999E-5</v>
       </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>45459.611851851849</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>2.0114E-2</v>
       </c>
-      <c r="E48">
+      <c r="E52">
         <v>2036</v>
       </c>
-      <c r="F48">
+      <c r="F52">
         <v>40.952103999999999</v>
       </c>
-      <c r="G48">
+      <c r="G52">
         <v>4.0952099999999998E-2</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>45457.954826388886</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
         <v>1.9619000000000001E-2</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>88</v>
       </c>
-      <c r="F49">
+      <c r="F53">
         <v>1.726472</v>
       </c>
-      <c r="G49">
+      <c r="G53">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>45457.954826388886</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
         <v>1.9619000000000001E-2</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>1950</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <v>38.25705</v>
       </c>
-      <c r="G50">
+      <c r="G54">
         <v>1.95</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>45457.954560185193</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
         <v>0.50849999999999995</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>9.5</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <v>4.8307500000000001</v>
       </c>
-      <c r="G51">
+      <c r="G55">
         <v>6.02E-6</v>
       </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>45457.954560185193</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
         <v>0.50860000000000005</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>29.8</v>
       </c>
-      <c r="F52">
+      <c r="F56">
         <v>15.156280000000001</v>
       </c>
-      <c r="G52">
+      <c r="G56">
         <v>1.891E-5</v>
       </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>45457.95416666667</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
         <v>1.145E-5</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>1746724</v>
       </c>
-      <c r="F53">
+      <c r="F57">
         <v>19.999989800000002</v>
       </c>
-      <c r="G53">
+      <c r="G57">
         <v>2.4329999999999999E-5</v>
       </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>45455.630983796298</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
         <v>3.7824000000000003E-2</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>3465.2</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>131.06772480000001</v>
       </c>
-      <c r="G54">
+      <c r="G58">
         <v>3.4651999999999998</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>45455.630624999998</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>69787.490000000005</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="F55">
+      <c r="F59">
         <v>131.20048120000001</v>
       </c>
-      <c r="G55">
+      <c r="G59">
         <v>0.13120048000000001</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>45455.036585648151</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>67225.228872500011</v>
-      </c>
-      <c r="E56">
-        <v>1.384E-4</v>
-      </c>
-      <c r="F56">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G56">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>45455.036585648151</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>0.116299645949425</v>
-      </c>
-      <c r="E57">
-        <v>80</v>
-      </c>
-      <c r="F57">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G57">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>69351.951598999993</v>
-      </c>
-      <c r="E58">
-        <v>1.2520929999999999E-3</v>
-      </c>
-      <c r="F58">
-        <v>86.835093133446691</v>
-      </c>
-      <c r="G58">
-        <v>1.2500000000000001E-6</v>
-      </c>
-      <c r="H58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>45451.519849537042</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>683.74089081454088</v>
-      </c>
-      <c r="E59">
-        <v>0.127</v>
-      </c>
-      <c r="F59">
-        <v>86.835093133446691</v>
-      </c>
-      <c r="G59">
-        <v>1.2500000000000001E-6</v>
-      </c>
-      <c r="H59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>45451.519849537042</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -2114,48 +2117,48 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>69351.951598999993</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E60">
-        <v>2.9577000000000002E-3</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F60">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G60">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>683.74089081454088</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E61">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="F61">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G61">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2169,19 +2172,19 @@
         <v>69351.951598999993</v>
       </c>
       <c r="E62">
-        <v>2.4647499999999995E-3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F62">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G62">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2195,19 +2198,19 @@
         <v>683.74089081454088</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>0.127</v>
       </c>
       <c r="F63">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G63">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2221,19 +2224,19 @@
         <v>69351.951598999993</v>
       </c>
       <c r="E64">
-        <v>4.929499999999999E-3</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F64">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G64">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2247,19 +2250,19 @@
         <v>683.74089081454088</v>
       </c>
       <c r="E65">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F65">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G65">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2273,19 +2276,19 @@
         <v>69351.951598999993</v>
       </c>
       <c r="E66">
-        <v>8.0843799999999997E-4</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F66">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G66">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45451.519849537042</v>
       </c>
@@ -2299,359 +2302,359 @@
         <v>683.74089081454088</v>
       </c>
       <c r="E67">
+        <v>0.25</v>
+      </c>
+      <c r="F67">
+        <v>170.93522270363519</v>
+      </c>
+      <c r="G67">
+        <v>2.4600000000000002E-6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>69351.951598999993</v>
+      </c>
+      <c r="E68">
+        <v>4.929499999999999E-3</v>
+      </c>
+      <c r="F68">
+        <v>341.87044540727038</v>
+      </c>
+      <c r="G68">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>341.87044540727038</v>
+      </c>
+      <c r="G69">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>69351.951598999993</v>
+      </c>
+      <c r="E70">
+        <v>8.0843799999999997E-4</v>
+      </c>
+      <c r="F70">
+        <v>56.066753046792357</v>
+      </c>
+      <c r="G70">
+        <v>6.1610000000000001E-5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45451.519849537042</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E71">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>56.066753046792357</v>
       </c>
-      <c r="G67">
+      <c r="G71">
         <v>6.1610000000000001E-5</v>
       </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>45451.519594907397</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
         <v>683.89481871559008</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>1.121</v>
       </c>
-      <c r="F68">
+      <c r="F72">
         <v>766.64609178017645</v>
       </c>
-      <c r="G68">
+      <c r="G72">
         <v>8.4075000000000003E-4</v>
       </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>45451.519594907397</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
         <v>69360.529281499999</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>1.1053060000000002E-2</v>
       </c>
-      <c r="F69">
+      <c r="F73">
         <v>766.64609178017645</v>
       </c>
-      <c r="G69">
+      <c r="G73">
         <v>8.4075000000000003E-4</v>
       </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>45451.504004629627</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>20</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70">
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
         <v>681.2</v>
       </c>
-      <c r="E70">
+      <c r="E74">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F70">
+      <c r="F74">
         <v>10.218</v>
       </c>
-      <c r="G70">
+      <c r="G74">
         <v>1.1240000000000001E-5</v>
       </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>45450.922071759262</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
         <v>4.1304E-2</v>
       </c>
-      <c r="E71">
+      <c r="E75">
         <v>1210.5</v>
       </c>
-      <c r="F71">
+      <c r="F75">
         <v>49.998491999999999</v>
       </c>
-      <c r="G71">
+      <c r="G75">
         <v>1.2104999999999999</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>45450.922071759262</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
         <v>4.1305000000000001E-2</v>
       </c>
-      <c r="E72">
+      <c r="E76">
         <v>1082.2</v>
       </c>
-      <c r="F72">
+      <c r="F76">
         <v>44.700271000000001</v>
       </c>
-      <c r="G72">
+      <c r="G76">
         <v>1.0822000000000001</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>45450.921388888892</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>28</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73">
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
         <v>21.97</v>
       </c>
-      <c r="E73">
+      <c r="E77">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F73">
+      <c r="F77">
         <v>44.159700000000001</v>
       </c>
-      <c r="G73">
+      <c r="G77">
         <v>4.4159700000000003E-2</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>45450.920393518521</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>29</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
         <v>39.244999999999997</v>
       </c>
-      <c r="E74">
+      <c r="E78">
         <v>1.3</v>
       </c>
-      <c r="F74">
+      <c r="F78">
         <v>51.018500000000003</v>
       </c>
-      <c r="G74">
+      <c r="G78">
         <v>5.1018500000000001E-2</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>45447.972905092603</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>26</v>
       </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
         <v>70502.707116500009</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <v>5.1688999999999999E-5</v>
       </c>
-      <c r="F75">
+      <c r="F79">
         <v>3.6442144281447688</v>
       </c>
-      <c r="G75">
+      <c r="G79">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>45447.972905092603</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
         <v>54</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76">
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
         <v>3.312922207404335</v>
       </c>
-      <c r="E76">
+      <c r="E80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F76">
+      <c r="F80">
         <v>3.6442144281447688</v>
       </c>
-      <c r="G76">
+      <c r="G80">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>45447.949826388889</v>
-      </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>70534.997166833316</v>
-      </c>
-      <c r="E77">
-        <v>2.4904700000000007E-4</v>
-      </c>
-      <c r="F77">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G77">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45447.949826388889</v>
-      </c>
-      <c r="B78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>3.314439516869498</v>
-      </c>
-      <c r="E78">
-        <v>5.3</v>
-      </c>
-      <c r="F78">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G78">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>45446.501504629632</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>3810.4583321666669</v>
-      </c>
-      <c r="E79">
-        <v>1.363E-2</v>
-      </c>
-      <c r="F79">
-        <v>51.936547067431668</v>
-      </c>
-      <c r="G79">
-        <v>1.363E-5</v>
-      </c>
-      <c r="H79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>45446.501504629632</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>0.51936547067431671</v>
-      </c>
-      <c r="E80">
-        <v>100</v>
-      </c>
-      <c r="F80">
-        <v>51.936547067431668</v>
-      </c>
-      <c r="G80">
-        <v>1.363E-5</v>
-      </c>
-      <c r="H80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>45446.496493055558</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -2660,102 +2663,102 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>69129.989500166674</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E81">
-        <v>6.9092000000000003E-4</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F81">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G81">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82">
-        <v>0.51916622114625177</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E82">
-        <v>92</v>
+        <v>5.3</v>
       </c>
       <c r="F82">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G82">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83">
-        <v>69115.089471833344</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E83">
-        <v>6.6420899999999991E-4</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F83">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G83">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84">
-        <v>7.2868038830153896</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E84">
-        <v>6.3</v>
+        <v>100</v>
       </c>
       <c r="F84">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G84">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -2764,50 +2767,50 @@
         <v>8</v>
       </c>
       <c r="D85">
-        <v>67749.869200166664</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E85">
-        <v>9.3258000000000002E-4</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F85">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G85">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86">
-        <v>21.273458928852332</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E86">
-        <v>2.97</v>
+        <v>92</v>
       </c>
       <c r="F86">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G86">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -2816,24 +2819,24 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>67695.037825500011</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E87">
-        <v>7.3358999999999989E-4</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F87">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G87">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B88" t="s">
         <v>50</v>
@@ -2842,322 +2845,322 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <v>7.6400619689859308</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E88">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F88">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G88">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>45440.886192129627</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89">
-        <v>64131.089181479998</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E89">
-        <v>7.6406E-4</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>45439.966828703713</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>69531.813510500011</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E90">
-        <v>4.0046400000000006E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F90">
-        <v>27.84498816566888</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G90">
-        <v>3.9999999999999998E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>25.782396449693401</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E91">
-        <v>1.08</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F91">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G91">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>45439.965474537043</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>69520.879412499999</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E92">
-        <v>2.31E-4</v>
+        <v>6.5</v>
       </c>
       <c r="F92">
-        <v>16.0593231442875</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G92">
-        <v>2.2999999999999999E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
+        <v>45440.886192129627</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>64131.089181479998</v>
+      </c>
+      <c r="E93">
+        <v>7.6406E-4</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45439.966828703713</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>69531.813510500011</v>
+      </c>
+      <c r="E94">
+        <v>4.0046400000000006E-4</v>
+      </c>
+      <c r="F94">
+        <v>27.84498816566888</v>
+      </c>
+      <c r="G94">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45439.966828703713</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>25.782396449693401</v>
+      </c>
+      <c r="E95">
+        <v>1.08</v>
+      </c>
+      <c r="F95">
+        <v>27.84498816566888</v>
+      </c>
+      <c r="G95">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>45439.965474537043</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>69520.879412499999</v>
+      </c>
+      <c r="E96">
+        <v>2.31E-4</v>
+      </c>
+      <c r="F96">
+        <v>16.0593231442875</v>
+      </c>
+      <c r="G96">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45439.965474537043</v>
+      </c>
+      <c r="B97" t="s">
         <v>48</v>
       </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93">
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
         <v>2.2941890206125</v>
       </c>
-      <c r="E93">
+      <c r="E97">
         <v>7</v>
       </c>
-      <c r="F93">
+      <c r="F97">
         <v>16.0593231442875</v>
       </c>
-      <c r="G93">
+      <c r="G97">
         <v>2.2999999999999999E-7</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>45438.413587962961</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B98" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94">
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
         <v>64764.057269930003</v>
       </c>
-      <c r="E94">
+      <c r="E98">
         <v>3.02637E-3</v>
       </c>
-      <c r="F94">
+      <c r="F98">
         <v>200</v>
       </c>
-      <c r="G94">
+      <c r="G98">
         <v>4</v>
-      </c>
-      <c r="H94" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>45438.066701388889</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95">
-        <v>21.880480030000001</v>
-      </c>
-      <c r="E95">
-        <v>3.3587014499999999</v>
-      </c>
-      <c r="F95">
-        <v>75</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>45438.064282407409</v>
-      </c>
-      <c r="B96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>21.400680940000001</v>
-      </c>
-      <c r="E96">
-        <v>4.5792935400000001</v>
-      </c>
-      <c r="F96">
-        <v>100</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>45438.062881944446</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>2.0397180000000001E-2</v>
-      </c>
-      <c r="E97">
-        <v>4804.5860693499999</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>45438.016701388893</v>
-      </c>
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>0.50915756999999995</v>
-      </c>
-      <c r="E98">
-        <v>288.7121952</v>
-      </c>
-      <c r="F98">
-        <v>150</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99">
-        <v>0.50817648999999998</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E99">
-        <v>192.84638819</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F99">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>1.414E-5</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E100">
-        <v>6928298.2400000002</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F100">
         <v>100</v>
@@ -3169,21 +3172,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101">
-        <v>7.6274206099999997</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E101">
-        <v>12.848380199999999</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F101">
         <v>100</v>
@@ -3195,73 +3198,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102">
-        <v>2571.01241222</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E102">
-        <v>3.8117280000000003E-2</v>
+        <v>288.7121952</v>
       </c>
       <c r="F102">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>45436.935613425929</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103">
-        <v>3502.0461955599999</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E103">
-        <v>4.1975459999999999E-2</v>
+        <v>192.84638819</v>
       </c>
       <c r="F103">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>45436.934664351851</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104">
-        <v>157.11043262000001</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E104">
-        <v>0.62376507000000003</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F104">
         <v>100</v>
@@ -3273,21 +3276,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>45436.433229166672</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105">
-        <v>63003.060148639997</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E105">
-        <v>1.5554799999999999E-3</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F105">
         <v>100</v>
@@ -3299,113 +3302,113 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>45426.641608796293</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106">
-        <v>57930.577887070001</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E106">
-        <v>8.4584000000000005E-4</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>140.23996862000001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E107">
-        <v>0.69880220999999998</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F107">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>10.580849669999999</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E108">
-        <v>1.85240322</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F108">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G108">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>45422.83865740741</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>2752.3331128700001</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E109">
-        <v>5.3372899999999997E-3</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G109">
-        <v>0.31</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>45422.837546296287</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B110" t="s">
         <v>31</v>
@@ -3414,62 +3417,62 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>57425.239760140001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E110">
-        <v>5.1197000000000005E-4</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F110">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>45422.835844907408</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111">
-        <v>2.10457801</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E111">
-        <v>6.9800216099999997</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F111">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G111">
-        <v>0.31</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>45422.833622685182</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>0.1200639</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E112">
-        <v>163.24640485</v>
+        <v>1.85240322</v>
       </c>
       <c r="F112">
         <v>20</v>
@@ -3481,203 +3484,203 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>140.17980062000001</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E113">
-        <v>0.13982043</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F113">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>0.79988477999999996</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E114">
-        <v>18.365145070000001</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F114">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G114">
-        <v>0.31</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>143.75063899</v>
+        <v>2.10457801</v>
       </c>
       <c r="E115">
-        <v>0.13634721999999999</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F115">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G115">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>0.93873598000000003</v>
+        <v>0.1200639</v>
       </c>
       <c r="E116">
-        <v>26.088272459999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F116">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G116">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117">
-        <v>2583.1506530400002</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E117">
-        <v>6.8288699999999999E-3</v>
+        <v>0.13982043</v>
       </c>
       <c r="F117">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G117">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>2.1432031</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E118">
-        <v>11.426821869999999</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F118">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G118">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>10.234263159999999</v>
+        <v>143.75063899</v>
       </c>
       <c r="E119">
-        <v>2.3929421799999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F119">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G119">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>0.11898276000000001</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E120">
-        <v>205.82814242000001</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F120">
         <v>25</v>
@@ -3689,47 +3692,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>3.8034991200000001</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E121">
-        <v>6.4388078499999999</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F121">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G121">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122">
-        <v>2912.2689564799998</v>
+        <v>2.1432031</v>
       </c>
       <c r="E122">
-        <v>8.4072299999999999E-3</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F122">
         <v>25</v>
@@ -3741,21 +3744,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>45418.969189814823</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>59899.712723249999</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E123">
-        <v>4.0884999999999999E-4</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F123">
         <v>25</v>
@@ -3767,21 +3770,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>45414.950277777767</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124">
-        <v>131.18665751</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E124">
-        <v>0.18668056999999999</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F124">
         <v>25</v>
@@ -3790,6 +3793,110 @@
         <v>0.51</v>
       </c>
       <c r="H124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45421.817245370366</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>3.8034991200000001</v>
+      </c>
+      <c r="E125">
+        <v>6.4388078499999999</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125">
+        <v>0.51</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E126">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126">
+        <v>0.51</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E127">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>0.51</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>131.18665751</v>
+      </c>
+      <c r="E128">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128">
+        <v>0.51</v>
+      </c>
+      <c r="H128" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0302D05-E2FD-461A-B46B-80D3A3D8092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538CA74-4FA0-47A2-BF6C-EED952A1E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="61">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>1099.4726562</t>
+  </si>
+  <si>
+    <t>ZECUSDT</t>
   </si>
 </sst>
 </file>
@@ -554,22 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,426 +598,426 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45990.61078703704</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="E2">
+        <v>245.1</v>
+      </c>
+      <c r="F2">
+        <v>68.922120000000007</v>
+      </c>
+      <c r="G2">
+        <v>5.596E-5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45990.610358796293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>460.21</v>
+      </c>
+      <c r="E3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>22.09008</v>
+      </c>
+      <c r="G3">
+        <v>1.7920000000000001E-5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45990.609155092592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>877.15</v>
+      </c>
+      <c r="E4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F4">
+        <v>90.346450000000004</v>
+      </c>
+      <c r="G4">
+        <v>7.3349999999999994E-5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45962.060810185183</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>1088.98</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>148.10128</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <v>9.6899999999999997E-5</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45962.059664351851</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>2624.2</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>776.76319999999998</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>2.4929899999999998</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45962.059664351851</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E4">
-        <v>585.20000000000005</v>
-      </c>
-      <c r="F4">
-        <v>173.2192</v>
-      </c>
-      <c r="G4">
-        <v>0.55593999999999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45962.059027777781</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>109727.81</v>
-      </c>
-      <c r="E5">
-        <v>1.0019999999999999E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>1.0444990199999999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45931.030428240738</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>113954.4</v>
-      </c>
-      <c r="E6">
-        <v>3.96E-3</v>
-      </c>
-      <c r="F6">
-        <v>451.25942400000002</v>
-      </c>
-      <c r="G6">
-        <v>3.8340000000000002E-5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45931.029803240737</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>0.33289999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E7">
-        <v>905.7</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="F7">
-        <v>301.50752999999997</v>
+        <v>173.2192</v>
       </c>
       <c r="G7">
-        <v>0.28643215</v>
+        <v>0.55593999999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45931.028958333336</v>
+        <v>45962.059027777781</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.33289999999999997</v>
+        <v>109727.81</v>
       </c>
       <c r="E8">
-        <v>452</v>
-      </c>
-      <c r="F8">
-        <v>150.4708</v>
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>0.14294725999999999</v>
+        <v>1.0444990199999999</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>113954.4</v>
+      </c>
+      <c r="E9">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F9">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G9">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E10">
+        <v>905.7</v>
+      </c>
+      <c r="F10">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.28643215</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E11">
+        <v>452</v>
+      </c>
+      <c r="F11">
+        <v>150.4708</v>
+      </c>
+      <c r="G11">
+        <v>0.14294725999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45900.939155092594</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>200.6</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>68.705500000000001</v>
       </c>
-      <c r="G9">
+      <c r="G12">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>109079.99</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>68.720393700000002</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>2022.6</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>692.57447000000002</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>867.28</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>1.9E-2</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>16.47832</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>4462.54</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>6.93E-2</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>309.25402200000002</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>204.95</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>1.79</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <v>366.8605</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E15">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F15">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G15">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F16">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G16">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F17">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.3000000000000002E-7</v>
-      </c>
       <c r="H17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -1025,74 +1028,74 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>894.92249916666651</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E18">
-        <v>2.2299999999999994E-6</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F18">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G18">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0.16364448087293901</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E19">
-        <v>1.21952E-2</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F19">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G19">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45891.845937500002</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>3.7475332321759747</v>
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>6.02</v>
+        <v>0.90185245368865785</v>
       </c>
       <c r="F20">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G20">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45891.845937500002</v>
       </c>
@@ -1103,310 +1106,310 @@
         <v>8</v>
       </c>
       <c r="D21">
+        <v>894.92249916666651</v>
+      </c>
+      <c r="E21">
+        <v>2.2299999999999994E-6</v>
+      </c>
+      <c r="F21">
+        <v>1.9956771731416659E-3</v>
+      </c>
+      <c r="G21">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.16364448087293901</v>
+      </c>
+      <c r="E22">
+        <v>1.21952E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.9956771731416659E-3</v>
+      </c>
+      <c r="G22">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3.7475332321759747</v>
+      </c>
+      <c r="E23">
+        <v>6.02</v>
+      </c>
+      <c r="F23">
+        <v>22.560150057699367</v>
+      </c>
+      <c r="G23">
+        <v>3.2799999999999999E-6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45891.845937500002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
         <v>894.92249900000002</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>2.5209054507969595E-2</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>22.560150057699367</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>3.2799999999999999E-6</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45891.844282407408</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>2.4576062914721059E-2</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>8718.1239999999998</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>214.2571639223396</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>2.6836999999999998E-4</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45891.844282407408</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>0.3650036864094372</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>586.99999999999989</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>214.2571639223396</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>2.6836999999999998E-4</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45891.843576388892</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
         <v>2.4583614919863089E-2</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>8724.1440000000021</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>214.47099660143411</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45891.843576388892</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
         <v>1.6766025375346629E-2</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>12792</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>214.47099660143411</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
         <v>794.61066900000014</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>1.8984839999999996E-2</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>15.08555641325796</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45878.026342592602</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>0.12960100011389999</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>116.4</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>15.08555641325796</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>1.4229999999999999E-5</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
         <v>1.1802999999999999</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>57</v>
       </c>
-      <c r="F28">
+      <c r="F31">
         <v>67.277100000000004</v>
       </c>
-      <c r="G28">
+      <c r="G31">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45560.642766203702</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
         <v>1.1802999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>34</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>40.130200000000002</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>45560.642766203702</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>1.1801999999999999</v>
-      </c>
-      <c r="E30">
-        <v>94</v>
-      </c>
-      <c r="F30">
-        <v>110.9388</v>
-      </c>
-      <c r="G30">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>45560.642361111109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>0.15079999999999999</v>
-      </c>
-      <c r="E31">
-        <v>1456.1</v>
-      </c>
-      <c r="F31">
-        <v>219.57988</v>
-      </c>
-      <c r="G31">
-        <v>0.21957988000000001</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>45553.906388888892</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>60330.294086166672</v>
-      </c>
-      <c r="E32">
-        <v>1.3220300000000003E-3</v>
-      </c>
-      <c r="F32">
-        <v>79.75845869073494</v>
-      </c>
-      <c r="G32">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1415,154 +1418,154 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>1.092581625900479</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E33">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F33">
-        <v>79.75845869073494</v>
+        <v>110.9388</v>
       </c>
       <c r="G33">
-        <v>7.2999999999999995E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>45560.642361111109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="E34">
+        <v>1456.1</v>
+      </c>
+      <c r="F34">
+        <v>219.57988</v>
+      </c>
+      <c r="G34">
+        <v>0.21957988000000001</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45553.906388888892</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>60330.294086166672</v>
+      </c>
+      <c r="E35">
+        <v>1.3220300000000003E-3</v>
+      </c>
+      <c r="F35">
+        <v>79.75845869073494</v>
+      </c>
+      <c r="G35">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45553.906388888892</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1.092581625900479</v>
+      </c>
+      <c r="E36">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>79.75845869073494</v>
+      </c>
+      <c r="G36">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45529.90896990741</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>64353.810126000011</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>2.5412999999999998E-3</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>163.5423376732038</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45529.90896990741</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
         <v>0.16603283012507999</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>985</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>163.5423376732038</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>0.98499999999999999</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>45529.906527777777</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="E36">
-        <v>453</v>
-      </c>
-      <c r="F36">
-        <v>74.971500000000006</v>
-      </c>
-      <c r="G36">
-        <v>9.7360000000000003E-5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>45529.906145833331</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E37">
-        <v>218.6</v>
-      </c>
-      <c r="F37">
-        <v>74.979799999999997</v>
-      </c>
-      <c r="G37">
-        <v>9.7349999999999995E-5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>45528.998402777783</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>580.5</v>
-      </c>
-      <c r="E38">
-        <v>0.10150559999999997</v>
-      </c>
-      <c r="F38">
-        <v>58.924000799999988</v>
-      </c>
-      <c r="G38">
-        <v>0.371</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -1571,908 +1574,908 @@
         <v>8</v>
       </c>
       <c r="D39">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E39">
+        <v>453</v>
+      </c>
+      <c r="F39">
+        <v>74.971500000000006</v>
+      </c>
+      <c r="G39">
+        <v>9.7360000000000003E-5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45529.906145833331</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E40">
+        <v>218.6</v>
+      </c>
+      <c r="F40">
+        <v>74.979799999999997</v>
+      </c>
+      <c r="G40">
+        <v>9.7349999999999995E-5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>580.5</v>
+      </c>
+      <c r="E41">
+        <v>0.10150559999999997</v>
+      </c>
+      <c r="F41">
+        <v>58.924000799999988</v>
+      </c>
+      <c r="G41">
+        <v>0.371</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45528.998402777783</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
         <v>0.15882479999999999</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>370.99999999999994</v>
       </c>
-      <c r="F39">
+      <c r="F42">
         <v>58.924000799999988</v>
       </c>
-      <c r="G39">
+      <c r="G42">
         <v>0.371</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>45500.560335648152</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
         <v>68797.238685499993</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>3.1044000000000004E-4</v>
       </c>
-      <c r="F40">
+      <c r="F43">
         <v>21.357414777526621</v>
       </c>
-      <c r="G40">
+      <c r="G43">
         <v>2.709E-5</v>
       </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>45500.560335648152</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
         <v>0.136906504984145</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>156</v>
       </c>
-      <c r="F41">
+      <c r="F44">
         <v>21.357414777526621</v>
       </c>
-      <c r="G41">
+      <c r="G44">
         <v>2.709E-5</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>45500.559224537043</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>68786.233699999997</v>
-      </c>
-      <c r="E42">
-        <v>2.7748800000000005E-4</v>
-      </c>
-      <c r="F42">
-        <v>19.087354416945601</v>
-      </c>
-      <c r="G42">
-        <v>2.4470000000000001E-5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>45500.559224537043</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>2651.0214467979999</v>
-      </c>
-      <c r="E43">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="F43">
-        <v>19.087354416945601</v>
-      </c>
-      <c r="G43">
-        <v>2.4470000000000001E-5</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>45500.559224537043</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>68786.233699999997</v>
-      </c>
-      <c r="E44">
-        <v>1.4529580000000001E-3</v>
-      </c>
-      <c r="F44">
-        <v>99.943508544284597</v>
-      </c>
-      <c r="G44">
-        <v>1.2672000000000001E-4</v>
-      </c>
       <c r="H44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45500.559224537043</v>
       </c>
       <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>68786.233699999997</v>
+      </c>
+      <c r="E45">
+        <v>2.7748800000000005E-4</v>
+      </c>
+      <c r="F45">
+        <v>19.087354416945601</v>
+      </c>
+      <c r="G45">
+        <v>2.4470000000000001E-5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45">
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
         <v>2651.0214467979999</v>
       </c>
-      <c r="E45">
+      <c r="E46">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F46">
+        <v>19.087354416945601</v>
+      </c>
+      <c r="G46">
+        <v>2.4470000000000001E-5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>68786.233699999997</v>
+      </c>
+      <c r="E47">
+        <v>1.4529580000000001E-3</v>
+      </c>
+      <c r="F47">
+        <v>99.943508544284597</v>
+      </c>
+      <c r="G47">
+        <v>1.2672000000000001E-4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45500.559224537043</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>2651.0214467979999</v>
+      </c>
+      <c r="E48">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="F45">
+      <c r="F48">
         <v>99.943508544284597</v>
       </c>
-      <c r="G45">
+      <c r="G48">
         <v>1.2672000000000001E-4</v>
       </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>45488.037268518521</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
         <v>1.00660569</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>194.71378021999999</v>
       </c>
-      <c r="F46">
+      <c r="F49">
         <v>200</v>
       </c>
-      <c r="G46">
+      <c r="G49">
         <v>4</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>45479.777083333327</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
         <v>485.5</v>
       </c>
-      <c r="E47">
+      <c r="E50">
         <v>0.1</v>
       </c>
-      <c r="F47">
+      <c r="F50">
         <v>48.55</v>
       </c>
-      <c r="G47">
+      <c r="G50">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>45479.76871527778</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
         <v>0.39800000000000002</v>
       </c>
-      <c r="E48">
+      <c r="E51">
         <v>85.6</v>
       </c>
-      <c r="F48">
+      <c r="F51">
         <v>34.068800000000003</v>
       </c>
-      <c r="G48">
+      <c r="G51">
         <v>4.8569999999999997E-5</v>
       </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45479.768495370372</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>524.6</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>34.098999999999997</v>
       </c>
-      <c r="G49">
+      <c r="G52">
         <v>4.8730000000000003E-5</v>
       </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>45479.673125000001</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="E50">
+      <c r="E53">
         <v>1976.8</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>47.719951999999999</v>
       </c>
-      <c r="G50">
+      <c r="G53">
         <v>6.8789999999999997E-5</v>
       </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>45479.672395833331</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
         <v>9.2099999999999999E-6</v>
       </c>
-      <c r="E51">
+      <c r="E54">
         <v>5181574</v>
       </c>
-      <c r="F51">
+      <c r="F54">
         <v>47.722296540000002</v>
       </c>
-      <c r="G51">
+      <c r="G54">
         <v>6.8889999999999999E-5</v>
       </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>45459.611851851849</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>23</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
         <v>2.0114E-2</v>
       </c>
-      <c r="E52">
+      <c r="E55">
         <v>2036</v>
       </c>
-      <c r="F52">
+      <c r="F55">
         <v>40.952103999999999</v>
       </c>
-      <c r="G52">
+      <c r="G55">
         <v>4.0952099999999998E-2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>45457.954826388886</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>23</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
         <v>1.9619000000000001E-2</v>
       </c>
-      <c r="E53">
+      <c r="E56">
         <v>88</v>
       </c>
-      <c r="F53">
+      <c r="F56">
         <v>1.726472</v>
       </c>
-      <c r="G53">
+      <c r="G56">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45457.954826388886</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
         <v>1.9619000000000001E-2</v>
       </c>
-      <c r="E54">
+      <c r="E57">
         <v>1950</v>
       </c>
-      <c r="F54">
+      <c r="F57">
         <v>38.25705</v>
       </c>
-      <c r="G54">
+      <c r="G57">
         <v>1.95</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>45457.954560185193</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>16</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
         <v>0.50849999999999995</v>
       </c>
-      <c r="E55">
+      <c r="E58">
         <v>9.5</v>
       </c>
-      <c r="F55">
+      <c r="F58">
         <v>4.8307500000000001</v>
       </c>
-      <c r="G55">
+      <c r="G58">
         <v>6.02E-6</v>
       </c>
-      <c r="H55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>45457.954560185193</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>0.50860000000000005</v>
       </c>
-      <c r="E56">
+      <c r="E59">
         <v>29.8</v>
       </c>
-      <c r="F56">
+      <c r="F59">
         <v>15.156280000000001</v>
       </c>
-      <c r="G56">
+      <c r="G59">
         <v>1.891E-5</v>
       </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>45457.95416666667</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
         <v>1.145E-5</v>
       </c>
-      <c r="E57">
+      <c r="E60">
         <v>1746724</v>
       </c>
-      <c r="F57">
+      <c r="F60">
         <v>19.999989800000002</v>
       </c>
-      <c r="G57">
+      <c r="G60">
         <v>2.4329999999999999E-5</v>
       </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>45455.630983796298</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>21</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
         <v>3.7824000000000003E-2</v>
       </c>
-      <c r="E58">
+      <c r="E61">
         <v>3465.2</v>
       </c>
-      <c r="F58">
+      <c r="F61">
         <v>131.06772480000001</v>
       </c>
-      <c r="G58">
+      <c r="G61">
         <v>3.4651999999999998</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>45455.630624999998</v>
-      </c>
-      <c r="B59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>69787.490000000005</v>
-      </c>
-      <c r="E59">
-        <v>1.8799999999999999E-3</v>
-      </c>
-      <c r="F59">
-        <v>131.20048120000001</v>
-      </c>
-      <c r="G59">
-        <v>0.13120048000000001</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>45455.036585648151</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>67225.228872500011</v>
-      </c>
-      <c r="E60">
-        <v>1.384E-4</v>
-      </c>
-      <c r="F60">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G60">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>45455.036585648151</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>0.116299645949425</v>
-      </c>
-      <c r="E61">
-        <v>80</v>
-      </c>
-      <c r="F61">
-        <v>9.303971675954001</v>
-      </c>
-      <c r="G61">
-        <v>1.1759999999999999E-5</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>45451.519849537042</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>69351.951598999993</v>
+        <v>69787.490000000005</v>
       </c>
       <c r="E62">
-        <v>1.2520929999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F62">
-        <v>86.835093133446691</v>
+        <v>131.20048120000001</v>
       </c>
       <c r="G62">
-        <v>1.2500000000000001E-6</v>
+        <v>0.13120048000000001</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>683.74089081454088</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E63">
-        <v>0.127</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F63">
-        <v>86.835093133446691</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G63">
-        <v>1.2500000000000001E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>69351.951598999993</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E64">
-        <v>2.9577000000000002E-3</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G64">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E65">
-        <v>0.3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F65">
-        <v>205.12226724436229</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G65">
-        <v>2.96E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E66">
-        <v>2.4647499999999995E-3</v>
+        <v>0.127</v>
       </c>
       <c r="F66">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G66">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E67">
-        <v>0.25</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F67">
-        <v>170.93522270363519</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G67">
-        <v>2.4600000000000002E-6</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E68">
-        <v>4.929499999999999E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F68">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G68">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E69">
-        <v>0.5</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F69">
-        <v>341.87044540727038</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G69">
-        <v>3.7500000000000001E-4</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E70">
-        <v>8.0843799999999997E-4</v>
+        <v>0.25</v>
       </c>
       <c r="F70">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G70">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45451.519849537042</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E71">
-        <v>8.2000000000000003E-2</v>
+        <v>4.929499999999999E-3</v>
       </c>
       <c r="F71">
-        <v>56.066753046792357</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G71">
-        <v>6.1610000000000001E-5</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>683.89481871559008</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E72">
-        <v>1.121</v>
+        <v>0.5</v>
       </c>
       <c r="F72">
-        <v>766.64609178017645</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G72">
-        <v>8.4075000000000003E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>69360.529281499999</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E73">
-        <v>1.1053060000000002E-2</v>
+        <v>8.0843799999999997E-4</v>
       </c>
       <c r="F73">
-        <v>766.64609178017645</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G73">
-        <v>8.4075000000000003E-4</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45451.504004629627</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -2481,518 +2484,518 @@
         <v>10</v>
       </c>
       <c r="D74">
+        <v>683.74089081454088</v>
+      </c>
+      <c r="E74">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F74">
+        <v>56.066753046792357</v>
+      </c>
+      <c r="G74">
+        <v>6.1610000000000001E-5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45451.519594907397</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>683.89481871559008</v>
+      </c>
+      <c r="E75">
+        <v>1.121</v>
+      </c>
+      <c r="F75">
+        <v>766.64609178017645</v>
+      </c>
+      <c r="G75">
+        <v>8.4075000000000003E-4</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45451.519594907397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>69360.529281499999</v>
+      </c>
+      <c r="E76">
+        <v>1.1053060000000002E-2</v>
+      </c>
+      <c r="F76">
+        <v>766.64609178017645</v>
+      </c>
+      <c r="G76">
+        <v>8.4075000000000003E-4</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45451.504004629627</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
         <v>681.2</v>
       </c>
-      <c r="E74">
+      <c r="E77">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F74">
+      <c r="F77">
         <v>10.218</v>
       </c>
-      <c r="G74">
+      <c r="G77">
         <v>1.1240000000000001E-5</v>
       </c>
-      <c r="H74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>45450.922071759262</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>21</v>
       </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
         <v>4.1304E-2</v>
       </c>
-      <c r="E75">
+      <c r="E78">
         <v>1210.5</v>
       </c>
-      <c r="F75">
+      <c r="F78">
         <v>49.998491999999999</v>
       </c>
-      <c r="G75">
+      <c r="G78">
         <v>1.2104999999999999</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H78" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>45450.922071759262</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>21</v>
       </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76">
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
         <v>4.1305000000000001E-2</v>
       </c>
-      <c r="E76">
+      <c r="E79">
         <v>1082.2</v>
       </c>
-      <c r="F76">
+      <c r="F79">
         <v>44.700271000000001</v>
       </c>
-      <c r="G76">
+      <c r="G79">
         <v>1.0822000000000001</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H79" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>45450.921388888892</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
         <v>21.97</v>
       </c>
-      <c r="E77">
+      <c r="E80">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F77">
+      <c r="F80">
         <v>44.159700000000001</v>
       </c>
-      <c r="G77">
+      <c r="G80">
         <v>4.4159700000000003E-2</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>45450.920393518521</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>29</v>
       </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78">
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
         <v>39.244999999999997</v>
       </c>
-      <c r="E78">
+      <c r="E81">
         <v>1.3</v>
       </c>
-      <c r="F78">
+      <c r="F81">
         <v>51.018500000000003</v>
       </c>
-      <c r="G78">
+      <c r="G81">
         <v>5.1018500000000001E-2</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>45447.972905092603</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>26</v>
       </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79">
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
         <v>70502.707116500009</v>
       </c>
-      <c r="E79">
+      <c r="E82">
         <v>5.1688999999999999E-5</v>
       </c>
-      <c r="F79">
+      <c r="F82">
         <v>3.6442144281447688</v>
       </c>
-      <c r="G79">
+      <c r="G82">
         <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="H79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>45447.972905092603</v>
-      </c>
-      <c r="B80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>3.312922207404335</v>
-      </c>
-      <c r="E80">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F80">
-        <v>3.6442144281447688</v>
-      </c>
-      <c r="G80">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="H80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>45447.949826388889</v>
-      </c>
-      <c r="B81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>70534.997166833316</v>
-      </c>
-      <c r="E81">
-        <v>2.4904700000000007E-4</v>
-      </c>
-      <c r="F81">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G81">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>45447.949826388889</v>
-      </c>
-      <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>3.314439516869498</v>
-      </c>
-      <c r="E82">
-        <v>5.3</v>
-      </c>
-      <c r="F82">
-        <v>17.566529439408342</v>
-      </c>
-      <c r="G82">
-        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>3810.4583321666669</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E83">
-        <v>1.363E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F83">
-        <v>51.936547067431668</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G83">
-        <v>1.363E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>0.51936547067431671</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F84">
-        <v>51.936547067431668</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G84">
-        <v>1.363E-5</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>69129.989500166674</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E85">
-        <v>6.9092000000000003E-4</v>
+        <v>5.3</v>
       </c>
       <c r="F85">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G85">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
+        <v>45446.501504629632</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>3810.4583321666669</v>
+      </c>
+      <c r="E86">
+        <v>1.363E-2</v>
+      </c>
+      <c r="F86">
+        <v>51.936547067431668</v>
+      </c>
+      <c r="G86">
+        <v>1.363E-5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45446.501504629632</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>0.51936547067431671</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>51.936547067431668</v>
+      </c>
+      <c r="G87">
+        <v>1.363E-5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>45446.496493055558</v>
       </c>
-      <c r="B86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86">
-        <v>0.51916622114625177</v>
-      </c>
-      <c r="E86">
-        <v>92</v>
-      </c>
-      <c r="F86">
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>69129.989500166674</v>
+      </c>
+      <c r="E88">
+        <v>6.9092000000000003E-4</v>
+      </c>
+      <c r="F88">
         <v>47.763292345455163</v>
       </c>
-      <c r="G86">
+      <c r="G88">
         <v>6.8999999999999996E-7</v>
-      </c>
-      <c r="H86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>45446.420810185176</v>
-      </c>
-      <c r="B87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87">
-        <v>69115.089471833344</v>
-      </c>
-      <c r="E87">
-        <v>6.6420899999999991E-4</v>
-      </c>
-      <c r="F87">
-        <v>45.90686446299695</v>
-      </c>
-      <c r="G87">
-        <v>6.6000000000000003E-7</v>
-      </c>
-      <c r="H87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>45446.420810185176</v>
-      </c>
-      <c r="B88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88">
-        <v>7.2868038830153896</v>
-      </c>
-      <c r="E88">
-        <v>6.3</v>
-      </c>
-      <c r="F88">
-        <v>45.90686446299695</v>
-      </c>
-      <c r="G88">
-        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>67749.869200166664</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E89">
-        <v>9.3258000000000002E-4</v>
+        <v>92</v>
       </c>
       <c r="F89">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G89">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>21.273458928852332</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E90">
-        <v>2.97</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F90">
-        <v>63.182173018691429</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G90">
-        <v>9.2999999999999999E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>67695.037825500011</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E91">
-        <v>7.3358999999999989E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F91">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G91">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45441.908472222232</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>7.6400619689859308</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E92">
-        <v>6.5</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F92">
-        <v>49.660402798408548</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G92">
-        <v>7.3E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45440.886192129627</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>64131.089181479998</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E93">
-        <v>7.6406E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -3001,244 +3004,244 @@
         <v>8</v>
       </c>
       <c r="D94">
-        <v>69531.813510500011</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E94">
-        <v>4.0046400000000006E-4</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F94">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G94">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>25.782396449693401</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E95">
-        <v>1.08</v>
+        <v>6.5</v>
       </c>
       <c r="F95">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G95">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45439.965474537043</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>64131.089181479998</v>
+      </c>
+      <c r="E96">
+        <v>7.6406E-4</v>
+      </c>
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45439.966828703713</v>
+      </c>
+      <c r="B97" t="s">
         <v>26</v>
       </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>69520.879412499999</v>
-      </c>
-      <c r="E96">
-        <v>2.31E-4</v>
-      </c>
-      <c r="F96">
-        <v>16.0593231442875</v>
-      </c>
-      <c r="G96">
-        <v>2.2999999999999999E-7</v>
-      </c>
-      <c r="H96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>45439.965474537043</v>
-      </c>
-      <c r="B97" t="s">
-        <v>48</v>
-      </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>2.2941890206125</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F97">
-        <v>16.0593231442875</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G97">
-        <v>2.2999999999999999E-7</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
+        <v>45439.966828703713</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>25.782396449693401</v>
+      </c>
+      <c r="E98">
+        <v>1.08</v>
+      </c>
+      <c r="F98">
+        <v>27.84498816566888</v>
+      </c>
+      <c r="G98">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45439.965474537043</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>69520.879412499999</v>
+      </c>
+      <c r="E99">
+        <v>2.31E-4</v>
+      </c>
+      <c r="F99">
+        <v>16.0593231442875</v>
+      </c>
+      <c r="G99">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45439.965474537043</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>2.2941890206125</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>16.0593231442875</v>
+      </c>
+      <c r="G100">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="H100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>45438.413587962961</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>31</v>
       </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
         <v>64764.057269930003</v>
       </c>
-      <c r="E98">
+      <c r="E101">
         <v>3.02637E-3</v>
       </c>
-      <c r="F98">
+      <c r="F101">
         <v>200</v>
       </c>
-      <c r="G98">
+      <c r="G101">
         <v>4</v>
-      </c>
-      <c r="H98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>45438.066701388889</v>
-      </c>
-      <c r="B99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99">
-        <v>21.880480030000001</v>
-      </c>
-      <c r="E99">
-        <v>3.3587014499999999</v>
-      </c>
-      <c r="F99">
-        <v>75</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>45438.064282407409</v>
-      </c>
-      <c r="B100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100">
-        <v>21.400680940000001</v>
-      </c>
-      <c r="E100">
-        <v>4.5792935400000001</v>
-      </c>
-      <c r="F100">
-        <v>100</v>
-      </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>45438.062881944446</v>
-      </c>
-      <c r="B101" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
-        <v>2.0397180000000001E-2</v>
-      </c>
-      <c r="E101">
-        <v>4804.5860693499999</v>
-      </c>
-      <c r="F101">
-        <v>100</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45438.016701388893</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102">
-        <v>0.50915756999999995</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E102">
-        <v>288.7121952</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F102">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103">
-        <v>0.50817648999999998</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E103">
-        <v>192.84638819</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F103">
         <v>100</v>
@@ -3250,21 +3253,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104">
-        <v>1.414E-5</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E104">
-        <v>6928298.2400000002</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F104">
         <v>100</v>
@@ -3276,47 +3279,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105">
-        <v>7.6274206099999997</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E105">
-        <v>12.848380199999999</v>
+        <v>288.7121952</v>
       </c>
       <c r="F105">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106">
-        <v>2571.01241222</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E106">
-        <v>3.8117280000000003E-2</v>
+        <v>192.84638819</v>
       </c>
       <c r="F106">
         <v>100</v>
@@ -3328,47 +3331,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45436.935613425929</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>3502.0461955599999</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E107">
-        <v>4.1975459999999999E-2</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F107">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45436.934664351851</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>157.11043262000001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E108">
-        <v>0.62376507000000003</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F108">
         <v>100</v>
@@ -3380,21 +3383,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45436.433229166672</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>63003.060148639997</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E109">
-        <v>1.5554799999999999E-3</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F109">
         <v>100</v>
@@ -3406,35 +3409,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45426.641608796293</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>57930.577887070001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E110">
-        <v>8.4584000000000005E-4</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -3443,10 +3446,10 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>140.23996862000001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E111">
-        <v>0.69880220999999998</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -3458,177 +3461,177 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>10.580849669999999</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E112">
-        <v>1.85240322</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F112">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G112">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45422.83865740741</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>2752.3331128700001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E113">
-        <v>5.3372899999999997E-3</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G113">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45422.837546296287</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>57425.239760140001</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E114">
-        <v>5.1197000000000005E-4</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F114">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G114">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45422.835844907408</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>2.10457801</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E115">
-        <v>6.9800216099999997</v>
+        <v>1.85240322</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G115">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45422.833622685182</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>0.1200639</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E116">
-        <v>163.24640485</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F116">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G116">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117">
-        <v>140.17980062000001</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E117">
-        <v>0.13982043</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F117">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>0.79988477999999996</v>
+        <v>2.10457801</v>
       </c>
       <c r="E118">
-        <v>18.365145070000001</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F118">
         <v>15</v>
@@ -3640,21 +3643,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>143.75063899</v>
+        <v>0.1200639</v>
       </c>
       <c r="E119">
-        <v>0.13634721999999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F119">
         <v>20</v>
@@ -3666,99 +3669,99 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>0.93873598000000003</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E120">
-        <v>26.088272459999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F120">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G120">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>2583.1506530400002</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E121">
-        <v>6.8288699999999999E-3</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F121">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G121">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122">
-        <v>2.1432031</v>
+        <v>143.75063899</v>
       </c>
       <c r="E122">
-        <v>11.426821869999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G122">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>10.234263159999999</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E123">
-        <v>2.3929421799999999</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F123">
         <v>25</v>
@@ -3770,47 +3773,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124">
-        <v>0.11898276000000001</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E124">
-        <v>205.82814242000001</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F124">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G124">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125">
-        <v>3.8034991200000001</v>
+        <v>2.1432031</v>
       </c>
       <c r="E125">
-        <v>6.4388078499999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F125">
         <v>25</v>
@@ -3822,21 +3825,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126">
-        <v>2912.2689564799998</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E126">
-        <v>8.4072299999999999E-3</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F126">
         <v>25</v>
@@ -3848,21 +3851,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45418.969189814823</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127">
-        <v>59899.712723249999</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E127">
-        <v>4.0884999999999999E-4</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F127">
         <v>25</v>
@@ -3874,21 +3877,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45414.950277777767</v>
+        <v>45421.817245370366</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128">
-        <v>131.18665751</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E128">
-        <v>0.18668056999999999</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F128">
         <v>25</v>
@@ -3897,6 +3900,84 @@
         <v>0.51</v>
       </c>
       <c r="H128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E129">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F129">
+        <v>25</v>
+      </c>
+      <c r="G129">
+        <v>0.51</v>
+      </c>
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E130">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F130">
+        <v>25</v>
+      </c>
+      <c r="G130">
+        <v>0.51</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>131.18665751</v>
+      </c>
+      <c r="E131">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>0.51</v>
+      </c>
+      <c r="H131" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538CA74-4FA0-47A2-BF6C-EED952A1E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA27A4-49F4-4DB8-B8DE-DBB0C62E7B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="61">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -557,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,25 +600,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45990.61078703704</v>
+        <v>46023.116932870369</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0.28120000000000001</v>
+        <v>869.59</v>
       </c>
       <c r="E2">
-        <v>245.1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F2">
-        <v>68.922120000000007</v>
+        <v>72.175970000000007</v>
       </c>
       <c r="G2">
-        <v>5.596E-5</v>
+        <v>5.9129999999999998E-5</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -626,25 +626,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45990.610358796293</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>460.21</v>
+        <v>511.04</v>
       </c>
       <c r="E3">
-        <v>4.8000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>22.09008</v>
+        <v>5.6214399999999998</v>
       </c>
       <c r="G3">
-        <v>1.7920000000000001E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -652,25 +652,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45990.609155092592</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>877.15</v>
+        <v>511.01</v>
       </c>
       <c r="E4">
-        <v>0.10299999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>90.346450000000004</v>
+        <v>7.6651499999999997</v>
       </c>
       <c r="G4">
-        <v>7.3349999999999994E-5</v>
+        <v>6.2700000000000001E-6</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -678,25 +678,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45962.060810185183</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1088.98</v>
+        <v>511.08</v>
       </c>
       <c r="E5">
-        <v>0.13600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>148.10128</v>
+        <v>5.62188</v>
       </c>
       <c r="G5">
-        <v>9.6899999999999997E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -704,33 +704,33 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45962.059664351851</v>
+        <v>46023.11582175926</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0.29599999999999999</v>
+        <v>87764.99</v>
       </c>
       <c r="E6">
-        <v>2624.2</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="F6">
-        <v>776.76319999999998</v>
+        <v>48.270744499999999</v>
       </c>
       <c r="G6">
-        <v>2.4929899999999998</v>
+        <v>3.9549999999999999E-5</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45962.059664351851</v>
+        <v>45990.61078703704</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -739,68 +739,68 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.29599999999999999</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="E7">
-        <v>585.20000000000005</v>
+        <v>245.1</v>
       </c>
       <c r="F7">
-        <v>173.2192</v>
+        <v>68.922120000000007</v>
       </c>
       <c r="G7">
-        <v>0.55593999999999999</v>
+        <v>5.596E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45962.059027777781</v>
+        <v>45990.610358796293</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>109727.81</v>
+        <v>460.21</v>
       </c>
       <c r="E8">
-        <v>1.0019999999999999E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>22.09008</v>
       </c>
       <c r="G8">
-        <v>1.0444990199999999</v>
+        <v>1.7920000000000001E-5</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45931.030428240738</v>
+        <v>45990.609155092592</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>113954.4</v>
+        <v>877.15</v>
       </c>
       <c r="E9">
-        <v>3.96E-3</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F9">
-        <v>451.25942400000002</v>
+        <v>90.346450000000004</v>
       </c>
       <c r="G9">
-        <v>3.8340000000000002E-5</v>
+        <v>7.3349999999999994E-5</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -808,59 +808,59 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45931.029803240737</v>
+        <v>45962.060810185183</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>0.33289999999999997</v>
+        <v>1088.98</v>
       </c>
       <c r="E10">
-        <v>905.7</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F10">
-        <v>301.50752999999997</v>
+        <v>148.10128</v>
       </c>
       <c r="G10">
-        <v>0.28643215</v>
+        <v>9.6899999999999997E-5</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45931.028958333336</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>0.33289999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E11">
-        <v>452</v>
+        <v>2624.2</v>
       </c>
       <c r="F11">
-        <v>150.4708</v>
+        <v>776.76319999999998</v>
       </c>
       <c r="G11">
-        <v>0.14294725999999999</v>
+        <v>2.4929899999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45900.939155092594</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -869,279 +869,279 @@
         <v>8</v>
       </c>
       <c r="D12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E12">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="F12">
+        <v>173.2192</v>
+      </c>
+      <c r="G12">
+        <v>0.55593999999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45962.059027777781</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>109727.81</v>
+      </c>
+      <c r="E13">
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>1.0444990199999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>113954.4</v>
+      </c>
+      <c r="E14">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F14">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G14">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E15">
+        <v>905.7</v>
+      </c>
+      <c r="F15">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.28643215</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E16">
+        <v>452</v>
+      </c>
+      <c r="F16">
+        <v>150.4708</v>
+      </c>
+      <c r="G16">
+        <v>0.14294725999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45900.939155092594</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <v>200.6</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>68.705500000000001</v>
       </c>
-      <c r="G12">
+      <c r="G17">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>109079.99</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>68.720393700000002</v>
       </c>
-      <c r="G13">
+      <c r="G18">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>2022.6</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>692.57447000000002</v>
       </c>
-      <c r="G14">
+      <c r="G19">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <v>867.28</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>1.9E-2</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>16.47832</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>4462.54</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>6.93E-2</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>309.25402200000002</v>
       </c>
-      <c r="G16">
+      <c r="G21">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>204.95</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>1.79</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>366.8605</v>
       </c>
-      <c r="G17">
+      <c r="G22">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E18">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F18">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G18">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F19">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G19">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F20">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G20">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>894.92249916666651</v>
-      </c>
-      <c r="E21">
-        <v>2.2299999999999994E-6</v>
-      </c>
-      <c r="F21">
-        <v>1.9956771731416659E-3</v>
-      </c>
-      <c r="G21">
-        <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>0.16364448087293901</v>
-      </c>
-      <c r="E22">
-        <v>1.21952E-2</v>
-      </c>
-      <c r="F22">
-        <v>1.9956771731416659E-3</v>
-      </c>
-      <c r="G22">
-        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1152,22 +1152,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>3.7475332321759747</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E23">
-        <v>6.02</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F23">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G23">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1178,22 +1178,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>894.92249900000002</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>2.5209054507969595E-2</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F24">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G24">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1201,25 +1201,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>2.4576062914721059E-2</v>
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="E25">
-        <v>8718.1239999999998</v>
+        <v>0.90185245368865785</v>
       </c>
       <c r="F25">
-        <v>214.2571639223396</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G25">
-        <v>2.6836999999999998E-4</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1227,25 +1227,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>0.3650036864094372</v>
+        <v>894.92249916666651</v>
       </c>
       <c r="E26">
-        <v>586.99999999999989</v>
+        <v>2.2299999999999994E-6</v>
       </c>
       <c r="F26">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G26">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1253,25 +1253,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>2.4583614919863089E-2</v>
+        <v>0.16364448087293901</v>
       </c>
       <c r="E27">
-        <v>8724.1440000000021</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F27">
-        <v>214.47099660143411</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G27">
-        <v>2.6861000000000002E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1279,25 +1279,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>1.6766025375346629E-2</v>
+        <v>3.7475332321759747</v>
       </c>
       <c r="E28">
-        <v>12792</v>
+        <v>6.02</v>
       </c>
       <c r="F28">
-        <v>214.47099660143411</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G28">
-        <v>2.6861000000000002E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1314,16 +1314,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>794.61066900000014</v>
+        <v>894.92249900000002</v>
       </c>
       <c r="E29">
-        <v>1.8984839999999996E-2</v>
+        <v>2.5209054507969595E-2</v>
       </c>
       <c r="F29">
-        <v>15.08555641325796</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G29">
-        <v>1.4229999999999999E-5</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1331,25 +1331,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>0.12960100011389999</v>
+        <v>2.4576062914721059E-2</v>
       </c>
       <c r="E30">
-        <v>116.4</v>
+        <v>8718.1239999999998</v>
       </c>
       <c r="F30">
-        <v>15.08555641325796</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G30">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1357,137 +1357,137 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>1.1802999999999999</v>
+        <v>0.3650036864094372</v>
       </c>
       <c r="E31">
-        <v>57</v>
+        <v>586.99999999999989</v>
       </c>
       <c r="F31">
-        <v>67.277100000000004</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G31">
-        <v>5.7000000000000002E-2</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>1.1802999999999999</v>
+        <v>2.4583614919863089E-2</v>
       </c>
       <c r="E32">
-        <v>34</v>
+        <v>8724.1440000000021</v>
       </c>
       <c r="F32">
-        <v>40.130200000000002</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G32">
-        <v>3.4000000000000002E-2</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>1.1801999999999999</v>
+        <v>1.6766025375346629E-2</v>
       </c>
       <c r="E33">
-        <v>94</v>
+        <v>12792</v>
       </c>
       <c r="F33">
-        <v>110.9388</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G33">
-        <v>9.4E-2</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45560.642361111109</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>0.15079999999999999</v>
+        <v>794.61066900000014</v>
       </c>
       <c r="E34">
-        <v>1456.1</v>
+        <v>1.8984839999999996E-2</v>
       </c>
       <c r="F34">
-        <v>219.57988</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G34">
-        <v>0.21957988000000001</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45553.906388888892</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>60330.294086166672</v>
+        <v>0.12960100011389999</v>
       </c>
       <c r="E35">
-        <v>1.3220300000000003E-3</v>
+        <v>116.4</v>
       </c>
       <c r="F35">
-        <v>79.75845869073494</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G35">
-        <v>7.2999999999999995E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1496,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>1.092581625900479</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E36">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F36">
-        <v>79.75845869073494</v>
+        <v>67.277100000000004</v>
       </c>
       <c r="G36">
-        <v>7.2999999999999995E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -1513,155 +1513,155 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>64353.810126000011</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E37">
-        <v>2.5412999999999998E-3</v>
+        <v>34</v>
       </c>
       <c r="F37">
-        <v>163.5423376732038</v>
+        <v>40.130200000000002</v>
       </c>
       <c r="G37">
-        <v>0.98499999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38">
-        <v>0.16603283012507999</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E38">
-        <v>985</v>
+        <v>94</v>
       </c>
       <c r="F38">
-        <v>163.5423376732038</v>
+        <v>110.9388</v>
       </c>
       <c r="G38">
-        <v>0.98499999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45529.906527777777</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>0.16550000000000001</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="E39">
-        <v>453</v>
+        <v>1456.1</v>
       </c>
       <c r="F39">
-        <v>74.971500000000006</v>
+        <v>219.57988</v>
       </c>
       <c r="G39">
-        <v>9.7360000000000003E-5</v>
+        <v>0.21957988000000001</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45529.906145833331</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>0.34300000000000003</v>
+        <v>60330.294086166672</v>
       </c>
       <c r="E40">
-        <v>218.6</v>
+        <v>1.3220300000000003E-3</v>
       </c>
       <c r="F40">
-        <v>74.979799999999997</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G40">
-        <v>9.7349999999999995E-5</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45528.998402777783</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>580.5</v>
+        <v>1.092581625900479</v>
       </c>
       <c r="E41">
-        <v>0.10150559999999997</v>
+        <v>73</v>
       </c>
       <c r="F41">
-        <v>58.924000799999988</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G41">
-        <v>0.371</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>0.15882479999999999</v>
+        <v>64353.810126000011</v>
       </c>
       <c r="E42">
-        <v>370.99999999999994</v>
+        <v>2.5412999999999998E-3</v>
       </c>
       <c r="F42">
-        <v>58.924000799999988</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G42">
-        <v>0.371</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -1669,51 +1669,51 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45500.560335648152</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43">
-        <v>68797.238685499993</v>
+        <v>0.16603283012507999</v>
       </c>
       <c r="E43">
-        <v>3.1044000000000004E-4</v>
+        <v>985</v>
       </c>
       <c r="F43">
-        <v>21.357414777526621</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G43">
-        <v>2.709E-5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45500.560335648152</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>0.136906504984145</v>
+        <v>0.16550000000000001</v>
       </c>
       <c r="E44">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="F44">
-        <v>21.357414777526621</v>
+        <v>74.971500000000006</v>
       </c>
       <c r="G44">
-        <v>2.709E-5</v>
+        <v>9.7360000000000003E-5</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -1721,25 +1721,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45500.559224537043</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>68786.233699999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E45">
-        <v>2.7748800000000005E-4</v>
+        <v>218.6</v>
       </c>
       <c r="F45">
-        <v>19.087354416945601</v>
+        <v>74.979799999999997</v>
       </c>
       <c r="G45">
-        <v>2.4470000000000001E-5</v>
+        <v>9.7349999999999995E-5</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -1747,77 +1747,77 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45500.559224537043</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>2651.0214467979999</v>
+        <v>580.5</v>
       </c>
       <c r="E46">
-        <v>7.1999999999999998E-3</v>
+        <v>0.10150559999999997</v>
       </c>
       <c r="F46">
-        <v>19.087354416945601</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G46">
-        <v>2.4470000000000001E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45500.559224537043</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>68786.233699999997</v>
+        <v>0.15882479999999999</v>
       </c>
       <c r="E47">
-        <v>1.4529580000000001E-3</v>
+        <v>370.99999999999994</v>
       </c>
       <c r="F47">
-        <v>99.943508544284597</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G47">
-        <v>1.2672000000000001E-4</v>
+        <v>0.371</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>2651.0214467979999</v>
+        <v>68797.238685499993</v>
       </c>
       <c r="E48">
-        <v>3.7699999999999997E-2</v>
+        <v>3.1044000000000004E-4</v>
       </c>
       <c r="F48">
-        <v>99.943508544284597</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G48">
-        <v>1.2672000000000001E-4</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -1825,51 +1825,51 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45488.037268518521</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>1.00660569</v>
+        <v>0.136906504984145</v>
       </c>
       <c r="E49">
-        <v>194.71378021999999</v>
+        <v>156</v>
       </c>
       <c r="F49">
-        <v>200</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45479.777083333327</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>485.5</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>2.7748800000000005E-4</v>
       </c>
       <c r="F50">
-        <v>48.55</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G50">
-        <v>7.4999999999999993E-5</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -1877,25 +1877,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45479.76871527778</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>0.39800000000000002</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E51">
-        <v>85.6</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F51">
-        <v>34.068800000000003</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G51">
-        <v>4.8569999999999997E-5</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1903,25 +1903,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45479.768495370372</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>524.6</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E52">
-        <v>6.5000000000000002E-2</v>
+        <v>1.4529580000000001E-3</v>
       </c>
       <c r="F52">
-        <v>34.098999999999997</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G52">
-        <v>4.8730000000000003E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1929,25 +1929,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45479.673125000001</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>2.4140000000000002E-2</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E53">
-        <v>1976.8</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="F53">
-        <v>47.719951999999999</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G53">
-        <v>6.8789999999999997E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1955,77 +1955,77 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45479.672395833331</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>9.2099999999999999E-6</v>
+        <v>1.00660569</v>
       </c>
       <c r="E54">
-        <v>5181574</v>
+        <v>194.71378021999999</v>
       </c>
       <c r="F54">
-        <v>47.722296540000002</v>
+        <v>200</v>
       </c>
       <c r="G54">
-        <v>6.8889999999999999E-5</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45459.611851851849</v>
+        <v>45479.777083333327</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>2.0114E-2</v>
+        <v>485.5</v>
       </c>
       <c r="E55">
-        <v>2036</v>
+        <v>0.1</v>
       </c>
       <c r="F55">
-        <v>40.952103999999999</v>
+        <v>48.55</v>
       </c>
       <c r="G55">
-        <v>4.0952099999999998E-2</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56">
-        <v>1.9619000000000001E-2</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E56">
-        <v>88</v>
+        <v>85.6</v>
       </c>
       <c r="F56">
-        <v>1.726472</v>
+        <v>34.068800000000003</v>
       </c>
       <c r="G56">
-        <v>2.2000000000000001E-6</v>
+        <v>4.8569999999999997E-5</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2033,51 +2033,51 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>1.9619000000000001E-2</v>
+        <v>524.6</v>
       </c>
       <c r="E57">
-        <v>1950</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F57">
-        <v>38.25705</v>
+        <v>34.098999999999997</v>
       </c>
       <c r="G57">
-        <v>1.95</v>
+        <v>4.8730000000000003E-5</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45457.954560185193</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>0.50849999999999995</v>
+        <v>2.4140000000000002E-2</v>
       </c>
       <c r="E58">
-        <v>9.5</v>
+        <v>1976.8</v>
       </c>
       <c r="F58">
-        <v>4.8307500000000001</v>
+        <v>47.719951999999999</v>
       </c>
       <c r="G58">
-        <v>6.02E-6</v>
+        <v>6.8789999999999997E-5</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2085,25 +2085,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45457.954560185193</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59">
-        <v>0.50860000000000005</v>
+        <v>9.2099999999999999E-6</v>
       </c>
       <c r="E59">
-        <v>29.8</v>
+        <v>5181574</v>
       </c>
       <c r="F59">
-        <v>15.156280000000001</v>
+        <v>47.722296540000002</v>
       </c>
       <c r="G59">
-        <v>1.891E-5</v>
+        <v>6.8889999999999999E-5</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2111,103 +2111,103 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45457.95416666667</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60">
-        <v>1.145E-5</v>
+        <v>2.0114E-2</v>
       </c>
       <c r="E60">
-        <v>1746724</v>
+        <v>2036</v>
       </c>
       <c r="F60">
-        <v>19.999989800000002</v>
+        <v>40.952103999999999</v>
       </c>
       <c r="G60">
-        <v>2.4329999999999999E-5</v>
+        <v>4.0952099999999998E-2</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45455.630983796298</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61">
-        <v>3.7824000000000003E-2</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E61">
-        <v>3465.2</v>
+        <v>88</v>
       </c>
       <c r="F61">
-        <v>131.06772480000001</v>
+        <v>1.726472</v>
       </c>
       <c r="G61">
-        <v>3.4651999999999998</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45455.630624999998</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>69787.490000000005</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E62">
-        <v>1.8799999999999999E-3</v>
+        <v>1950</v>
       </c>
       <c r="F62">
-        <v>131.20048120000001</v>
+        <v>38.25705</v>
       </c>
       <c r="G62">
-        <v>0.13120048000000001</v>
+        <v>1.95</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45455.036585648151</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>67225.228872500011</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="E63">
-        <v>1.384E-4</v>
+        <v>9.5</v>
       </c>
       <c r="F63">
-        <v>9.303971675954001</v>
+        <v>4.8307500000000001</v>
       </c>
       <c r="G63">
-        <v>1.1759999999999999E-5</v>
+        <v>6.02E-6</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -2215,25 +2215,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45455.036585648151</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>0.116299645949425</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>29.8</v>
       </c>
       <c r="F64">
-        <v>9.303971675954001</v>
+        <v>15.156280000000001</v>
       </c>
       <c r="G64">
-        <v>1.1759999999999999E-5</v>
+        <v>1.891E-5</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -2241,132 +2241,132 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45451.519849537042</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>69351.951598999993</v>
+        <v>1.145E-5</v>
       </c>
       <c r="E65">
-        <v>1.2520929999999999E-3</v>
+        <v>1746724</v>
       </c>
       <c r="F65">
-        <v>86.835093133446691</v>
+        <v>19.999989800000002</v>
       </c>
       <c r="G65">
-        <v>1.2500000000000001E-6</v>
+        <v>2.4329999999999999E-5</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>683.74089081454088</v>
+        <v>3.7824000000000003E-2</v>
       </c>
       <c r="E66">
-        <v>0.127</v>
+        <v>3465.2</v>
       </c>
       <c r="F66">
-        <v>86.835093133446691</v>
+        <v>131.06772480000001</v>
       </c>
       <c r="G66">
-        <v>1.2500000000000001E-6</v>
+        <v>3.4651999999999998</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>69351.951598999993</v>
+        <v>69787.490000000005</v>
       </c>
       <c r="E67">
-        <v>2.9577000000000002E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F67">
-        <v>205.12226724436229</v>
+        <v>131.20048120000001</v>
       </c>
       <c r="G67">
-        <v>2.96E-6</v>
+        <v>0.13120048000000001</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>683.74089081454088</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E68">
-        <v>0.3</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F68">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G68">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H68" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>69351.951598999993</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E69">
-        <v>2.4647499999999995E-3</v>
+        <v>80</v>
       </c>
       <c r="F69">
-        <v>170.93522270363519</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G69">
-        <v>2.4600000000000002E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E70">
-        <v>0.25</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F70">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G70">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -2400,25 +2400,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E71">
-        <v>4.929499999999999E-3</v>
+        <v>0.127</v>
       </c>
       <c r="F71">
-        <v>341.87044540727038</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G71">
-        <v>3.7500000000000001E-4</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2426,25 +2426,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E72">
-        <v>0.5</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F72">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G72">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2452,25 +2452,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E73">
-        <v>8.0843799999999997E-4</v>
+        <v>0.3</v>
       </c>
       <c r="F73">
-        <v>56.066753046792357</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G73">
-        <v>6.1610000000000001E-5</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2478,74 +2478,74 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E74">
-        <v>8.2000000000000003E-2</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F74">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G74">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>683.89481871559008</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E75">
-        <v>1.121</v>
+        <v>0.25</v>
       </c>
       <c r="F75">
-        <v>766.64609178017645</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G75">
-        <v>8.4075000000000003E-4</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>69360.529281499999</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E76">
-        <v>1.1053060000000002E-2</v>
+        <v>4.929499999999999E-3</v>
       </c>
       <c r="F76">
-        <v>766.64609178017645</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G76">
-        <v>8.4075000000000003E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45451.504004629627</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -2562,16 +2562,16 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>681.2</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E77">
-        <v>1.4999999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F77">
-        <v>10.218</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G77">
-        <v>1.1240000000000001E-5</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
@@ -2579,285 +2579,285 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78">
-        <v>4.1304E-2</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E78">
-        <v>1210.5</v>
+        <v>8.0843799999999997E-4</v>
       </c>
       <c r="F78">
-        <v>49.998491999999999</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G78">
-        <v>1.2104999999999999</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>4.1305000000000001E-2</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E79">
-        <v>1082.2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F79">
-        <v>44.700271000000001</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G79">
-        <v>1.0822000000000001</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45450.921388888892</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>21.97</v>
+        <v>683.89481871559008</v>
       </c>
       <c r="E80">
-        <v>2.0099999999999998</v>
+        <v>1.121</v>
       </c>
       <c r="F80">
-        <v>44.159700000000001</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G80">
-        <v>4.4159700000000003E-2</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45450.920393518521</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81">
-        <v>39.244999999999997</v>
+        <v>69360.529281499999</v>
       </c>
       <c r="E81">
-        <v>1.3</v>
+        <v>1.1053060000000002E-2</v>
       </c>
       <c r="F81">
-        <v>51.018500000000003</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G81">
-        <v>5.1018500000000001E-2</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45447.972905092603</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>70502.707116500009</v>
+        <v>681.2</v>
       </c>
       <c r="E82">
-        <v>5.1688999999999999E-5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F82">
-        <v>3.6442144281447688</v>
+        <v>10.218</v>
       </c>
       <c r="G82">
-        <v>4.9999999999999998E-8</v>
+        <v>1.1240000000000001E-5</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>3.312922207404335</v>
+        <v>4.1304E-2</v>
       </c>
       <c r="E83">
-        <v>1.1000000000000001</v>
+        <v>1210.5</v>
       </c>
       <c r="F83">
-        <v>3.6442144281447688</v>
+        <v>49.998491999999999</v>
       </c>
       <c r="G83">
-        <v>4.9999999999999998E-8</v>
+        <v>1.2104999999999999</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45447.949826388889</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
       </c>
       <c r="D84">
-        <v>70534.997166833316</v>
+        <v>4.1305000000000001E-2</v>
       </c>
       <c r="E84">
-        <v>2.4904700000000007E-4</v>
+        <v>1082.2</v>
       </c>
       <c r="F84">
-        <v>17.566529439408342</v>
+        <v>44.700271000000001</v>
       </c>
       <c r="G84">
-        <v>2.4999999999999999E-7</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45447.949826388889</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85">
-        <v>3.314439516869498</v>
+        <v>21.97</v>
       </c>
       <c r="E85">
-        <v>5.3</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F85">
-        <v>17.566529439408342</v>
+        <v>44.159700000000001</v>
       </c>
       <c r="G85">
-        <v>2.4999999999999999E-7</v>
+        <v>4.4159700000000003E-2</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45446.501504629632</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>3810.4583321666669</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="E86">
-        <v>1.363E-2</v>
+        <v>1.3</v>
       </c>
       <c r="F86">
-        <v>51.936547067431668</v>
+        <v>51.018500000000003</v>
       </c>
       <c r="G86">
-        <v>1.363E-5</v>
+        <v>5.1018500000000001E-2</v>
       </c>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>0.51936547067431671</v>
+        <v>70502.707116500009</v>
       </c>
       <c r="E87">
-        <v>100</v>
+        <v>5.1688999999999999E-5</v>
       </c>
       <c r="F87">
-        <v>51.936547067431668</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G87">
-        <v>1.363E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>69129.989500166674</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E88">
-        <v>6.9092000000000003E-4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F88">
-        <v>47.763292345455163</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G88">
-        <v>6.8999999999999996E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
@@ -2865,25 +2865,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>0.51916622114625177</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E89">
-        <v>92</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F89">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G89">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H89" t="s">
         <v>27</v>
@@ -2891,25 +2891,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45446.420810185176</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>69115.089471833344</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E90">
-        <v>6.6420899999999991E-4</v>
+        <v>5.3</v>
       </c>
       <c r="F90">
-        <v>45.90686446299695</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G90">
-        <v>6.6000000000000003E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -2917,77 +2917,77 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>7.2868038830153896</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E91">
-        <v>6.3</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F91">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G91">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>67749.869200166664</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E92">
-        <v>9.3258000000000002E-4</v>
+        <v>100</v>
       </c>
       <c r="F92">
-        <v>63.182173018691429</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G92">
-        <v>9.2999999999999999E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>21.273458928852332</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E93">
-        <v>2.97</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F93">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G93">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -2995,25 +2995,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>67695.037825500011</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E94">
-        <v>7.3358999999999989E-4</v>
+        <v>92</v>
       </c>
       <c r="F94">
-        <v>49.660402798408548</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G94">
-        <v>7.3E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H94" t="s">
         <v>27</v>
@@ -3021,25 +3021,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D95">
-        <v>7.6400619689859308</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E95">
-        <v>6.5</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F95">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G95">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H95" t="s">
         <v>27</v>
@@ -3047,33 +3047,33 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45440.886192129627</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>64131.089181479998</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E96">
-        <v>7.6406E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45439.966828703713</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -3082,16 +3082,16 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>69531.813510500011</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E97">
-        <v>4.0046400000000006E-4</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F97">
-        <v>27.84498816566888</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G97">
-        <v>3.9999999999999998E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H97" t="s">
         <v>27</v>
@@ -3099,25 +3099,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45439.966828703713</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>25.782396449693401</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E98">
-        <v>1.08</v>
+        <v>2.97</v>
       </c>
       <c r="F98">
-        <v>27.84498816566888</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G98">
-        <v>3.9999999999999998E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H98" t="s">
         <v>27</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45439.965474537043</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -3134,16 +3134,16 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <v>69520.879412499999</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E99">
-        <v>2.31E-4</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F99">
-        <v>16.0593231442875</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G99">
-        <v>2.2999999999999999E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H99" t="s">
         <v>27</v>
@@ -3151,25 +3151,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45439.965474537043</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100">
-        <v>2.2941890206125</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F100">
-        <v>16.0593231442875</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G100">
-        <v>2.2999999999999999E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H100" t="s">
         <v>27</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45438.413587962961</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -3186,16 +3186,16 @@
         <v>8</v>
       </c>
       <c r="D101">
-        <v>64764.057269930003</v>
+        <v>64131.089181479998</v>
       </c>
       <c r="E101">
-        <v>3.02637E-3</v>
+        <v>7.6406E-4</v>
       </c>
       <c r="F101">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
@@ -3203,129 +3203,129 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45438.066701388889</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102">
-        <v>21.880480030000001</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E102">
-        <v>3.3587014499999999</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F102">
-        <v>75</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45438.064282407409</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>21.400680940000001</v>
+        <v>25.782396449693401</v>
       </c>
       <c r="E103">
-        <v>4.5792935400000001</v>
+        <v>1.08</v>
       </c>
       <c r="F103">
-        <v>100</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45438.062881944446</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104">
-        <v>2.0397180000000001E-2</v>
+        <v>69520.879412499999</v>
       </c>
       <c r="E104">
-        <v>4804.5860693499999</v>
+        <v>2.31E-4</v>
       </c>
       <c r="F104">
-        <v>100</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45438.016701388893</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>0.50915756999999995</v>
+        <v>2.2941890206125</v>
       </c>
       <c r="E105">
-        <v>288.7121952</v>
+        <v>7</v>
       </c>
       <c r="F105">
-        <v>150</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.413587962961</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106">
-        <v>0.50817648999999998</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E106">
-        <v>192.84638819</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
@@ -3333,25 +3333,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>1.414E-5</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E107">
-        <v>6928298.2400000002</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F107">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
@@ -3359,19 +3359,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>7.6274206099999997</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E108">
-        <v>12.848380199999999</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F108">
         <v>100</v>
@@ -3385,19 +3385,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>2571.01241222</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E109">
-        <v>3.8117280000000003E-2</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F109">
         <v>100</v>
@@ -3411,19 +3411,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45436.935613425929</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>3502.0461955599999</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E110">
-        <v>4.1975459999999999E-2</v>
+        <v>288.7121952</v>
       </c>
       <c r="F110">
         <v>150</v>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45436.934664351851</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111">
-        <v>157.11043262000001</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E111">
-        <v>0.62376507000000003</v>
+        <v>192.84638819</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -3463,19 +3463,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45436.433229166672</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>63003.060148639997</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E112">
-        <v>1.5554799999999999E-3</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F112">
         <v>100</v>
@@ -3489,25 +3489,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45426.641608796293</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>57930.577887070001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E113">
-        <v>8.4584000000000005E-4</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -3515,19 +3515,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>140.23996862000001</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E114">
-        <v>0.69880220999999998</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F114">
         <v>100</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>10.580849669999999</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E115">
-        <v>1.85240322</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F115">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="G115">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45422.83865740741</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>2752.3331128700001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E116">
-        <v>5.3372899999999997E-3</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F116">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G116">
-        <v>0.31</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45422.837546296287</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B117" t="s">
         <v>31</v>
@@ -3602,16 +3602,16 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>57425.239760140001</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E117">
-        <v>5.1197000000000005E-4</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F117">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G117">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45422.835844907408</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>2.10457801</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E118">
-        <v>6.9800216099999997</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F118">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G118">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45422.833622685182</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>0.1200639</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E119">
-        <v>163.24640485</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F119">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G119">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>18</v>
@@ -3671,19 +3671,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>140.17980062000001</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E120">
-        <v>0.13982043</v>
+        <v>1.85240322</v>
       </c>
       <c r="F120">
         <v>20</v>
@@ -3697,19 +3697,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>0.79988477999999996</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E121">
-        <v>18.365145070000001</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F121">
         <v>15</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122">
-        <v>143.75063899</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E122">
-        <v>0.13634721999999999</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F122">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G122">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>0.93873598000000003</v>
+        <v>2.10457801</v>
       </c>
       <c r="E123">
-        <v>26.088272459999999</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F123">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G123">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124">
-        <v>2583.1506530400002</v>
+        <v>0.1200639</v>
       </c>
       <c r="E124">
-        <v>6.8288699999999999E-3</v>
+        <v>163.24640485</v>
       </c>
       <c r="F124">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G124">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125">
-        <v>2.1432031</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E125">
-        <v>11.426821869999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F125">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G125">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126">
-        <v>10.234263159999999</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E126">
-        <v>2.3929421799999999</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G126">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="H126" t="s">
         <v>18</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127">
-        <v>0.11898276000000001</v>
+        <v>143.75063899</v>
       </c>
       <c r="E127">
-        <v>205.82814242000001</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F127">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
@@ -3879,19 +3879,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128">
-        <v>3.8034991200000001</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E128">
-        <v>6.4388078499999999</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F128">
         <v>25</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129">
-        <v>2912.2689564799998</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E129">
-        <v>8.4072299999999999E-3</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F129">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G129">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H129" t="s">
         <v>18</v>
@@ -3931,19 +3931,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45418.969189814823</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130">
-        <v>59899.712723249999</v>
+        <v>2.1432031</v>
       </c>
       <c r="E130">
-        <v>4.0884999999999999E-4</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F130">
         <v>25</v>
@@ -3957,19 +3957,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45414.950277777767</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131">
-        <v>131.18665751</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E131">
-        <v>0.18668056999999999</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F131">
         <v>25</v>
@@ -3981,7 +3981,138 @@
         <v>18</v>
       </c>
     </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45421.93954861111</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>0.11898276000000001</v>
+      </c>
+      <c r="E132">
+        <v>205.82814242000001</v>
+      </c>
+      <c r="F132">
+        <v>25</v>
+      </c>
+      <c r="G132">
+        <v>0.51</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45421.817245370366</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>3.8034991200000001</v>
+      </c>
+      <c r="E133">
+        <v>6.4388078499999999</v>
+      </c>
+      <c r="F133">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>0.51</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E134">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F134">
+        <v>25</v>
+      </c>
+      <c r="G134">
+        <v>0.51</v>
+      </c>
+      <c r="H134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E135">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F135">
+        <v>25</v>
+      </c>
+      <c r="G135">
+        <v>0.51</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B136" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>131.18665751</v>
+      </c>
+      <c r="E136">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F136">
+        <v>25</v>
+      </c>
+      <c r="G136">
+        <v>0.51</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA27A4-49F4-4DB8-B8DE-DBB0C62E7B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B5F70-B995-4447-A574-30DAED4863D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="61">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -557,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>46023.116932870369</v>
+        <v>46054.616527777776</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -609,16 +609,17 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>869.59</v>
+        <v>770.69</v>
       </c>
       <c r="E2">
-        <v>8.3000000000000004E-2</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="F2">
-        <v>72.175970000000007</v>
+        <v>490.15884</v>
       </c>
       <c r="G2">
-        <v>5.9129999999999998E-5</v>
+        <f>0.00013893+0.00031421</f>
+        <v>4.5313999999999999E-4</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -626,25 +627,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>46023.116550925923</v>
+        <v>46054.61582175926</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>511.04</v>
+        <v>78597.2</v>
       </c>
       <c r="E3">
-        <v>1.0999999999999999E-2</v>
+        <v>1.14E-3</v>
       </c>
       <c r="F3">
-        <v>5.6214399999999998</v>
+        <v>89.600808000000001</v>
       </c>
       <c r="G3">
-        <v>4.6E-6</v>
+        <v>8.284E-5</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -652,25 +653,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>46023.116550925923</v>
+        <v>46054.615127314813</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>511.01</v>
+        <v>0.28589999999999999</v>
       </c>
       <c r="E4">
-        <v>1.4999999999999999E-2</v>
+        <v>1399</v>
       </c>
       <c r="F4">
-        <v>7.6651499999999997</v>
+        <v>399.97410000000002</v>
       </c>
       <c r="G4">
-        <v>6.2700000000000001E-6</v>
+        <f>0.00034668+0.00002329</f>
+        <v>3.6996999999999996E-4</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -678,25 +680,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46023.116550925923</v>
+        <v>46023.116932870369</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>511.08</v>
+        <v>869.59</v>
       </c>
       <c r="E5">
-        <v>1.0999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F5">
-        <v>5.62188</v>
+        <v>72.175970000000007</v>
       </c>
       <c r="G5">
-        <v>4.6E-6</v>
+        <v>5.9129999999999998E-5</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -704,25 +706,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46023.11582175926</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>87764.99</v>
+        <v>511.04</v>
       </c>
       <c r="E6">
-        <v>5.5000000000000003E-4</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>48.270744499999999</v>
+        <v>5.6214399999999998</v>
       </c>
       <c r="G6">
-        <v>3.9549999999999999E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -730,25 +732,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45990.61078703704</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0.28120000000000001</v>
+        <v>511.01</v>
       </c>
       <c r="E7">
-        <v>245.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>68.922120000000007</v>
+        <v>7.6651499999999997</v>
       </c>
       <c r="G7">
-        <v>5.596E-5</v>
+        <v>6.2700000000000001E-6</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -756,25 +758,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45990.610358796293</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>460.21</v>
+        <v>511.08</v>
       </c>
       <c r="E8">
-        <v>4.8000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>22.09008</v>
+        <v>5.62188</v>
       </c>
       <c r="G8">
-        <v>1.7920000000000001E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -782,25 +784,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45990.609155092592</v>
+        <v>46023.11582175926</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>877.15</v>
+        <v>87764.99</v>
       </c>
       <c r="E9">
-        <v>0.10299999999999999</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="F9">
-        <v>90.346450000000004</v>
+        <v>48.270744499999999</v>
       </c>
       <c r="G9">
-        <v>7.3349999999999994E-5</v>
+        <v>3.9549999999999999E-5</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -808,25 +810,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45962.060810185183</v>
+        <v>45990.61078703704</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>1088.98</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="E10">
-        <v>0.13600000000000001</v>
+        <v>245.1</v>
       </c>
       <c r="F10">
-        <v>148.10128</v>
+        <v>68.922120000000007</v>
       </c>
       <c r="G10">
-        <v>9.6899999999999997E-5</v>
+        <v>5.596E-5</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -834,155 +836,155 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45962.059664351851</v>
+        <v>45990.610358796293</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.29599999999999999</v>
+        <v>460.21</v>
       </c>
       <c r="E11">
-        <v>2624.2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>776.76319999999998</v>
+        <v>22.09008</v>
       </c>
       <c r="G11">
-        <v>2.4929899999999998</v>
+        <v>1.7920000000000001E-5</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45962.059664351851</v>
+        <v>45990.609155092592</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0.29599999999999999</v>
+        <v>877.15</v>
       </c>
       <c r="E12">
-        <v>585.20000000000005</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F12">
-        <v>173.2192</v>
+        <v>90.346450000000004</v>
       </c>
       <c r="G12">
-        <v>0.55593999999999999</v>
+        <v>7.3349999999999994E-5</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45962.059027777781</v>
+        <v>45962.060810185183</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>109727.81</v>
+        <v>1088.98</v>
       </c>
       <c r="E13">
-        <v>1.0019999999999999E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F13">
+        <v>148.10128</v>
       </c>
       <c r="G13">
-        <v>1.0444990199999999</v>
+        <v>9.6899999999999997E-5</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45931.030428240738</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>113954.4</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E14">
-        <v>3.96E-3</v>
+        <v>2624.2</v>
       </c>
       <c r="F14">
-        <v>451.25942400000002</v>
+        <v>776.76319999999998</v>
       </c>
       <c r="G14">
-        <v>3.8340000000000002E-5</v>
+        <v>2.4929899999999998</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45931.029803240737</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>0.33289999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E15">
-        <v>905.7</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="F15">
-        <v>301.50752999999997</v>
+        <v>173.2192</v>
       </c>
       <c r="G15">
-        <v>0.28643215</v>
+        <v>0.55593999999999999</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45931.028958333336</v>
+        <v>45962.059027777781</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>0.33289999999999997</v>
+        <v>109727.81</v>
       </c>
       <c r="E16">
-        <v>452</v>
-      </c>
-      <c r="F16">
-        <v>150.4708</v>
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>0.14294725999999999</v>
+        <v>1.0444990199999999</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -990,236 +992,236 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>113954.4</v>
+      </c>
+      <c r="E17">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F17">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G17">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E18">
+        <v>905.7</v>
+      </c>
+      <c r="F18">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.28643215</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E19">
+        <v>452</v>
+      </c>
+      <c r="F19">
+        <v>150.4708</v>
+      </c>
+      <c r="G19">
+        <v>0.14294725999999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45900.939155092594</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>200.6</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>68.705500000000001</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>109079.99</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>68.720393700000002</v>
       </c>
-      <c r="G18">
+      <c r="G21">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>2022.6</v>
       </c>
-      <c r="F19">
+      <c r="F22">
         <v>692.57447000000002</v>
       </c>
-      <c r="G19">
+      <c r="G22">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
         <v>867.28</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>1.9E-2</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>16.47832</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>4462.54</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>6.93E-2</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>309.25402200000002</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>204.95</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>1.79</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>366.8605</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E23">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F23">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G23">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F24">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G24">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F25">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G25">
-        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1236,16 +1238,16 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>894.92249916666651</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E26">
-        <v>2.2299999999999994E-6</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F26">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G26">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1256,22 +1258,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>0.16364448087293901</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E27">
-        <v>1.21952E-2</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F27">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G27">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1282,22 +1284,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>3.7475332321759747</v>
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>6.02</v>
+        <v>0.90185245368865785</v>
       </c>
       <c r="F28">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G28">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1314,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>894.92249900000002</v>
+        <v>894.92249916666651</v>
       </c>
       <c r="E29">
-        <v>2.5209054507969595E-2</v>
+        <v>2.2299999999999994E-6</v>
       </c>
       <c r="F29">
-        <v>22.560150057699367</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G29">
-        <v>3.2799999999999999E-6</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1331,25 +1333,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>2.4576062914721059E-2</v>
+        <v>0.16364448087293901</v>
       </c>
       <c r="E30">
-        <v>8718.1239999999998</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F30">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G30">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1357,25 +1359,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>0.3650036864094372</v>
+        <v>3.7475332321759747</v>
       </c>
       <c r="E31">
-        <v>586.99999999999989</v>
+        <v>6.02</v>
       </c>
       <c r="F31">
-        <v>214.2571639223396</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G31">
-        <v>2.6836999999999998E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1383,25 +1385,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>2.4583614919863089E-2</v>
+        <v>894.92249900000002</v>
       </c>
       <c r="E32">
-        <v>8724.1440000000021</v>
+        <v>2.5209054507969595E-2</v>
       </c>
       <c r="F32">
-        <v>214.47099660143411</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G32">
-        <v>2.6861000000000002E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1409,25 +1411,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>1.6766025375346629E-2</v>
+        <v>2.4576062914721059E-2</v>
       </c>
       <c r="E33">
-        <v>12792</v>
+        <v>8718.1239999999998</v>
       </c>
       <c r="F33">
-        <v>214.47099660143411</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G33">
-        <v>2.6861000000000002E-4</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1435,25 +1437,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34">
-        <v>794.61066900000014</v>
+        <v>0.3650036864094372</v>
       </c>
       <c r="E34">
-        <v>1.8984839999999996E-2</v>
+        <v>586.99999999999989</v>
       </c>
       <c r="F34">
-        <v>15.08555641325796</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G34">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1461,25 +1463,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>0.12960100011389999</v>
+        <v>2.4583614919863089E-2</v>
       </c>
       <c r="E35">
-        <v>116.4</v>
+        <v>8724.1440000000021</v>
       </c>
       <c r="F35">
-        <v>15.08555641325796</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G35">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1487,129 +1489,129 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>1.1802999999999999</v>
+        <v>1.6766025375346629E-2</v>
       </c>
       <c r="E36">
-        <v>57</v>
+        <v>12792</v>
       </c>
       <c r="F36">
-        <v>67.277100000000004</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G36">
-        <v>5.7000000000000002E-2</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>1.1802999999999999</v>
+        <v>794.61066900000014</v>
       </c>
       <c r="E37">
-        <v>34</v>
+        <v>1.8984839999999996E-2</v>
       </c>
       <c r="F37">
-        <v>40.130200000000002</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G37">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>1.1801999999999999</v>
+        <v>0.12960100011389999</v>
       </c>
       <c r="E38">
-        <v>94</v>
+        <v>116.4</v>
       </c>
       <c r="F38">
-        <v>110.9388</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G38">
-        <v>9.4E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45560.642361111109</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>0.15079999999999999</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E39">
-        <v>1456.1</v>
+        <v>57</v>
       </c>
       <c r="F39">
-        <v>219.57988</v>
+        <v>67.277100000000004</v>
       </c>
       <c r="G39">
-        <v>0.21957988000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>60330.294086166672</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E40">
-        <v>1.3220300000000003E-3</v>
+        <v>34</v>
       </c>
       <c r="F40">
-        <v>79.75845869073494</v>
+        <v>40.130200000000002</v>
       </c>
       <c r="G40">
-        <v>7.2999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -1626,16 +1628,16 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>1.092581625900479</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E41">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F41">
-        <v>79.75845869073494</v>
+        <v>110.9388</v>
       </c>
       <c r="G41">
-        <v>7.2999999999999995E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -1643,129 +1645,129 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42">
-        <v>64353.810126000011</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="E42">
-        <v>2.5412999999999998E-3</v>
+        <v>1456.1</v>
       </c>
       <c r="F42">
-        <v>163.5423376732038</v>
+        <v>219.57988</v>
       </c>
       <c r="G42">
-        <v>0.98499999999999999</v>
+        <v>0.21957988000000001</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45529.90896990741</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>0.16603283012507999</v>
+        <v>60330.294086166672</v>
       </c>
       <c r="E43">
-        <v>985</v>
+        <v>1.3220300000000003E-3</v>
       </c>
       <c r="F43">
-        <v>163.5423376732038</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G43">
-        <v>0.98499999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45529.906527777777</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>0.16550000000000001</v>
+        <v>1.092581625900479</v>
       </c>
       <c r="E44">
-        <v>453</v>
+        <v>73</v>
       </c>
       <c r="F44">
-        <v>74.971500000000006</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G44">
-        <v>9.7360000000000003E-5</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45529.906145833331</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>0.34300000000000003</v>
+        <v>64353.810126000011</v>
       </c>
       <c r="E45">
-        <v>218.6</v>
+        <v>2.5412999999999998E-3</v>
       </c>
       <c r="F45">
-        <v>74.979799999999997</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G45">
-        <v>9.7349999999999995E-5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>580.5</v>
+        <v>0.16603283012507999</v>
       </c>
       <c r="E46">
-        <v>0.10150559999999997</v>
+        <v>985</v>
       </c>
       <c r="F46">
-        <v>58.924000799999988</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G46">
-        <v>0.371</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -1773,7 +1775,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -1782,42 +1784,42 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>0.15882479999999999</v>
+        <v>0.16550000000000001</v>
       </c>
       <c r="E47">
-        <v>370.99999999999994</v>
+        <v>453</v>
       </c>
       <c r="F47">
-        <v>58.924000799999988</v>
+        <v>74.971500000000006</v>
       </c>
       <c r="G47">
-        <v>0.371</v>
+        <v>9.7360000000000003E-5</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45500.560335648152</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>68797.238685499993</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E48">
-        <v>3.1044000000000004E-4</v>
+        <v>218.6</v>
       </c>
       <c r="F48">
-        <v>21.357414777526621</v>
+        <v>74.979799999999997</v>
       </c>
       <c r="G48">
-        <v>2.709E-5</v>
+        <v>9.7349999999999995E-5</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -1825,77 +1827,77 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45500.560335648152</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49">
-        <v>0.136906504984145</v>
+        <v>580.5</v>
       </c>
       <c r="E49">
-        <v>156</v>
+        <v>0.10150559999999997</v>
       </c>
       <c r="F49">
-        <v>21.357414777526621</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G49">
-        <v>2.709E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45500.559224537043</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>68786.233699999997</v>
+        <v>0.15882479999999999</v>
       </c>
       <c r="E50">
-        <v>2.7748800000000005E-4</v>
+        <v>370.99999999999994</v>
       </c>
       <c r="F50">
-        <v>19.087354416945601</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G50">
-        <v>2.4470000000000001E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>2651.0214467979999</v>
+        <v>68797.238685499993</v>
       </c>
       <c r="E51">
-        <v>7.1999999999999998E-3</v>
+        <v>3.1044000000000004E-4</v>
       </c>
       <c r="F51">
-        <v>19.087354416945601</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G51">
-        <v>2.4470000000000001E-5</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1903,25 +1905,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>68786.233699999997</v>
+        <v>0.136906504984145</v>
       </c>
       <c r="E52">
-        <v>1.4529580000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="F52">
-        <v>99.943508544284597</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G52">
-        <v>1.2672000000000001E-4</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1932,22 +1934,22 @@
         <v>45500.559224537043</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>2651.0214467979999</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E53">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7748800000000005E-4</v>
       </c>
       <c r="F53">
-        <v>99.943508544284597</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G53">
-        <v>1.2672000000000001E-4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1955,51 +1957,51 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45488.037268518521</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>1.00660569</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E54">
-        <v>194.71378021999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F54">
-        <v>200</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45479.777083333327</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55">
-        <v>485.5</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>1.4529580000000001E-3</v>
       </c>
       <c r="F55">
-        <v>48.55</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G55">
-        <v>7.4999999999999993E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -2007,25 +2009,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45479.76871527778</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>0.39800000000000002</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E56">
-        <v>85.6</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="F56">
-        <v>34.068800000000003</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G56">
-        <v>4.8569999999999997E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2033,51 +2035,51 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45479.768495370372</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>524.6</v>
+        <v>1.00660569</v>
       </c>
       <c r="E57">
-        <v>6.5000000000000002E-2</v>
+        <v>194.71378021999999</v>
       </c>
       <c r="F57">
-        <v>34.098999999999997</v>
+        <v>200</v>
       </c>
       <c r="G57">
-        <v>4.8730000000000003E-5</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45479.673125000001</v>
+        <v>45479.777083333327</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58">
-        <v>2.4140000000000002E-2</v>
+        <v>485.5</v>
       </c>
       <c r="E58">
-        <v>1976.8</v>
+        <v>0.1</v>
       </c>
       <c r="F58">
-        <v>47.719951999999999</v>
+        <v>48.55</v>
       </c>
       <c r="G58">
-        <v>6.8789999999999997E-5</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2085,25 +2087,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45479.672395833331</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>9.2099999999999999E-6</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E59">
-        <v>5181574</v>
+        <v>85.6</v>
       </c>
       <c r="F59">
-        <v>47.722296540000002</v>
+        <v>34.068800000000003</v>
       </c>
       <c r="G59">
-        <v>6.8889999999999999E-5</v>
+        <v>4.8569999999999997E-5</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2111,51 +2113,51 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45459.611851851849</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60">
-        <v>2.0114E-2</v>
+        <v>524.6</v>
       </c>
       <c r="E60">
-        <v>2036</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F60">
-        <v>40.952103999999999</v>
+        <v>34.098999999999997</v>
       </c>
       <c r="G60">
-        <v>4.0952099999999998E-2</v>
+        <v>4.8730000000000003E-5</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61">
-        <v>1.9619000000000001E-2</v>
+        <v>2.4140000000000002E-2</v>
       </c>
       <c r="E61">
-        <v>88</v>
+        <v>1976.8</v>
       </c>
       <c r="F61">
-        <v>1.726472</v>
+        <v>47.719951999999999</v>
       </c>
       <c r="G61">
-        <v>2.2000000000000001E-6</v>
+        <v>6.8789999999999997E-5</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2163,77 +2165,77 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>1.9619000000000001E-2</v>
+        <v>9.2099999999999999E-6</v>
       </c>
       <c r="E62">
-        <v>1950</v>
+        <v>5181574</v>
       </c>
       <c r="F62">
-        <v>38.25705</v>
+        <v>47.722296540000002</v>
       </c>
       <c r="G62">
-        <v>1.95</v>
+        <v>6.8889999999999999E-5</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45457.954560185193</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>0.50849999999999995</v>
+        <v>2.0114E-2</v>
       </c>
       <c r="E63">
-        <v>9.5</v>
+        <v>2036</v>
       </c>
       <c r="F63">
-        <v>4.8307500000000001</v>
+        <v>40.952103999999999</v>
       </c>
       <c r="G63">
-        <v>6.02E-6</v>
+        <v>4.0952099999999998E-2</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45457.954560185193</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>0.50860000000000005</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E64">
-        <v>29.8</v>
+        <v>88</v>
       </c>
       <c r="F64">
-        <v>15.156280000000001</v>
+        <v>1.726472</v>
       </c>
       <c r="G64">
-        <v>1.891E-5</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -2241,103 +2243,103 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45457.95416666667</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>1.145E-5</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E65">
-        <v>1746724</v>
+        <v>1950</v>
       </c>
       <c r="F65">
-        <v>19.999989800000002</v>
+        <v>38.25705</v>
       </c>
       <c r="G65">
-        <v>2.4329999999999999E-5</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45455.630983796298</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>3.7824000000000003E-2</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="E66">
-        <v>3465.2</v>
+        <v>9.5</v>
       </c>
       <c r="F66">
-        <v>131.06772480000001</v>
+        <v>4.8307500000000001</v>
       </c>
       <c r="G66">
-        <v>3.4651999999999998</v>
+        <v>6.02E-6</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45455.630624999998</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67">
-        <v>69787.490000000005</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="E67">
-        <v>1.8799999999999999E-3</v>
+        <v>29.8</v>
       </c>
       <c r="F67">
-        <v>131.20048120000001</v>
+        <v>15.156280000000001</v>
       </c>
       <c r="G67">
-        <v>0.13120048000000001</v>
+        <v>1.891E-5</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45455.036585648151</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>67225.228872500011</v>
+        <v>1.145E-5</v>
       </c>
       <c r="E68">
-        <v>1.384E-4</v>
+        <v>1746724</v>
       </c>
       <c r="F68">
-        <v>9.303971675954001</v>
+        <v>19.999989800000002</v>
       </c>
       <c r="G68">
-        <v>1.1759999999999999E-5</v>
+        <v>2.4329999999999999E-5</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
@@ -2345,106 +2347,106 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45455.036585648151</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>0.116299645949425</v>
+        <v>3.7824000000000003E-2</v>
       </c>
       <c r="E69">
-        <v>80</v>
+        <v>3465.2</v>
       </c>
       <c r="F69">
-        <v>9.303971675954001</v>
+        <v>131.06772480000001</v>
       </c>
       <c r="G69">
-        <v>1.1759999999999999E-5</v>
+        <v>3.4651999999999998</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>69351.951598999993</v>
+        <v>69787.490000000005</v>
       </c>
       <c r="E70">
-        <v>1.2520929999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F70">
-        <v>86.835093133446691</v>
+        <v>131.20048120000001</v>
       </c>
       <c r="G70">
-        <v>1.2500000000000001E-6</v>
+        <v>0.13120048000000001</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>683.74089081454088</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E71">
-        <v>0.127</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F71">
-        <v>86.835093133446691</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G71">
-        <v>1.2500000000000001E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>69351.951598999993</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E72">
-        <v>2.9577000000000002E-3</v>
+        <v>80</v>
       </c>
       <c r="F72">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G72">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2452,22 +2454,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E73">
-        <v>0.3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F73">
-        <v>205.12226724436229</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G73">
-        <v>2.96E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
@@ -2478,22 +2480,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E74">
-        <v>2.4647499999999995E-3</v>
+        <v>0.127</v>
       </c>
       <c r="F74">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G74">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H74" t="s">
         <v>27</v>
@@ -2504,22 +2506,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E75">
-        <v>0.25</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F75">
-        <v>170.93522270363519</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G75">
-        <v>2.4600000000000002E-6</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
@@ -2530,25 +2532,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E76">
-        <v>4.929499999999999E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F76">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G76">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2556,25 +2558,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E77">
-        <v>0.5</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F77">
-        <v>341.87044540727038</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G77">
-        <v>3.7500000000000001E-4</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,25 +2584,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E78">
-        <v>8.0843799999999997E-4</v>
+        <v>0.25</v>
       </c>
       <c r="F78">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G78">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H78" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2608,22 +2610,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D79">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E79">
-        <v>8.2000000000000003E-2</v>
+        <v>4.929499999999999E-3</v>
       </c>
       <c r="F79">
-        <v>56.066753046792357</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G79">
-        <v>6.1610000000000001E-5</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -2631,25 +2633,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>683.89481871559008</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E80">
-        <v>1.121</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
-        <v>766.64609178017645</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G80">
-        <v>8.4075000000000003E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
@@ -2657,25 +2659,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>69360.529281499999</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E81">
-        <v>1.1053060000000002E-2</v>
+        <v>8.0843799999999997E-4</v>
       </c>
       <c r="F81">
-        <v>766.64609178017645</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G81">
-        <v>8.4075000000000003E-4</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
@@ -2683,7 +2685,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45451.504004629627</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -2692,16 +2694,16 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <v>681.2</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E82">
-        <v>1.4999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F82">
-        <v>10.218</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G82">
-        <v>1.1240000000000001E-5</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -2709,207 +2711,207 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83">
-        <v>4.1304E-2</v>
+        <v>683.89481871559008</v>
       </c>
       <c r="E83">
-        <v>1210.5</v>
+        <v>1.121</v>
       </c>
       <c r="F83">
-        <v>49.998491999999999</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G83">
-        <v>1.2104999999999999</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>4.1305000000000001E-2</v>
+        <v>69360.529281499999</v>
       </c>
       <c r="E84">
-        <v>1082.2</v>
+        <v>1.1053060000000002E-2</v>
       </c>
       <c r="F84">
-        <v>44.700271000000001</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G84">
-        <v>1.0822000000000001</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45450.921388888892</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85">
-        <v>21.97</v>
+        <v>681.2</v>
       </c>
       <c r="E85">
-        <v>2.0099999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F85">
-        <v>44.159700000000001</v>
+        <v>10.218</v>
       </c>
       <c r="G85">
-        <v>4.4159700000000003E-2</v>
+        <v>1.1240000000000001E-5</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45450.920393518521</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>39.244999999999997</v>
+        <v>4.1304E-2</v>
       </c>
       <c r="E86">
-        <v>1.3</v>
+        <v>1210.5</v>
       </c>
       <c r="F86">
-        <v>51.018500000000003</v>
+        <v>49.998491999999999</v>
       </c>
       <c r="G86">
-        <v>5.1018500000000001E-2</v>
+        <v>1.2104999999999999</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87">
-        <v>70502.707116500009</v>
+        <v>4.1305000000000001E-2</v>
       </c>
       <c r="E87">
-        <v>5.1688999999999999E-5</v>
+        <v>1082.2</v>
       </c>
       <c r="F87">
-        <v>3.6442144281447688</v>
+        <v>44.700271000000001</v>
       </c>
       <c r="G87">
-        <v>4.9999999999999998E-8</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>3.312922207404335</v>
+        <v>21.97</v>
       </c>
       <c r="E88">
-        <v>1.1000000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F88">
-        <v>3.6442144281447688</v>
+        <v>44.159700000000001</v>
       </c>
       <c r="G88">
-        <v>4.9999999999999998E-8</v>
+        <v>4.4159700000000003E-2</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45447.949826388889</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>70534.997166833316</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="E89">
-        <v>2.4904700000000007E-4</v>
+        <v>1.3</v>
       </c>
       <c r="F89">
-        <v>17.566529439408342</v>
+        <v>51.018500000000003</v>
       </c>
       <c r="G89">
-        <v>2.4999999999999999E-7</v>
+        <v>5.1018500000000001E-2</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45447.949826388889</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>3.314439516869498</v>
+        <v>70502.707116500009</v>
       </c>
       <c r="E90">
-        <v>5.3</v>
+        <v>5.1688999999999999E-5</v>
       </c>
       <c r="F90">
-        <v>17.566529439408342</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G90">
-        <v>2.4999999999999999E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -2917,77 +2919,77 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>3810.4583321666669</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E91">
-        <v>1.363E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F91">
-        <v>51.936547067431668</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G91">
-        <v>1.363E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>0.51936547067431671</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F92">
-        <v>51.936547067431668</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G92">
-        <v>1.363E-5</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>69129.989500166674</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E93">
-        <v>6.9092000000000003E-4</v>
+        <v>5.3</v>
       </c>
       <c r="F93">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G93">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -2995,77 +2997,77 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45446.496493055558</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>0.51916622114625177</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E94">
-        <v>92</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F94">
-        <v>47.763292345455163</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G94">
-        <v>6.8999999999999996E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>69115.089471833344</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E95">
-        <v>6.6420899999999991E-4</v>
+        <v>100</v>
       </c>
       <c r="F95">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G95">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>7.2868038830153896</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E96">
-        <v>6.3</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F96">
-        <v>45.90686446299695</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G96">
-        <v>6.6000000000000003E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H96" t="s">
         <v>27</v>
@@ -3073,25 +3075,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>67749.869200166664</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E97">
-        <v>9.3258000000000002E-4</v>
+        <v>92</v>
       </c>
       <c r="F97">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G97">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H97" t="s">
         <v>27</v>
@@ -3099,25 +3101,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98">
-        <v>21.273458928852332</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E98">
-        <v>2.97</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F98">
-        <v>63.182173018691429</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G98">
-        <v>9.2999999999999999E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H98" t="s">
         <v>27</v>
@@ -3125,25 +3127,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>67695.037825500011</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E99">
-        <v>7.3358999999999989E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F99">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G99">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H99" t="s">
         <v>27</v>
@@ -3151,25 +3153,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45441.908472222232</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>7.6400619689859308</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E100">
-        <v>6.5</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F100">
-        <v>49.660402798408548</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G100">
-        <v>7.3E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H100" t="s">
         <v>27</v>
@@ -3177,33 +3179,33 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45440.886192129627</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>64131.089181479998</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E101">
-        <v>7.6406E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -3212,16 +3214,16 @@
         <v>8</v>
       </c>
       <c r="D102">
-        <v>69531.813510500011</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E102">
-        <v>4.0046400000000006E-4</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F102">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G102">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H102" t="s">
         <v>27</v>
@@ -3229,25 +3231,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103">
-        <v>25.782396449693401</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E103">
-        <v>1.08</v>
+        <v>6.5</v>
       </c>
       <c r="F103">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G103">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H103" t="s">
         <v>27</v>
@@ -3255,51 +3257,51 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45439.965474537043</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104">
-        <v>69520.879412499999</v>
+        <v>64131.089181479998</v>
       </c>
       <c r="E104">
-        <v>2.31E-4</v>
+        <v>7.6406E-4</v>
       </c>
       <c r="F104">
-        <v>16.0593231442875</v>
+        <v>50</v>
       </c>
       <c r="G104">
-        <v>2.2999999999999999E-7</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45439.965474537043</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>2.2941890206125</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F105">
-        <v>16.0593231442875</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G105">
-        <v>2.2999999999999999E-7</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
@@ -3307,103 +3309,103 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45438.413587962961</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>64764.057269930003</v>
+        <v>25.782396449693401</v>
       </c>
       <c r="E106">
-        <v>3.02637E-3</v>
+        <v>1.08</v>
       </c>
       <c r="F106">
-        <v>200</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45438.066701388889</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>21.880480030000001</v>
+        <v>69520.879412499999</v>
       </c>
       <c r="E107">
-        <v>3.3587014499999999</v>
+        <v>2.31E-4</v>
       </c>
       <c r="F107">
-        <v>75</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45438.064282407409</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>21.400680940000001</v>
+        <v>2.2941890206125</v>
       </c>
       <c r="E108">
-        <v>4.5792935400000001</v>
+        <v>7</v>
       </c>
       <c r="F108">
-        <v>100</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45438.062881944446</v>
+        <v>45438.413587962961</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109">
-        <v>2.0397180000000001E-2</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E109">
-        <v>4804.5860693499999</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -3411,25 +3413,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45438.016701388893</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>0.50915756999999995</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E110">
-        <v>288.7121952</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F110">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
@@ -3437,19 +3439,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111">
-        <v>0.50817648999999998</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E111">
-        <v>192.84638819</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -3463,19 +3465,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>1.414E-5</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E112">
-        <v>6928298.2400000002</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F112">
         <v>100</v>
@@ -3489,25 +3491,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>7.6274206099999997</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E113">
-        <v>12.848380199999999</v>
+        <v>288.7121952</v>
       </c>
       <c r="F113">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -3515,19 +3517,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>2571.01241222</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E114">
-        <v>3.8117280000000003E-2</v>
+        <v>192.84638819</v>
       </c>
       <c r="F114">
         <v>100</v>
@@ -3541,25 +3543,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45436.935613425929</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>3502.0461955599999</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E115">
-        <v>4.1975459999999999E-2</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F115">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
@@ -3567,19 +3569,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45436.934664351851</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>157.11043262000001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E116">
-        <v>0.62376507000000003</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F116">
         <v>100</v>
@@ -3593,19 +3595,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45436.433229166672</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117">
-        <v>63003.060148639997</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E117">
-        <v>1.5554799999999999E-3</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F117">
         <v>100</v>
@@ -3619,25 +3621,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45426.641608796293</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>57930.577887070001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E118">
-        <v>8.4584000000000005E-4</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F118">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
@@ -3645,7 +3647,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -3654,10 +3656,10 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>140.23996862000001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E119">
-        <v>0.69880220999999998</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F119">
         <v>100</v>
@@ -3671,25 +3673,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>10.580849669999999</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E120">
-        <v>1.85240322</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F120">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>18</v>
@@ -3697,25 +3699,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45422.83865740741</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>2752.3331128700001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E121">
-        <v>5.3372899999999997E-3</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F121">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G121">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
@@ -3723,25 +3725,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45422.837546296287</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122">
-        <v>57425.239760140001</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E122">
-        <v>5.1197000000000005E-4</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F122">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G122">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
@@ -3749,25 +3751,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45422.835844907408</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>2.10457801</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E123">
-        <v>6.9800216099999997</v>
+        <v>1.85240322</v>
       </c>
       <c r="F123">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G123">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
@@ -3775,25 +3777,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45422.833622685182</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124">
-        <v>0.1200639</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E124">
-        <v>163.24640485</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F124">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
@@ -3801,25 +3803,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125">
-        <v>140.17980062000001</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E125">
-        <v>0.13982043</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
@@ -3827,19 +3829,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126">
-        <v>0.79988477999999996</v>
+        <v>2.10457801</v>
       </c>
       <c r="E126">
-        <v>18.365145070000001</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F126">
         <v>15</v>
@@ -3853,19 +3855,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127">
-        <v>143.75063899</v>
+        <v>0.1200639</v>
       </c>
       <c r="E127">
-        <v>0.13634721999999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F127">
         <v>20</v>
@@ -3879,25 +3881,25 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128">
-        <v>0.93873598000000003</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E128">
-        <v>26.088272459999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F128">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G128">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="s">
         <v>18</v>
@@ -3905,25 +3907,25 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129">
-        <v>2583.1506530400002</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E129">
-        <v>6.8288699999999999E-3</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G129">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H129" t="s">
         <v>18</v>
@@ -3931,25 +3933,25 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130">
-        <v>2.1432031</v>
+        <v>143.75063899</v>
       </c>
       <c r="E130">
-        <v>11.426821869999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F130">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G130">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="s">
         <v>18</v>
@@ -3957,19 +3959,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131">
-        <v>10.234263159999999</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E131">
-        <v>2.3929421799999999</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F131">
         <v>25</v>
@@ -3983,25 +3985,25 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132">
-        <v>0.11898276000000001</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E132">
-        <v>205.82814242000001</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F132">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G132">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H132" t="s">
         <v>18</v>
@@ -4009,19 +4011,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="D133">
-        <v>3.8034991200000001</v>
+        <v>2.1432031</v>
       </c>
       <c r="E133">
-        <v>6.4388078499999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F133">
         <v>25</v>
@@ -4035,19 +4037,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134">
-        <v>2912.2689564799998</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E134">
-        <v>8.4072299999999999E-3</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F134">
         <v>25</v>
@@ -4061,19 +4063,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45418.969189814823</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135">
-        <v>59899.712723249999</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E135">
-        <v>4.0884999999999999E-4</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F135">
         <v>25</v>
@@ -4087,19 +4089,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45414.950277777767</v>
+        <v>45421.817245370366</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="D136">
-        <v>131.18665751</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E136">
-        <v>0.18668056999999999</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F136">
         <v>25</v>
@@ -4108,6 +4110,84 @@
         <v>0.51</v>
       </c>
       <c r="H136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E137">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F137">
+        <v>25</v>
+      </c>
+      <c r="G137">
+        <v>0.51</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E138">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F138">
+        <v>25</v>
+      </c>
+      <c r="G138">
+        <v>0.51</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>131.18665751</v>
+      </c>
+      <c r="E139">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F139">
+        <v>25</v>
+      </c>
+      <c r="G139">
+        <v>0.51</v>
+      </c>
+      <c r="H139" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trade History Reconstructed.xlsx
+++ b/Trade History Reconstructed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B5F70-B995-4447-A574-30DAED4863D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5620A-BC8A-499C-BB3E-E2982743D925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="61">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -557,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,183 +600,183 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>46081.500879629632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1702.7</v>
+      </c>
+      <c r="F2">
+        <v>475.22357</v>
+      </c>
+      <c r="G2">
+        <v>1.6175649999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>46081.500462962962</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>63986.13</v>
+      </c>
+      <c r="E3">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="F3">
+        <v>29.433619799999999</v>
+      </c>
+      <c r="G3">
+        <v>3.5280000000000001E-5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>46081.5003125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>594.34</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>445.755</v>
+      </c>
+      <c r="G4">
+        <v>5.3430000000000003E-4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>46054.616527777776</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>770.69</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>490.15884</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <f>0.00013893+0.00031421</f>
         <v>4.5313999999999999E-4</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>46054.61582175926</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>78597.2</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>1.14E-3</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>89.600808000000001</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>8.284E-5</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>46054.615127314813</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>0.28589999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>1399</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>399.97410000000002</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <f>0.00034668+0.00002329</f>
         <v>3.6996999999999996E-4</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>46023.116932870369</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>869.59</v>
-      </c>
-      <c r="E5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F5">
-        <v>72.175970000000007</v>
-      </c>
-      <c r="G5">
-        <v>5.9129999999999998E-5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>46023.116550925923</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>511.04</v>
-      </c>
-      <c r="E6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>5.6214399999999998</v>
-      </c>
-      <c r="G6">
-        <v>4.6E-6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>46023.116550925923</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>511.01</v>
-      </c>
-      <c r="E7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F7">
-        <v>7.6651499999999997</v>
-      </c>
-      <c r="G7">
-        <v>6.2700000000000001E-6</v>
-      </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46023.116550925923</v>
+        <v>46023.116932870369</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>511.08</v>
+        <v>869.59</v>
       </c>
       <c r="E8">
-        <v>1.0999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F8">
-        <v>5.62188</v>
+        <v>72.175970000000007</v>
       </c>
       <c r="G8">
-        <v>4.6E-6</v>
+        <v>5.9129999999999998E-5</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -784,25 +784,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>46023.11582175926</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>87764.99</v>
+        <v>511.04</v>
       </c>
       <c r="E9">
-        <v>5.5000000000000003E-4</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>48.270744499999999</v>
+        <v>5.6214399999999998</v>
       </c>
       <c r="G9">
-        <v>3.9549999999999999E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -810,25 +810,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45990.61078703704</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>0.28120000000000001</v>
+        <v>511.01</v>
       </c>
       <c r="E10">
-        <v>245.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>68.922120000000007</v>
+        <v>7.6651499999999997</v>
       </c>
       <c r="G10">
-        <v>5.596E-5</v>
+        <v>6.2700000000000001E-6</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45990.610358796293</v>
+        <v>46023.116550925923</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>460.21</v>
+        <v>511.08</v>
       </c>
       <c r="E11">
-        <v>4.8000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>22.09008</v>
+        <v>5.62188</v>
       </c>
       <c r="G11">
-        <v>1.7920000000000001E-5</v>
+        <v>4.6E-6</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -862,25 +862,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45990.609155092592</v>
+        <v>46023.11582175926</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>877.15</v>
+        <v>87764.99</v>
       </c>
       <c r="E12">
-        <v>0.10299999999999999</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="F12">
-        <v>90.346450000000004</v>
+        <v>48.270744499999999</v>
       </c>
       <c r="G12">
-        <v>7.3349999999999994E-5</v>
+        <v>3.9549999999999999E-5</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -888,25 +888,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45962.060810185183</v>
+        <v>45990.61078703704</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13">
-        <v>1088.98</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="E13">
-        <v>0.13600000000000001</v>
+        <v>245.1</v>
       </c>
       <c r="F13">
-        <v>148.10128</v>
+        <v>68.922120000000007</v>
       </c>
       <c r="G13">
-        <v>9.6899999999999997E-5</v>
+        <v>5.596E-5</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -914,155 +914,155 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45962.059664351851</v>
+        <v>45990.610358796293</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>0.29599999999999999</v>
+        <v>460.21</v>
       </c>
       <c r="E14">
-        <v>2624.2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>776.76319999999998</v>
+        <v>22.09008</v>
       </c>
       <c r="G14">
-        <v>2.4929899999999998</v>
+        <v>1.7920000000000001E-5</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45962.059664351851</v>
+        <v>45990.609155092592</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>0.29599999999999999</v>
+        <v>877.15</v>
       </c>
       <c r="E15">
-        <v>585.20000000000005</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F15">
-        <v>173.2192</v>
+        <v>90.346450000000004</v>
       </c>
       <c r="G15">
-        <v>0.55593999999999999</v>
+        <v>7.3349999999999994E-5</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45962.059027777781</v>
+        <v>45962.060810185183</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>109727.81</v>
+        <v>1088.98</v>
       </c>
       <c r="E16">
-        <v>1.0019999999999999E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F16">
+        <v>148.10128</v>
       </c>
       <c r="G16">
-        <v>1.0444990199999999</v>
+        <v>9.6899999999999997E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45931.030428240738</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>113954.4</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E17">
-        <v>3.96E-3</v>
+        <v>2624.2</v>
       </c>
       <c r="F17">
-        <v>451.25942400000002</v>
+        <v>776.76319999999998</v>
       </c>
       <c r="G17">
-        <v>3.8340000000000002E-5</v>
+        <v>2.4929899999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45931.029803240737</v>
+        <v>45962.059664351851</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0.33289999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E18">
-        <v>905.7</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="F18">
-        <v>301.50752999999997</v>
+        <v>173.2192</v>
       </c>
       <c r="G18">
-        <v>0.28643215</v>
+        <v>0.55593999999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45931.028958333336</v>
+        <v>45962.059027777781</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.33289999999999997</v>
+        <v>109727.81</v>
       </c>
       <c r="E19">
-        <v>452</v>
-      </c>
-      <c r="F19">
-        <v>150.4708</v>
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
       </c>
       <c r="G19">
-        <v>0.14294725999999999</v>
+        <v>1.0444990199999999</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1070,236 +1070,236 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>45931.030428240738</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>113954.4</v>
+      </c>
+      <c r="E20">
+        <v>3.96E-3</v>
+      </c>
+      <c r="F20">
+        <v>451.25942400000002</v>
+      </c>
+      <c r="G20">
+        <v>3.8340000000000002E-5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45931.029803240737</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E21">
+        <v>905.7</v>
+      </c>
+      <c r="F21">
+        <v>301.50752999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.28643215</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45931.028958333336</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E22">
+        <v>452</v>
+      </c>
+      <c r="F22">
+        <v>150.4708</v>
+      </c>
+      <c r="G22">
+        <v>0.14294725999999999</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45900.939155092594</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
         <v>0.34250000000000003</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>200.6</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>68.705500000000001</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <f>0.00001718+0.00003924</f>
         <v>5.6419999999999999E-5</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45900.938969907409</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>109079.99</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>68.720393700000002</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>5.6450000000000003E-5</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45900.936724537038</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
         <v>0.34241791999999999</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>2022.6</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>692.57447000000002</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <f>0.0004675+0.00003975+0.00003975+0.00002249</f>
         <v>5.6948999999999997E-4</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45900.936018518521</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>867.28</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>1.9E-2</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>16.47832</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>1.3529999999999999E-5</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45900.935787037037</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>4462.54</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>6.93E-2</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>309.25402200000002</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>2.5403999999999997E-4</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45900.935324074075</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
         <v>204.95</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>1.79</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>366.8605</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <f>0.00000622+0.00000454+0.00029064</f>
         <v>3.0140000000000001E-4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>841.90296799999999</v>
-      </c>
-      <c r="E26">
-        <v>1.6480521541527574E-5</v>
-      </c>
-      <c r="F26">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G26">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2.4577000000000002E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.56455222362371316</v>
-      </c>
-      <c r="F27">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G27">
-        <v>3.3000000000000002E-7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45891.845937500002</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="E28">
-        <v>0.90185245368865785</v>
-      </c>
-      <c r="F28">
-        <v>1.3875E-2</v>
-      </c>
-      <c r="G28">
-        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1316,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>894.92249916666651</v>
+        <v>841.90296799999999</v>
       </c>
       <c r="E29">
-        <v>2.2299999999999994E-6</v>
+        <v>1.6480521541527574E-5</v>
       </c>
       <c r="F29">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G29">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1336,22 +1336,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>0.16364448087293901</v>
+        <v>2.4577000000000002E-2</v>
       </c>
       <c r="E30">
-        <v>1.21952E-2</v>
+        <v>0.56455222362371316</v>
       </c>
       <c r="F30">
-        <v>1.9956771731416659E-3</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G30">
-        <v>4.0000000000000001E-8</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1362,22 +1362,22 @@
         <v>45891.845937500002</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>3.7475332321759747</v>
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>6.02</v>
+        <v>0.90185245368865785</v>
       </c>
       <c r="F31">
-        <v>22.560150057699367</v>
+        <v>1.3875E-2</v>
       </c>
       <c r="G31">
-        <v>3.2799999999999999E-6</v>
+        <v>3.3000000000000002E-7</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1394,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>894.92249900000002</v>
+        <v>894.92249916666651</v>
       </c>
       <c r="E32">
-        <v>2.5209054507969595E-2</v>
+        <v>2.2299999999999994E-6</v>
       </c>
       <c r="F32">
-        <v>22.560150057699367</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G32">
-        <v>3.2799999999999999E-6</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1411,25 +1411,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>2.4576062914721059E-2</v>
+        <v>0.16364448087293901</v>
       </c>
       <c r="E33">
-        <v>8718.1239999999998</v>
+        <v>1.21952E-2</v>
       </c>
       <c r="F33">
-        <v>214.2571639223396</v>
+        <v>1.9956771731416659E-3</v>
       </c>
       <c r="G33">
-        <v>2.6836999999999998E-4</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1437,25 +1437,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45891.844282407408</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>0.3650036864094372</v>
+        <v>3.7475332321759747</v>
       </c>
       <c r="E34">
-        <v>586.99999999999989</v>
+        <v>6.02</v>
       </c>
       <c r="F34">
-        <v>214.2571639223396</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G34">
-        <v>2.6836999999999998E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1463,25 +1463,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.845937500002</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>2.4583614919863089E-2</v>
+        <v>894.92249900000002</v>
       </c>
       <c r="E35">
-        <v>8724.1440000000021</v>
+        <v>2.5209054507969595E-2</v>
       </c>
       <c r="F35">
-        <v>214.47099660143411</v>
+        <v>22.560150057699367</v>
       </c>
       <c r="G35">
-        <v>2.6861000000000002E-4</v>
+        <v>3.2799999999999999E-6</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1489,25 +1489,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45891.843576388892</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>1.6766025375346629E-2</v>
+        <v>2.4576062914721059E-2</v>
       </c>
       <c r="E36">
-        <v>12792</v>
+        <v>8718.1239999999998</v>
       </c>
       <c r="F36">
-        <v>214.47099660143411</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G36">
-        <v>2.6861000000000002E-4</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1515,25 +1515,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.844282407408</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>794.61066900000014</v>
+        <v>0.3650036864094372</v>
       </c>
       <c r="E37">
-        <v>1.8984839999999996E-2</v>
+        <v>586.99999999999989</v>
       </c>
       <c r="F37">
-        <v>15.08555641325796</v>
+        <v>214.2571639223396</v>
       </c>
       <c r="G37">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6836999999999998E-4</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1541,25 +1541,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45878.026342592602</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>0.12960100011389999</v>
+        <v>2.4583614919863089E-2</v>
       </c>
       <c r="E38">
-        <v>116.4</v>
+        <v>8724.1440000000021</v>
       </c>
       <c r="F38">
-        <v>15.08555641325796</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G38">
-        <v>1.4229999999999999E-5</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -1567,129 +1567,129 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45560.642766203702</v>
+        <v>45891.843576388892</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>1.1802999999999999</v>
+        <v>1.6766025375346629E-2</v>
       </c>
       <c r="E39">
-        <v>57</v>
+        <v>12792</v>
       </c>
       <c r="F39">
-        <v>67.277100000000004</v>
+        <v>214.47099660143411</v>
       </c>
       <c r="G39">
-        <v>5.7000000000000002E-2</v>
+        <v>2.6861000000000002E-4</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>1.1802999999999999</v>
+        <v>794.61066900000014</v>
       </c>
       <c r="E40">
-        <v>34</v>
+        <v>1.8984839999999996E-2</v>
       </c>
       <c r="F40">
-        <v>40.130200000000002</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G40">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45560.642766203702</v>
+        <v>45878.026342592602</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>1.1801999999999999</v>
+        <v>0.12960100011389999</v>
       </c>
       <c r="E41">
-        <v>94</v>
+        <v>116.4</v>
       </c>
       <c r="F41">
-        <v>110.9388</v>
+        <v>15.08555641325796</v>
       </c>
       <c r="G41">
-        <v>9.4E-2</v>
+        <v>1.4229999999999999E-5</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45560.642361111109</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0.15079999999999999</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E42">
-        <v>1456.1</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>219.57988</v>
+        <v>67.277100000000004</v>
       </c>
       <c r="G42">
-        <v>0.21957988000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>60330.294086166672</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="E43">
-        <v>1.3220300000000003E-3</v>
+        <v>34</v>
       </c>
       <c r="F43">
-        <v>79.75845869073494</v>
+        <v>40.130200000000002</v>
       </c>
       <c r="G43">
-        <v>7.2999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45553.906388888892</v>
+        <v>45560.642766203702</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -1706,16 +1706,16 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>1.092581625900479</v>
+        <v>1.1801999999999999</v>
       </c>
       <c r="E44">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F44">
-        <v>79.75845869073494</v>
+        <v>110.9388</v>
       </c>
       <c r="G44">
-        <v>7.2999999999999995E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
@@ -1723,129 +1723,129 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45529.90896990741</v>
+        <v>45560.642361111109</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>64353.810126000011</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="E45">
-        <v>2.5412999999999998E-3</v>
+        <v>1456.1</v>
       </c>
       <c r="F45">
-        <v>163.5423376732038</v>
+        <v>219.57988</v>
       </c>
       <c r="G45">
-        <v>0.98499999999999999</v>
+        <v>0.21957988000000001</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45529.90896990741</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>0.16603283012507999</v>
+        <v>60330.294086166672</v>
       </c>
       <c r="E46">
-        <v>985</v>
+        <v>1.3220300000000003E-3</v>
       </c>
       <c r="F46">
-        <v>163.5423376732038</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G46">
-        <v>0.98499999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45529.906527777777</v>
+        <v>45553.906388888892</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>0.16550000000000001</v>
+        <v>1.092581625900479</v>
       </c>
       <c r="E47">
-        <v>453</v>
+        <v>73</v>
       </c>
       <c r="F47">
-        <v>74.971500000000006</v>
+        <v>79.75845869073494</v>
       </c>
       <c r="G47">
-        <v>9.7360000000000003E-5</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45529.906145833331</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>0.34300000000000003</v>
+        <v>64353.810126000011</v>
       </c>
       <c r="E48">
-        <v>218.6</v>
+        <v>2.5412999999999998E-3</v>
       </c>
       <c r="F48">
-        <v>74.979799999999997</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G48">
-        <v>9.7349999999999995E-5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.90896990741</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>580.5</v>
+        <v>0.16603283012507999</v>
       </c>
       <c r="E49">
-        <v>0.10150559999999997</v>
+        <v>985</v>
       </c>
       <c r="F49">
-        <v>58.924000799999988</v>
+        <v>163.5423376732038</v>
       </c>
       <c r="G49">
-        <v>0.371</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45528.998402777783</v>
+        <v>45529.906527777777</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -1862,42 +1862,42 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>0.15882479999999999</v>
+        <v>0.16550000000000001</v>
       </c>
       <c r="E50">
-        <v>370.99999999999994</v>
+        <v>453</v>
       </c>
       <c r="F50">
-        <v>58.924000799999988</v>
+        <v>74.971500000000006</v>
       </c>
       <c r="G50">
-        <v>0.371</v>
+        <v>9.7360000000000003E-5</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45500.560335648152</v>
+        <v>45529.906145833331</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>68797.238685499993</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E51">
-        <v>3.1044000000000004E-4</v>
+        <v>218.6</v>
       </c>
       <c r="F51">
-        <v>21.357414777526621</v>
+        <v>74.979799999999997</v>
       </c>
       <c r="G51">
-        <v>2.709E-5</v>
+        <v>9.7349999999999995E-5</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1905,77 +1905,77 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45500.560335648152</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52">
-        <v>0.136906504984145</v>
+        <v>580.5</v>
       </c>
       <c r="E52">
-        <v>156</v>
+        <v>0.10150559999999997</v>
       </c>
       <c r="F52">
-        <v>21.357414777526621</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G52">
-        <v>2.709E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45500.559224537043</v>
+        <v>45528.998402777783</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>68786.233699999997</v>
+        <v>0.15882479999999999</v>
       </c>
       <c r="E53">
-        <v>2.7748800000000005E-4</v>
+        <v>370.99999999999994</v>
       </c>
       <c r="F53">
-        <v>19.087354416945601</v>
+        <v>58.924000799999988</v>
       </c>
       <c r="G53">
-        <v>2.4470000000000001E-5</v>
+        <v>0.371</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>2651.0214467979999</v>
+        <v>68797.238685499993</v>
       </c>
       <c r="E54">
-        <v>7.1999999999999998E-3</v>
+        <v>3.1044000000000004E-4</v>
       </c>
       <c r="F54">
-        <v>19.087354416945601</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G54">
-        <v>2.4470000000000001E-5</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -1983,25 +1983,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45500.559224537043</v>
+        <v>45500.560335648152</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>68786.233699999997</v>
+        <v>0.136906504984145</v>
       </c>
       <c r="E55">
-        <v>1.4529580000000001E-3</v>
+        <v>156</v>
       </c>
       <c r="F55">
-        <v>99.943508544284597</v>
+        <v>21.357414777526621</v>
       </c>
       <c r="G55">
-        <v>1.2672000000000001E-4</v>
+        <v>2.709E-5</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -2012,22 +2012,22 @@
         <v>45500.559224537043</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>2651.0214467979999</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E56">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7748800000000005E-4</v>
       </c>
       <c r="F56">
-        <v>99.943508544284597</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G56">
-        <v>1.2672000000000001E-4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2035,51 +2035,51 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45488.037268518521</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>1.00660569</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E57">
-        <v>194.71378021999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>19.087354416945601</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2.4470000000000001E-5</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45479.777083333327</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58">
-        <v>485.5</v>
+        <v>68786.233699999997</v>
       </c>
       <c r="E58">
-        <v>0.1</v>
+        <v>1.4529580000000001E-3</v>
       </c>
       <c r="F58">
-        <v>48.55</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G58">
-        <v>7.4999999999999993E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2087,25 +2087,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45479.76871527778</v>
+        <v>45500.559224537043</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>0.39800000000000002</v>
+        <v>2651.0214467979999</v>
       </c>
       <c r="E59">
-        <v>85.6</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="F59">
-        <v>34.068800000000003</v>
+        <v>99.943508544284597</v>
       </c>
       <c r="G59">
-        <v>4.8569999999999997E-5</v>
+        <v>1.2672000000000001E-4</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2113,51 +2113,51 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45479.768495370372</v>
+        <v>45488.037268518521</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>524.6</v>
+        <v>1.00660569</v>
       </c>
       <c r="E60">
-        <v>6.5000000000000002E-2</v>
+        <v>194.71378021999999</v>
       </c>
       <c r="F60">
-        <v>34.098999999999997</v>
+        <v>200</v>
       </c>
       <c r="G60">
-        <v>4.8730000000000003E-5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45479.673125000001</v>
+        <v>45479.777083333327</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61">
-        <v>2.4140000000000002E-2</v>
+        <v>485.5</v>
       </c>
       <c r="E61">
-        <v>1976.8</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
-        <v>47.719951999999999</v>
+        <v>48.55</v>
       </c>
       <c r="G61">
-        <v>6.8789999999999997E-5</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2165,25 +2165,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45479.672395833331</v>
+        <v>45479.76871527778</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>9.2099999999999999E-6</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E62">
-        <v>5181574</v>
+        <v>85.6</v>
       </c>
       <c r="F62">
-        <v>47.722296540000002</v>
+        <v>34.068800000000003</v>
       </c>
       <c r="G62">
-        <v>6.8889999999999999E-5</v>
+        <v>4.8569999999999997E-5</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -2191,51 +2191,51 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45459.611851851849</v>
+        <v>45479.768495370372</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>2.0114E-2</v>
+        <v>524.6</v>
       </c>
       <c r="E63">
-        <v>2036</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F63">
-        <v>40.952103999999999</v>
+        <v>34.098999999999997</v>
       </c>
       <c r="G63">
-        <v>4.0952099999999998E-2</v>
+        <v>4.8730000000000003E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.673125000001</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64">
-        <v>1.9619000000000001E-2</v>
+        <v>2.4140000000000002E-2</v>
       </c>
       <c r="E64">
-        <v>88</v>
+        <v>1976.8</v>
       </c>
       <c r="F64">
-        <v>1.726472</v>
+        <v>47.719951999999999</v>
       </c>
       <c r="G64">
-        <v>2.2000000000000001E-6</v>
+        <v>6.8789999999999997E-5</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -2243,77 +2243,77 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45457.954826388886</v>
+        <v>45479.672395833331</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>1.9619000000000001E-2</v>
+        <v>9.2099999999999999E-6</v>
       </c>
       <c r="E65">
-        <v>1950</v>
+        <v>5181574</v>
       </c>
       <c r="F65">
-        <v>38.25705</v>
+        <v>47.722296540000002</v>
       </c>
       <c r="G65">
-        <v>1.95</v>
+        <v>6.8889999999999999E-5</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45457.954560185193</v>
+        <v>45459.611851851849</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>0.50849999999999995</v>
+        <v>2.0114E-2</v>
       </c>
       <c r="E66">
-        <v>9.5</v>
+        <v>2036</v>
       </c>
       <c r="F66">
-        <v>4.8307500000000001</v>
+        <v>40.952103999999999</v>
       </c>
       <c r="G66">
-        <v>6.02E-6</v>
+        <v>4.0952099999999998E-2</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45457.954560185193</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>0.50860000000000005</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E67">
-        <v>29.8</v>
+        <v>88</v>
       </c>
       <c r="F67">
-        <v>15.156280000000001</v>
+        <v>1.726472</v>
       </c>
       <c r="G67">
-        <v>1.891E-5</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -2321,103 +2321,103 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45457.95416666667</v>
+        <v>45457.954826388886</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>1.145E-5</v>
+        <v>1.9619000000000001E-2</v>
       </c>
       <c r="E68">
-        <v>1746724</v>
+        <v>1950</v>
       </c>
       <c r="F68">
-        <v>19.999989800000002</v>
+        <v>38.25705</v>
       </c>
       <c r="G68">
-        <v>2.4329999999999999E-5</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45455.630983796298</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>3.7824000000000003E-2</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="E69">
-        <v>3465.2</v>
+        <v>9.5</v>
       </c>
       <c r="F69">
-        <v>131.06772480000001</v>
+        <v>4.8307500000000001</v>
       </c>
       <c r="G69">
-        <v>3.4651999999999998</v>
+        <v>6.02E-6</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45455.630624999998</v>
+        <v>45457.954560185193</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>69787.490000000005</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="E70">
-        <v>1.8799999999999999E-3</v>
+        <v>29.8</v>
       </c>
       <c r="F70">
-        <v>131.20048120000001</v>
+        <v>15.156280000000001</v>
       </c>
       <c r="G70">
-        <v>0.13120048000000001</v>
+        <v>1.891E-5</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45455.036585648151</v>
+        <v>45457.95416666667</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>67225.228872500011</v>
+        <v>1.145E-5</v>
       </c>
       <c r="E71">
-        <v>1.384E-4</v>
+        <v>1746724</v>
       </c>
       <c r="F71">
-        <v>9.303971675954001</v>
+        <v>19.999989800000002</v>
       </c>
       <c r="G71">
-        <v>1.1759999999999999E-5</v>
+        <v>2.4329999999999999E-5</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
@@ -2425,106 +2425,106 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45455.036585648151</v>
+        <v>45455.630983796298</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>0.116299645949425</v>
+        <v>3.7824000000000003E-2</v>
       </c>
       <c r="E72">
-        <v>80</v>
+        <v>3465.2</v>
       </c>
       <c r="F72">
-        <v>9.303971675954001</v>
+        <v>131.06772480000001</v>
       </c>
       <c r="G72">
-        <v>1.1759999999999999E-5</v>
+        <v>3.4651999999999998</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.630624999998</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>69351.951598999993</v>
+        <v>69787.490000000005</v>
       </c>
       <c r="E73">
-        <v>1.2520929999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F73">
-        <v>86.835093133446691</v>
+        <v>131.20048120000001</v>
       </c>
       <c r="G73">
-        <v>1.2500000000000001E-6</v>
+        <v>0.13120048000000001</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>683.74089081454088</v>
+        <v>67225.228872500011</v>
       </c>
       <c r="E74">
-        <v>0.127</v>
+        <v>1.384E-4</v>
       </c>
       <c r="F74">
-        <v>86.835093133446691</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G74">
-        <v>1.2500000000000001E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45451.519849537042</v>
+        <v>45455.036585648151</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>69351.951598999993</v>
+        <v>0.116299645949425</v>
       </c>
       <c r="E75">
-        <v>2.9577000000000002E-3</v>
+        <v>80</v>
       </c>
       <c r="F75">
-        <v>205.12226724436229</v>
+        <v>9.303971675954001</v>
       </c>
       <c r="G75">
-        <v>2.96E-6</v>
+        <v>1.1759999999999999E-5</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2532,22 +2532,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E76">
-        <v>0.3</v>
+        <v>1.2520929999999999E-3</v>
       </c>
       <c r="F76">
-        <v>205.12226724436229</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G76">
-        <v>2.96E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H76" t="s">
         <v>27</v>
@@ -2558,22 +2558,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E77">
-        <v>2.4647499999999995E-3</v>
+        <v>0.127</v>
       </c>
       <c r="F77">
-        <v>170.93522270363519</v>
+        <v>86.835093133446691</v>
       </c>
       <c r="G77">
-        <v>2.4600000000000002E-6</v>
+        <v>1.2500000000000001E-6</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
@@ -2584,22 +2584,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D78">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E78">
-        <v>0.25</v>
+        <v>2.9577000000000002E-3</v>
       </c>
       <c r="F78">
-        <v>170.93522270363519</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G78">
-        <v>2.4600000000000002E-6</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
@@ -2610,25 +2610,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E79">
-        <v>4.929499999999999E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F79">
-        <v>341.87044540727038</v>
+        <v>205.12226724436229</v>
       </c>
       <c r="G79">
-        <v>3.7500000000000001E-4</v>
+        <v>2.96E-6</v>
       </c>
       <c r="H79" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2636,25 +2636,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E80">
-        <v>0.5</v>
+        <v>2.4647499999999995E-3</v>
       </c>
       <c r="F80">
-        <v>341.87044540727038</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G80">
-        <v>3.7500000000000001E-4</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2662,25 +2662,25 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>69351.951598999993</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E81">
-        <v>8.0843799999999997E-4</v>
+        <v>0.25</v>
       </c>
       <c r="F81">
-        <v>56.066753046792357</v>
+        <v>170.93522270363519</v>
       </c>
       <c r="G81">
-        <v>6.1610000000000001E-5</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2688,22 +2688,22 @@
         <v>45451.519849537042</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <v>683.74089081454088</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E82">
-        <v>8.2000000000000003E-2</v>
+        <v>4.929499999999999E-3</v>
       </c>
       <c r="F82">
-        <v>56.066753046792357</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G82">
-        <v>6.1610000000000001E-5</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>683.89481871559008</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E83">
-        <v>1.121</v>
+        <v>0.5</v>
       </c>
       <c r="F83">
-        <v>766.64609178017645</v>
+        <v>341.87044540727038</v>
       </c>
       <c r="G83">
-        <v>8.4075000000000003E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -2737,25 +2737,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45451.519594907397</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>69360.529281499999</v>
+        <v>69351.951598999993</v>
       </c>
       <c r="E84">
-        <v>1.1053060000000002E-2</v>
+        <v>8.0843799999999997E-4</v>
       </c>
       <c r="F84">
-        <v>766.64609178017645</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G84">
-        <v>8.4075000000000003E-4</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45451.504004629627</v>
+        <v>45451.519849537042</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -2772,16 +2772,16 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <v>681.2</v>
+        <v>683.74089081454088</v>
       </c>
       <c r="E85">
-        <v>1.4999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F85">
-        <v>10.218</v>
+        <v>56.066753046792357</v>
       </c>
       <c r="G85">
-        <v>1.1240000000000001E-5</v>
+        <v>6.1610000000000001E-5</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -2789,207 +2789,207 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86">
-        <v>4.1304E-2</v>
+        <v>683.89481871559008</v>
       </c>
       <c r="E86">
-        <v>1210.5</v>
+        <v>1.121</v>
       </c>
       <c r="F86">
-        <v>49.998491999999999</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G86">
-        <v>1.2104999999999999</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45450.922071759262</v>
+        <v>45451.519594907397</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>4.1305000000000001E-2</v>
+        <v>69360.529281499999</v>
       </c>
       <c r="E87">
-        <v>1082.2</v>
+        <v>1.1053060000000002E-2</v>
       </c>
       <c r="F87">
-        <v>44.700271000000001</v>
+        <v>766.64609178017645</v>
       </c>
       <c r="G87">
-        <v>1.0822000000000001</v>
+        <v>8.4075000000000003E-4</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45450.921388888892</v>
+        <v>45451.504004629627</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>21.97</v>
+        <v>681.2</v>
       </c>
       <c r="E88">
-        <v>2.0099999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F88">
-        <v>44.159700000000001</v>
+        <v>10.218</v>
       </c>
       <c r="G88">
-        <v>4.4159700000000003E-2</v>
+        <v>1.1240000000000001E-5</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45450.920393518521</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>39.244999999999997</v>
+        <v>4.1304E-2</v>
       </c>
       <c r="E89">
-        <v>1.3</v>
+        <v>1210.5</v>
       </c>
       <c r="F89">
-        <v>51.018500000000003</v>
+        <v>49.998491999999999</v>
       </c>
       <c r="G89">
-        <v>5.1018500000000001E-2</v>
+        <v>1.2104999999999999</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.922071759262</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90">
-        <v>70502.707116500009</v>
+        <v>4.1305000000000001E-2</v>
       </c>
       <c r="E90">
-        <v>5.1688999999999999E-5</v>
+        <v>1082.2</v>
       </c>
       <c r="F90">
-        <v>3.6442144281447688</v>
+        <v>44.700271000000001</v>
       </c>
       <c r="G90">
-        <v>4.9999999999999998E-8</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45447.972905092603</v>
+        <v>45450.921388888892</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>3.312922207404335</v>
+        <v>21.97</v>
       </c>
       <c r="E91">
-        <v>1.1000000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F91">
-        <v>3.6442144281447688</v>
+        <v>44.159700000000001</v>
       </c>
       <c r="G91">
-        <v>4.9999999999999998E-8</v>
+        <v>4.4159700000000003E-2</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45447.949826388889</v>
+        <v>45450.920393518521</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>70534.997166833316</v>
+        <v>39.244999999999997</v>
       </c>
       <c r="E92">
-        <v>2.4904700000000007E-4</v>
+        <v>1.3</v>
       </c>
       <c r="F92">
-        <v>17.566529439408342</v>
+        <v>51.018500000000003</v>
       </c>
       <c r="G92">
-        <v>2.4999999999999999E-7</v>
+        <v>5.1018500000000001E-2</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45447.949826388889</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>3.314439516869498</v>
+        <v>70502.707116500009</v>
       </c>
       <c r="E93">
-        <v>5.3</v>
+        <v>5.1688999999999999E-5</v>
       </c>
       <c r="F93">
-        <v>17.566529439408342</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G93">
-        <v>2.4999999999999999E-7</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -2997,77 +2997,77 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.972905092603</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>3810.4583321666669</v>
+        <v>3.312922207404335</v>
       </c>
       <c r="E94">
-        <v>1.363E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F94">
-        <v>51.936547067431668</v>
+        <v>3.6442144281447688</v>
       </c>
       <c r="G94">
-        <v>1.363E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="H94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45446.501504629632</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D95">
-        <v>0.51936547067431671</v>
+        <v>70534.997166833316</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>2.4904700000000007E-4</v>
       </c>
       <c r="F95">
-        <v>51.936547067431668</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G95">
-        <v>1.363E-5</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45446.496493055558</v>
+        <v>45447.949826388889</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>69129.989500166674</v>
+        <v>3.314439516869498</v>
       </c>
       <c r="E96">
-        <v>6.9092000000000003E-4</v>
+        <v>5.3</v>
       </c>
       <c r="F96">
-        <v>47.763292345455163</v>
+        <v>17.566529439408342</v>
       </c>
       <c r="G96">
-        <v>6.8999999999999996E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="H96" t="s">
         <v>27</v>
@@ -3075,77 +3075,77 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45446.496493055558</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>0.51916622114625177</v>
+        <v>3810.4583321666669</v>
       </c>
       <c r="E97">
-        <v>92</v>
+        <v>1.363E-2</v>
       </c>
       <c r="F97">
-        <v>47.763292345455163</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G97">
-        <v>6.8999999999999996E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.501504629632</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>69115.089471833344</v>
+        <v>0.51936547067431671</v>
       </c>
       <c r="E98">
-        <v>6.6420899999999991E-4</v>
+        <v>100</v>
       </c>
       <c r="F98">
-        <v>45.90686446299695</v>
+        <v>51.936547067431668</v>
       </c>
       <c r="G98">
-        <v>6.6000000000000003E-7</v>
+        <v>1.363E-5</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45446.420810185176</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>7.2868038830153896</v>
+        <v>69129.989500166674</v>
       </c>
       <c r="E99">
-        <v>6.3</v>
+        <v>6.9092000000000003E-4</v>
       </c>
       <c r="F99">
-        <v>45.90686446299695</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G99">
-        <v>6.6000000000000003E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H99" t="s">
         <v>27</v>
@@ -3153,25 +3153,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.496493055558</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>67749.869200166664</v>
+        <v>0.51916622114625177</v>
       </c>
       <c r="E100">
-        <v>9.3258000000000002E-4</v>
+        <v>92</v>
       </c>
       <c r="F100">
-        <v>63.182173018691429</v>
+        <v>47.763292345455163</v>
       </c>
       <c r="G100">
-        <v>9.2999999999999999E-7</v>
+        <v>6.8999999999999996E-7</v>
       </c>
       <c r="H100" t="s">
         <v>27</v>
@@ -3179,25 +3179,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45442.009212962963</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>21.273458928852332</v>
+        <v>69115.089471833344</v>
       </c>
       <c r="E101">
-        <v>2.97</v>
+        <v>6.6420899999999991E-4</v>
       </c>
       <c r="F101">
-        <v>63.182173018691429</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G101">
-        <v>9.2999999999999999E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H101" t="s">
         <v>27</v>
@@ -3205,25 +3205,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45441.908472222232</v>
+        <v>45446.420810185176</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>67695.037825500011</v>
+        <v>7.2868038830153896</v>
       </c>
       <c r="E102">
-        <v>7.3358999999999989E-4</v>
+        <v>6.3</v>
       </c>
       <c r="F102">
-        <v>49.660402798408548</v>
+        <v>45.90686446299695</v>
       </c>
       <c r="G102">
-        <v>7.3E-7</v>
+        <v>6.6000000000000003E-7</v>
       </c>
       <c r="H102" t="s">
         <v>27</v>
@@ -3231,25 +3231,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45441.908472222232</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>7.6400619689859308</v>
+        <v>67749.869200166664</v>
       </c>
       <c r="E103">
-        <v>6.5</v>
+        <v>9.3258000000000002E-4</v>
       </c>
       <c r="F103">
-        <v>49.660402798408548</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G103">
-        <v>7.3E-7</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H103" t="s">
         <v>27</v>
@@ -3257,33 +3257,33 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45440.886192129627</v>
+        <v>45442.009212962963</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>64131.089181479998</v>
+        <v>21.273458928852332</v>
       </c>
       <c r="E104">
-        <v>7.6406E-4</v>
+        <v>2.97</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>63.182173018691429</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>9.2999999999999999E-7</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -3292,16 +3292,16 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <v>69531.813510500011</v>
+        <v>67695.037825500011</v>
       </c>
       <c r="E105">
-        <v>4.0046400000000006E-4</v>
+        <v>7.3358999999999989E-4</v>
       </c>
       <c r="F105">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G105">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
@@ -3309,25 +3309,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45439.966828703713</v>
+        <v>45441.908472222232</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106">
-        <v>25.782396449693401</v>
+        <v>7.6400619689859308</v>
       </c>
       <c r="E106">
-        <v>1.08</v>
+        <v>6.5</v>
       </c>
       <c r="F106">
-        <v>27.84498816566888</v>
+        <v>49.660402798408548</v>
       </c>
       <c r="G106">
-        <v>3.9999999999999998E-7</v>
+        <v>7.3E-7</v>
       </c>
       <c r="H106" t="s">
         <v>27</v>
@@ -3335,51 +3335,51 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45439.965474537043</v>
+        <v>45440.886192129627</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>69520.879412499999</v>
+        <v>64131.089181479998</v>
       </c>
       <c r="E107">
-        <v>2.31E-4</v>
+        <v>7.6406E-4</v>
       </c>
       <c r="F107">
-        <v>16.0593231442875</v>
+        <v>50</v>
       </c>
       <c r="G107">
-        <v>2.2999999999999999E-7</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45439.965474537043</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>2.2941890206125</v>
+        <v>69531.813510500011</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>4.0046400000000006E-4</v>
       </c>
       <c r="F108">
-        <v>16.0593231442875</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G108">
-        <v>2.2999999999999999E-7</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -3387,103 +3387,103 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45438.413587962961</v>
+        <v>45439.966828703713</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>64764.057269930003</v>
+        <v>25.782396449693401</v>
       </c>
       <c r="E109">
-        <v>3.02637E-3</v>
+        <v>1.08</v>
       </c>
       <c r="F109">
-        <v>200</v>
+        <v>27.84498816566888</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45438.066701388889</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>21.880480030000001</v>
+        <v>69520.879412499999</v>
       </c>
       <c r="E110">
-        <v>3.3587014499999999</v>
+        <v>2.31E-4</v>
       </c>
       <c r="F110">
-        <v>75</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45438.064282407409</v>
+        <v>45439.965474537043</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>21.400680940000001</v>
+        <v>2.2941890206125</v>
       </c>
       <c r="E111">
-        <v>4.5792935400000001</v>
+        <v>7</v>
       </c>
       <c r="F111">
-        <v>100</v>
+        <v>16.0593231442875</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>2.2999999999999999E-7</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45438.062881944446</v>
+        <v>45438.413587962961</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112">
-        <v>2.0397180000000001E-2</v>
+        <v>64764.057269930003</v>
       </c>
       <c r="E112">
-        <v>4804.5860693499999</v>
+        <v>3.02637E-3</v>
       </c>
       <c r="F112">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
@@ -3491,25 +3491,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45438.016701388893</v>
+        <v>45438.066701388889</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113">
-        <v>0.50915756999999995</v>
+        <v>21.880480030000001</v>
       </c>
       <c r="E113">
-        <v>288.7121952</v>
+        <v>3.3587014499999999</v>
       </c>
       <c r="F113">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -3517,19 +3517,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45438.011793981481</v>
+        <v>45438.064282407409</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114">
-        <v>0.50817648999999998</v>
+        <v>21.400680940000001</v>
       </c>
       <c r="E114">
-        <v>192.84638819</v>
+        <v>4.5792935400000001</v>
       </c>
       <c r="F114">
         <v>100</v>
@@ -3543,19 +3543,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45437.934502314813</v>
+        <v>45438.062881944446</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115">
-        <v>1.414E-5</v>
+        <v>2.0397180000000001E-2</v>
       </c>
       <c r="E115">
-        <v>6928298.2400000002</v>
+        <v>4804.5860693499999</v>
       </c>
       <c r="F115">
         <v>100</v>
@@ -3569,25 +3569,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45437.927314814813</v>
+        <v>45438.016701388893</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116">
-        <v>7.6274206099999997</v>
+        <v>0.50915756999999995</v>
       </c>
       <c r="E116">
-        <v>12.848380199999999</v>
+        <v>288.7121952</v>
       </c>
       <c r="F116">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
@@ -3595,19 +3595,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45436.947754629633</v>
+        <v>45438.011793981481</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117">
-        <v>2571.01241222</v>
+        <v>0.50817648999999998</v>
       </c>
       <c r="E117">
-        <v>3.8117280000000003E-2</v>
+        <v>192.84638819</v>
       </c>
       <c r="F117">
         <v>100</v>
@@ -3621,25 +3621,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45436.935613425929</v>
+        <v>45437.934502314813</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118">
-        <v>3502.0461955599999</v>
+        <v>1.414E-5</v>
       </c>
       <c r="E118">
-        <v>4.1975459999999999E-2</v>
+        <v>6928298.2400000002</v>
       </c>
       <c r="F118">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
@@ -3647,19 +3647,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45436.934664351851</v>
+        <v>45437.927314814813</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>157.11043262000001</v>
+        <v>7.6274206099999997</v>
       </c>
       <c r="E119">
-        <v>0.62376507000000003</v>
+        <v>12.848380199999999</v>
       </c>
       <c r="F119">
         <v>100</v>
@@ -3673,19 +3673,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45436.433229166672</v>
+        <v>45436.947754629633</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120">
-        <v>63003.060148639997</v>
+        <v>2571.01241222</v>
       </c>
       <c r="E120">
-        <v>1.5554799999999999E-3</v>
+        <v>3.8117280000000003E-2</v>
       </c>
       <c r="F120">
         <v>100</v>
@@ -3699,25 +3699,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45426.641608796293</v>
+        <v>45436.935613425929</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121">
-        <v>57930.577887070001</v>
+        <v>3502.0461955599999</v>
       </c>
       <c r="E121">
-        <v>8.4584000000000005E-4</v>
+        <v>4.1975459999999999E-2</v>
       </c>
       <c r="F121">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45425.858472222222</v>
+        <v>45436.934664351851</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
@@ -3734,10 +3734,10 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>140.23996862000001</v>
+        <v>157.11043262000001</v>
       </c>
       <c r="E122">
-        <v>0.69880220999999998</v>
+        <v>0.62376507000000003</v>
       </c>
       <c r="F122">
         <v>100</v>
@@ -3751,25 +3751,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45422.839930555558</v>
+        <v>45436.433229166672</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>10.580849669999999</v>
+        <v>63003.060148639997</v>
       </c>
       <c r="E123">
-        <v>1.85240322</v>
+        <v>1.5554799999999999E-3</v>
       </c>
       <c r="F123">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G123">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
@@ -3777,25 +3777,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45422.83865740741</v>
+        <v>45426.641608796293</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124">
-        <v>2752.3331128700001</v>
+        <v>57930.577887070001</v>
       </c>
       <c r="E124">
-        <v>5.3372899999999997E-3</v>
+        <v>8.4584000000000005E-4</v>
       </c>
       <c r="F124">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G124">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
@@ -3803,25 +3803,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45422.837546296287</v>
+        <v>45425.858472222222</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125">
-        <v>57425.239760140001</v>
+        <v>140.23996862000001</v>
       </c>
       <c r="E125">
-        <v>5.1197000000000005E-4</v>
+        <v>0.69880220999999998</v>
       </c>
       <c r="F125">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G125">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
@@ -3829,25 +3829,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45422.835844907408</v>
+        <v>45422.839930555558</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126">
-        <v>2.10457801</v>
+        <v>10.580849669999999</v>
       </c>
       <c r="E126">
-        <v>6.9800216099999997</v>
+        <v>1.85240322</v>
       </c>
       <c r="F126">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G126">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="s">
         <v>18</v>
@@ -3855,25 +3855,25 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45422.833622685182</v>
+        <v>45422.83865740741</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127">
-        <v>0.1200639</v>
+        <v>2752.3331128700001</v>
       </c>
       <c r="E127">
-        <v>163.24640485</v>
+        <v>5.3372899999999997E-3</v>
       </c>
       <c r="F127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G127">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
@@ -3881,25 +3881,25 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45422.831307870372</v>
+        <v>45422.837546296287</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128">
-        <v>140.17980062000001</v>
+        <v>57425.239760140001</v>
       </c>
       <c r="E128">
-        <v>0.13982043</v>
+        <v>5.1197000000000005E-4</v>
       </c>
       <c r="F128">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G128">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="s">
         <v>18</v>
@@ -3907,19 +3907,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45422.829675925917</v>
+        <v>45422.835844907408</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129">
-        <v>0.79988477999999996</v>
+        <v>2.10457801</v>
       </c>
       <c r="E129">
-        <v>18.365145070000001</v>
+        <v>6.9800216099999997</v>
       </c>
       <c r="F129">
         <v>15</v>
@@ -3933,19 +3933,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45422.08221064815</v>
+        <v>45422.833622685182</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130">
-        <v>143.75063899</v>
+        <v>0.1200639</v>
       </c>
       <c r="E130">
-        <v>0.13634721999999999</v>
+        <v>163.24640485</v>
       </c>
       <c r="F130">
         <v>20</v>
@@ -3959,25 +3959,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45422.07099537037</v>
+        <v>45422.831307870372</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131">
-        <v>0.93873598000000003</v>
+        <v>140.17980062000001</v>
       </c>
       <c r="E131">
-        <v>26.088272459999999</v>
+        <v>0.13982043</v>
       </c>
       <c r="F131">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G131">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="s">
         <v>18</v>
@@ -3985,25 +3985,25 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45422.069872685177</v>
+        <v>45422.829675925917</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132">
-        <v>2583.1506530400002</v>
+        <v>0.79988477999999996</v>
       </c>
       <c r="E132">
-        <v>6.8288699999999999E-3</v>
+        <v>18.365145070000001</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G132">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="H132" t="s">
         <v>18</v>
@@ -4011,25 +4011,25 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45422.056192129632</v>
+        <v>45422.08221064815</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="D133">
-        <v>2.1432031</v>
+        <v>143.75063899</v>
       </c>
       <c r="E133">
-        <v>11.426821869999999</v>
+        <v>0.13634721999999999</v>
       </c>
       <c r="F133">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G133">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="s">
         <v>18</v>
@@ -4037,19 +4037,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45422.018043981479</v>
+        <v>45422.07099537037</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134">
-        <v>10.234263159999999</v>
+        <v>0.93873598000000003</v>
       </c>
       <c r="E134">
-        <v>2.3929421799999999</v>
+        <v>26.088272459999999</v>
       </c>
       <c r="F134">
         <v>25</v>
@@ -4063,25 +4063,25 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45421.93954861111</v>
+        <v>45422.069872685177</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135">
-        <v>0.11898276000000001</v>
+        <v>2583.1506530400002</v>
       </c>
       <c r="E135">
-        <v>205.82814242000001</v>
+        <v>6.8288699999999999E-3</v>
       </c>
       <c r="F135">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G135">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="H135" t="s">
         <v>18</v>
@@ -4089,19 +4089,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45421.817245370366</v>
+        <v>45422.056192129632</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="D136">
-        <v>3.8034991200000001</v>
+        <v>2.1432031</v>
       </c>
       <c r="E136">
-        <v>6.4388078499999999</v>
+        <v>11.426821869999999</v>
       </c>
       <c r="F136">
         <v>25</v>
@@ -4115,19 +4115,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45418.977210648147</v>
+        <v>45422.018043981479</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137">
-        <v>2912.2689564799998</v>
+        <v>10.234263159999999</v>
       </c>
       <c r="E137">
-        <v>8.4072299999999999E-3</v>
+        <v>2.3929421799999999</v>
       </c>
       <c r="F137">
         <v>25</v>
@@ -4141,19 +4141,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45418.969189814823</v>
+        <v>45421.93954861111</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
       <c r="D138">
-        <v>59899.712723249999</v>
+        <v>0.11898276000000001</v>
       </c>
       <c r="E138">
-        <v>4.0884999999999999E-4</v>
+        <v>205.82814242000001</v>
       </c>
       <c r="F138">
         <v>25</v>
@@ -4167,19 +4167,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45414.950277777767</v>
+        <v>45421.817245370366</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
       <c r="D139">
-        <v>131.18665751</v>
+        <v>3.8034991200000001</v>
       </c>
       <c r="E139">
-        <v>0.18668056999999999</v>
+        <v>6.4388078499999999</v>
       </c>
       <c r="F139">
         <v>25</v>
@@ -4188,6 +4188,84 @@
         <v>0.51</v>
       </c>
       <c r="H139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E140">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F140">
+        <v>25</v>
+      </c>
+      <c r="G140">
+        <v>0.51</v>
+      </c>
+      <c r="H140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45418.969189814823</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E141">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F141">
+        <v>25</v>
+      </c>
+      <c r="G141">
+        <v>0.51</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45414.950277777767</v>
+      </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>131.18665751</v>
+      </c>
+      <c r="E142">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F142">
+        <v>25</v>
+      </c>
+      <c r="G142">
+        <v>0.51</v>
+      </c>
+      <c r="H142" t="s">
         <v>18</v>
       </c>
     </row>
